--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,24 +4,22 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
     <sheet name="Configs" sheetId="1" r:id="rId2"/>
-    <sheet name="Dados_Projetados" sheetId="2" r:id="rId3"/>
-    <sheet name="Cenarios" sheetId="9" r:id="rId4"/>
-    <sheet name="Parametros" sheetId="4" r:id="rId5"/>
-    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId6"/>
-    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId7"/>
-    <sheet name="Distribuições" sheetId="10" r:id="rId8"/>
-    <sheet name="Categorias" sheetId="13" r:id="rId9"/>
-    <sheet name="Custos" sheetId="8" r:id="rId10"/>
-    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId11"/>
+    <sheet name="Parametros" sheetId="4" r:id="rId3"/>
+    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId4"/>
+    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId5"/>
+    <sheet name="Distribuições" sheetId="10" r:id="rId6"/>
+    <sheet name="Categorias" sheetId="13" r:id="rId7"/>
+    <sheet name="Custos" sheetId="8" r:id="rId8"/>
+    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parametros!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parametros!$A$1:$G$10</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
     <definedName name="CategoriaSAT">Configs!$C$2:$C$2</definedName>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="126">
   <si>
     <t>Ano</t>
   </si>
@@ -44,9 +42,6 @@
     <t>Funcionarios</t>
   </si>
   <si>
-    <t>FolhadePagamento</t>
-  </si>
-  <si>
     <t>CategoriaSAT</t>
   </si>
   <si>
@@ -56,21 +51,6 @@
     <t>AnosaSeremSimulados</t>
   </si>
   <si>
-    <t>SalarioMedio</t>
-  </si>
-  <si>
-    <t>SATProjetado</t>
-  </si>
-  <si>
-    <t>IndiceDoSAT</t>
-  </si>
-  <si>
-    <t>FAPProjetado</t>
-  </si>
-  <si>
-    <t>DespesaSATProjetada</t>
-  </si>
-  <si>
     <t>NomeVariavel</t>
   </si>
   <si>
@@ -200,30 +180,6 @@
     <t>NomeIniciativa10</t>
   </si>
   <si>
-    <t>Iniciativa3</t>
-  </si>
-  <si>
-    <t>Iniciativa4</t>
-  </si>
-  <si>
-    <t>Iniciativa5</t>
-  </si>
-  <si>
-    <t>Iniciativa6</t>
-  </si>
-  <si>
-    <t>Iniciativa7</t>
-  </si>
-  <si>
-    <t>Iniciativa8</t>
-  </si>
-  <si>
-    <t>Iniciativa9</t>
-  </si>
-  <si>
-    <t>Iniciativa10</t>
-  </si>
-  <si>
     <t>TodasIniciativas</t>
   </si>
   <si>
@@ -239,13 +195,7 @@
     <t>Replicacoes</t>
   </si>
   <si>
-    <t>Simular</t>
-  </si>
-  <si>
     <t>Cenario</t>
-  </si>
-  <si>
-    <t>CenarioASIS</t>
   </si>
   <si>
     <t>CustoTotal</t>
@@ -518,12 +468,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,16 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,12 +490,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,412 +822,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>29</v>
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F5"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D5" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D6" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D9" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D18" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D20" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D21" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -1320,58 +931,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1401,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1418,538 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <f>Ano_Inicial</f>
-        <v>2017</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C2" s="8">
-        <f>B2*850</f>
-        <v>2550000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>750</v>
-      </c>
-      <c r="E2" s="5">
-        <f>F2*C2</f>
-        <v>153000</v>
-      </c>
-      <c r="F2" s="7">
-        <f>G2*H2</f>
-        <v>0.06</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H2">
-        <f>CategoriaSAT</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="14">
-        <v>8</v>
-      </c>
-      <c r="J2" s="14">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3:A6" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
-        <v>2018</v>
-      </c>
-      <c r="B3" s="2">
-        <f>ROUND(B2*1.005,0)</f>
-        <v>3015</v>
-      </c>
-      <c r="C3" s="8">
-        <f t="shared" ref="C3:C6" si="1">B3*850</f>
-        <v>2562750</v>
-      </c>
-      <c r="D3" s="4">
-        <f>ROUND(D2*1.08,2)</f>
-        <v>810</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E6" si="2">F3*C3</f>
-        <v>153765</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F6" si="3">G3*H3</f>
-        <v>0.06</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H6" si="4">CategoriaSAT</f>
-        <v>3</v>
-      </c>
-      <c r="I3" s="14">
-        <v>8</v>
-      </c>
-      <c r="J3" s="14">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:B6" si="5">ROUND(B3*1.005,0)</f>
-        <v>3030</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" si="1"/>
-        <v>2575500</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D6" si="6">ROUND(D3*1.08,2)</f>
-        <v>874.8</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="2"/>
-        <v>154530</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I4" s="14">
-        <v>8</v>
-      </c>
-      <c r="J4" s="14">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="5"/>
-        <v>3045</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="1"/>
-        <v>2588250</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="6"/>
-        <v>944.78</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="2"/>
-        <v>155295</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I5" s="14">
-        <v>8</v>
-      </c>
-      <c r="J5" s="14">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="5"/>
-        <v>3060</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" si="1"/>
-        <v>2601000</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="6"/>
-        <v>1020.36</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="2"/>
-        <v>156060</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I6" s="14">
-        <v>8</v>
-      </c>
-      <c r="J6" s="14">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="F26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,34 +1046,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>3.0000000000000001E-3</v>
@@ -1998,18 +1081,18 @@
       <c r="D2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>5.0000000000000001E-3</v>
@@ -2018,15 +1101,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>2E-3</v>
@@ -2035,15 +1118,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>2E-3</v>
@@ -2052,15 +1135,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>1E-3</v>
@@ -2069,15 +1152,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -2086,15 +1169,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -2103,15 +1186,15 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -2120,15 +1203,15 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -2137,15 +1220,15 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>84</v>
+      <c r="A11" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>3.0000000000000001E-3</v>
@@ -2153,18 +1236,18 @@
       <c r="D11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>5.0000000000000001E-3</v>
@@ -2173,15 +1256,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>2E-3</v>
@@ -2190,15 +1273,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>2E-3</v>
@@ -2207,15 +1290,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>1E-3</v>
@@ -2224,15 +1307,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>0.4</v>
@@ -2241,15 +1324,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>0.3</v>
@@ -2258,15 +1341,15 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.2</v>
@@ -2275,15 +1358,15 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>0.1</v>
@@ -2292,15 +1375,15 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -2309,15 +1392,15 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -2326,15 +1409,15 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2343,15 +1426,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -2360,15 +1443,15 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -2377,15 +1460,15 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2394,15 +1477,15 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2411,15 +1494,15 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2428,15 +1511,15 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -2445,15 +1528,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2462,15 +1545,15 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2479,15 +1562,15 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2496,15 +1579,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2513,15 +1596,15 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2530,15 +1613,15 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2547,15 +1630,15 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -2564,15 +1647,15 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2581,15 +1664,15 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -2598,15 +1681,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -2615,15 +1698,15 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -2632,15 +1715,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -2649,15 +1732,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -2666,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
@@ -2693,18 +1776,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2716,10 +1799,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C3" t="b">
         <f>TRUE</f>
@@ -2728,10 +1811,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C4" t="b">
         <f>TRUE</f>
@@ -2740,10 +1823,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE</f>
@@ -2752,10 +1835,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C6" t="b">
         <f>TRUE</f>
@@ -2764,10 +1847,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C7" t="b">
         <f>TRUE</f>
@@ -2776,10 +1859,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -2788,10 +1871,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -2800,10 +1883,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -2812,10 +1895,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -2824,7 +1907,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2836,10 +1919,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C13" t="b">
         <f>FALSE</f>
@@ -2848,10 +1931,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C14" t="b">
         <f>FALSE</f>
@@ -2860,10 +1943,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C15" t="b">
         <f>FALSE</f>
@@ -2872,10 +1955,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C16" t="b">
         <f>FALSE</f>
@@ -2884,10 +1967,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C17" t="b">
         <f>FALSE</f>
@@ -2896,10 +1979,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C18" t="b">
         <f>FALSE</f>
@@ -2908,10 +1991,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C19" t="b">
         <f>FALSE</f>
@@ -2920,10 +2003,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C20" t="b">
         <f>FALSE</f>
@@ -2932,10 +2015,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C21" t="b">
         <f>TRUE</f>
@@ -2944,7 +2027,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2956,10 +2039,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C23" t="b">
         <f>FALSE</f>
@@ -2968,10 +2051,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C24" t="b">
         <f>FALSE</f>
@@ -2980,10 +2063,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C25" t="b">
         <f>TRUE</f>
@@ -2992,10 +2075,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C26" t="b">
         <f>FALSE</f>
@@ -3004,10 +2087,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C27" t="b">
         <f>FALSE</f>
@@ -3016,10 +2099,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C28" t="b">
         <f>FALSE</f>
@@ -3028,10 +2111,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C29" t="b">
         <f>FALSE</f>
@@ -3040,10 +2123,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C30" t="b">
         <f>FALSE</f>
@@ -3052,7 +2135,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B31" t="str">
         <f>"ProbMulta_"&amp;D31</f>
@@ -3063,12 +2146,12 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B32" t="str">
         <f>"ProbMulta_"&amp;D32</f>
@@ -3079,12 +2162,12 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B33" t="str">
         <f>"ProbMulta_"&amp;D33</f>
@@ -3095,12 +2178,12 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B34" t="str">
         <f>"CustoMedioMulta_"&amp;D34</f>
@@ -3111,12 +2194,12 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B35" t="str">
         <f>"CustoMedioMulta_"&amp;D35</f>
@@ -3127,12 +2210,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B36" t="str">
         <f>"CustoMedioMulta_"&amp;D36</f>
@@ -3143,12 +2226,12 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B37" t="str">
         <f>"Atendimento_"&amp;D37</f>
@@ -3159,12 +2242,12 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" ref="B38:B39" si="0">"Atendimento_"&amp;D38</f>
@@ -3175,12 +2258,12 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -3191,15 +2274,15 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C40" t="b">
         <f>FALSE</f>
@@ -3208,10 +2291,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
         <v>124</v>
-      </c>
-      <c r="B41" t="s">
-        <v>140</v>
       </c>
       <c r="C41" t="b">
         <f>FALSE</f>
@@ -3220,10 +2303,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C42" t="b">
         <f>FALSE</f>
@@ -3232,10 +2315,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C43" t="b">
         <f>FALSE</f>
@@ -3244,10 +2327,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C44" t="b">
         <f>FALSE</f>
@@ -3256,10 +2339,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C45" t="b">
         <f>FALSE</f>
@@ -3268,10 +2351,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C46" t="b">
         <f>FALSE</f>
@@ -3280,10 +2363,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C47" t="b">
         <f>FALSE</f>
@@ -3292,10 +2375,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C48" t="b">
         <f>FALSE</f>
@@ -3304,10 +2387,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C49" t="b">
         <f>FALSE</f>
@@ -3316,10 +2399,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C50" t="b">
         <f>FALSE</f>
@@ -3332,7 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -3349,261 +2432,261 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B24" t="str">
         <f>"NumeroMultas_"&amp;C24</f>
         <v>NumeroMultas_Lei1</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:B26" si="0">"NumeroMultas_"&amp;C25</f>
         <v>NumeroMultas_Lei2</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>NumeroMultas_Lei3</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B27" t="str">
         <f>"ProbMultaAjustada_"&amp;C27</f>
         <v>ProbMultaAjustada_Lei1</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B28" t="str">
         <f>"ProbMultaAjustada_"&amp;C28</f>
         <v>ProbMultaAjustada_Lei2</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B29" t="str">
         <f>"ProbMultaAjustada_"&amp;C29</f>
         <v>ProbMultaAjustada_Lei3</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3611,7 +2694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3629,55 +2712,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -3697,25 +2780,352 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
     <sheet name="Configs" sheetId="1" r:id="rId2"/>
-    <sheet name="Parametros" sheetId="4" r:id="rId3"/>
-    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId4"/>
-    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId5"/>
-    <sheet name="Distribuições" sheetId="10" r:id="rId6"/>
-    <sheet name="Categorias" sheetId="13" r:id="rId7"/>
-    <sheet name="Custos" sheetId="8" r:id="rId8"/>
-    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId9"/>
+    <sheet name="Dados_Projetados" sheetId="2" r:id="rId3"/>
+    <sheet name="Cenarios" sheetId="9" r:id="rId4"/>
+    <sheet name="Parametros" sheetId="4" r:id="rId5"/>
+    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId6"/>
+    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId7"/>
+    <sheet name="Distribuições" sheetId="10" r:id="rId8"/>
+    <sheet name="Categorias" sheetId="13" r:id="rId9"/>
+    <sheet name="Custos" sheetId="8" r:id="rId10"/>
+    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parametros!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parametros!$A$1:$G$10</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
     <definedName name="CategoriaSAT">Configs!$C$2:$C$2</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
   <si>
     <t>Ano</t>
   </si>
@@ -42,6 +44,9 @@
     <t>Funcionarios</t>
   </si>
   <si>
+    <t>FolhadePagamento</t>
+  </si>
+  <si>
     <t>CategoriaSAT</t>
   </si>
   <si>
@@ -51,6 +56,21 @@
     <t>AnosaSeremSimulados</t>
   </si>
   <si>
+    <t>SalarioMedio</t>
+  </si>
+  <si>
+    <t>SATProjetado</t>
+  </si>
+  <si>
+    <t>IndiceDoSAT</t>
+  </si>
+  <si>
+    <t>FAPProjetado</t>
+  </si>
+  <si>
+    <t>DespesaSATProjetada</t>
+  </si>
+  <si>
     <t>NomeVariavel</t>
   </si>
   <si>
@@ -180,6 +200,30 @@
     <t>NomeIniciativa10</t>
   </si>
   <si>
+    <t>Iniciativa3</t>
+  </si>
+  <si>
+    <t>Iniciativa4</t>
+  </si>
+  <si>
+    <t>Iniciativa5</t>
+  </si>
+  <si>
+    <t>Iniciativa6</t>
+  </si>
+  <si>
+    <t>Iniciativa7</t>
+  </si>
+  <si>
+    <t>Iniciativa8</t>
+  </si>
+  <si>
+    <t>Iniciativa9</t>
+  </si>
+  <si>
+    <t>Iniciativa10</t>
+  </si>
+  <si>
     <t>TodasIniciativas</t>
   </si>
   <si>
@@ -195,7 +239,13 @@
     <t>Replicacoes</t>
   </si>
   <si>
+    <t>Simular</t>
+  </si>
+  <si>
     <t>Cenario</t>
+  </si>
+  <si>
+    <t>CenarioASIS</t>
   </si>
   <si>
     <t>CustoTotal</t>
@@ -468,11 +518,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,7 +531,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -490,10 +550,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -822,85 +884,412 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F5"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -931,58 +1320,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1012,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1029,10 +1418,538 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>Ano_Inicial</f>
+        <v>2017</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="8">
+        <f>B2*850</f>
+        <v>2550000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>750</v>
+      </c>
+      <c r="E2" s="5">
+        <f>F2*C2</f>
+        <v>153000</v>
+      </c>
+      <c r="F2" s="7">
+        <f>G2*H2</f>
+        <v>0.06</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <f>CategoriaSAT</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="14">
+        <v>8</v>
+      </c>
+      <c r="J2" s="14">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A6" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
+        <v>2018</v>
+      </c>
+      <c r="B3" s="2">
+        <f>ROUND(B2*1.005,0)</f>
+        <v>3015</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C6" si="1">B3*850</f>
+        <v>2562750</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ROUND(D2*1.08,2)</f>
+        <v>810</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E6" si="2">F3*C3</f>
+        <v>153765</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F6" si="3">G3*H3</f>
+        <v>0.06</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="4">CategoriaSAT</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="14">
+        <v>8</v>
+      </c>
+      <c r="J3" s="14">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B6" si="5">ROUND(B3*1.005,0)</f>
+        <v>3030</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="1"/>
+        <v>2575500</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D6" si="6">ROUND(D3*1.08,2)</f>
+        <v>874.8</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="2"/>
+        <v>154530</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="14">
+        <v>8</v>
+      </c>
+      <c r="J4" s="14">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="5"/>
+        <v>3045</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>2588250</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="6"/>
+        <v>944.78</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="2"/>
+        <v>155295</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="14">
+        <v>8</v>
+      </c>
+      <c r="J5" s="14">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="5"/>
+        <v>3060</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="1"/>
+        <v>2601000</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="6"/>
+        <v>1020.36</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>156060</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="14">
+        <v>8</v>
+      </c>
+      <c r="J6" s="14">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="F26:G26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,34 +1963,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>53</v>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>68</v>
+      <c r="A2" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>3.0000000000000001E-3</v>
@@ -1081,18 +1998,18 @@
       <c r="D2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>5.0000000000000001E-3</v>
@@ -1101,15 +2018,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>2E-3</v>
@@ -1118,15 +2035,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>2E-3</v>
@@ -1135,15 +2052,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>1E-3</v>
@@ -1152,15 +2069,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -1169,15 +2086,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -1186,15 +2103,15 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -1203,15 +2120,15 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -1220,15 +2137,15 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>68</v>
+      <c r="A11" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>3.0000000000000001E-3</v>
@@ -1236,18 +2153,18 @@
       <c r="D11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>5.0000000000000001E-3</v>
@@ -1256,15 +2173,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>2E-3</v>
@@ -1273,15 +2190,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>2E-3</v>
@@ -1290,15 +2207,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>1E-3</v>
@@ -1307,15 +2224,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>0.4</v>
@@ -1324,15 +2241,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>0.3</v>
@@ -1341,15 +2258,15 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>0.2</v>
@@ -1358,15 +2275,15 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>0.1</v>
@@ -1375,15 +2292,15 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -1392,15 +2309,15 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -1409,15 +2326,15 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1426,15 +2343,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1443,15 +2360,15 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1460,15 +2377,15 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1477,15 +2394,15 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1494,15 +2411,15 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1511,15 +2428,15 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1528,15 +2445,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1545,15 +2462,15 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1562,15 +2479,15 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1579,15 +2496,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1596,15 +2513,15 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1613,15 +2530,15 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1630,15 +2547,15 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1647,15 +2564,15 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1664,15 +2581,15 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1681,15 +2598,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1698,15 +2615,15 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1715,15 +2632,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1732,15 +2649,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1749,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +2676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
@@ -1776,18 +2693,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1799,10 +2716,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C3" t="b">
         <f>TRUE</f>
@@ -1811,10 +2728,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C4" t="b">
         <f>TRUE</f>
@@ -1823,10 +2740,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE</f>
@@ -1835,10 +2752,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C6" t="b">
         <f>TRUE</f>
@@ -1847,10 +2764,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C7" t="b">
         <f>TRUE</f>
@@ -1859,10 +2776,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -1871,10 +2788,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -1883,10 +2800,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -1895,10 +2812,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -1907,7 +2824,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1919,10 +2836,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
         <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
       </c>
       <c r="C13" t="b">
         <f>FALSE</f>
@@ -1931,10 +2848,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C14" t="b">
         <f>FALSE</f>
@@ -1943,10 +2860,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C15" t="b">
         <f>FALSE</f>
@@ -1955,10 +2872,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C16" t="b">
         <f>FALSE</f>
@@ -1967,10 +2884,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C17" t="b">
         <f>FALSE</f>
@@ -1979,10 +2896,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C18" t="b">
         <f>FALSE</f>
@@ -1991,10 +2908,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C19" t="b">
         <f>FALSE</f>
@@ -2003,10 +2920,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C20" t="b">
         <f>FALSE</f>
@@ -2015,10 +2932,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C21" t="b">
         <f>TRUE</f>
@@ -2027,7 +2944,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2039,10 +2956,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C23" t="b">
         <f>FALSE</f>
@@ -2051,10 +2968,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" t="b">
         <f>FALSE</f>
@@ -2063,10 +2980,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C25" t="b">
         <f>TRUE</f>
@@ -2075,10 +2992,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C26" t="b">
         <f>FALSE</f>
@@ -2087,10 +3004,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C27" t="b">
         <f>FALSE</f>
@@ -2099,10 +3016,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C28" t="b">
         <f>FALSE</f>
@@ -2111,10 +3028,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C29" t="b">
         <f>FALSE</f>
@@ -2123,10 +3040,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C30" t="b">
         <f>FALSE</f>
@@ -2135,7 +3052,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B31" t="str">
         <f>"ProbMulta_"&amp;D31</f>
@@ -2146,12 +3063,12 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B32" t="str">
         <f>"ProbMulta_"&amp;D32</f>
@@ -2162,12 +3079,12 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B33" t="str">
         <f>"ProbMulta_"&amp;D33</f>
@@ -2178,12 +3095,12 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B34" t="str">
         <f>"CustoMedioMulta_"&amp;D34</f>
@@ -2194,12 +3111,12 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B35" t="str">
         <f>"CustoMedioMulta_"&amp;D35</f>
@@ -2210,12 +3127,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B36" t="str">
         <f>"CustoMedioMulta_"&amp;D36</f>
@@ -2226,12 +3143,12 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B37" t="str">
         <f>"Atendimento_"&amp;D37</f>
@@ -2242,12 +3159,12 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" ref="B38:B39" si="0">"Atendimento_"&amp;D38</f>
@@ -2258,12 +3175,12 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -2274,15 +3191,15 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C40" t="b">
         <f>FALSE</f>
@@ -2291,10 +3208,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C41" t="b">
         <f>FALSE</f>
@@ -2303,10 +3220,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C42" t="b">
         <f>FALSE</f>
@@ -2315,10 +3232,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C43" t="b">
         <f>FALSE</f>
@@ -2327,10 +3244,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C44" t="b">
         <f>FALSE</f>
@@ -2339,10 +3256,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C45" t="b">
         <f>FALSE</f>
@@ -2351,10 +3268,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C46" t="b">
         <f>FALSE</f>
@@ -2363,10 +3280,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C47" t="b">
         <f>FALSE</f>
@@ -2375,10 +3292,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" t="s">
-        <v>92</v>
       </c>
       <c r="C48" t="b">
         <f>FALSE</f>
@@ -2387,10 +3304,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C49" t="b">
         <f>FALSE</f>
@@ -2399,10 +3316,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C50" t="b">
         <f>FALSE</f>
@@ -2415,7 +3332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -2432,261 +3349,261 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
         <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B24" t="str">
         <f>"NumeroMultas_"&amp;C24</f>
         <v>NumeroMultas_Lei1</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:B26" si="0">"NumeroMultas_"&amp;C25</f>
         <v>NumeroMultas_Lei2</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>NumeroMultas_Lei3</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B27" t="str">
         <f>"ProbMultaAjustada_"&amp;C27</f>
         <v>ProbMultaAjustada_Lei1</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B28" t="str">
         <f>"ProbMultaAjustada_"&amp;C28</f>
         <v>ProbMultaAjustada_Lei2</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B29" t="str">
         <f>"ProbMultaAjustada_"&amp;C29</f>
         <v>ProbMultaAjustada_Lei3</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +3611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2712,55 +3629,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2780,352 +3697,25 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2020</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2021</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2019</v>
-      </c>
-      <c r="D9" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2020</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2021</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2018</v>
-      </c>
-      <c r="D18" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2020</v>
-      </c>
-      <c r="D20" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2021</v>
-      </c>
-      <c r="D21" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="134">
   <si>
     <t>Ano</t>
   </si>
@@ -428,40 +428,16 @@
     <t>Lei3</t>
   </si>
   <si>
-    <t>ProbMulta_Lei1</t>
-  </si>
-  <si>
-    <t>ProbMulta_Lei2</t>
-  </si>
-  <si>
-    <t>ProbMulta_Lei3</t>
-  </si>
-  <si>
-    <t>CustoMedioMulta_Lei1</t>
-  </si>
-  <si>
-    <t>CustoMedioMulta_Lei2</t>
-  </si>
-  <si>
-    <t>CustoMedioMulta_Lei3</t>
-  </si>
-  <si>
     <t>Atendimento_Lei1</t>
   </si>
   <si>
-    <t>Atendimento_Lei2</t>
-  </si>
-  <si>
-    <t>Atendimento_Lei3</t>
-  </si>
-  <si>
     <t>Crise</t>
   </si>
   <si>
     <t>FatorCrise</t>
   </si>
   <si>
-    <t>FatorMultiplicativoMultas</t>
+    <t>NumeroMultasAPriori_Lei1</t>
   </si>
 </sst>
 </file>
@@ -1420,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,13 +1448,14 @@
         <v>21</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="M1" s="9" t="str">
+        <f>"CustoMedioMulta_Lei1"</f>
+        <v>CustoMedioMulta_Lei1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1518,13 +1495,13 @@
         <v>20</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.05</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1566,13 +1543,13 @@
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.05</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1617,10 +1594,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.05</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1665,10 +1642,10 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.05</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1713,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.05</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1946,15 +1923,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -2365,16 +2342,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -2382,16 +2359,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2399,273 +2376,35 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2678,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" activeCellId="1" sqref="B31 B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,8 +2794,8 @@
         <v>124</v>
       </c>
       <c r="B31" t="str">
-        <f>"ProbMulta_"&amp;D31</f>
-        <v>ProbMulta_Lei1</v>
+        <f>"NumeroMultasAPriori_"&amp;D31</f>
+        <v>NumeroMultasAPriori_Lei1</v>
       </c>
       <c r="C31" t="b">
         <f>TRUE</f>
@@ -3071,15 +2810,15 @@
         <v>124</v>
       </c>
       <c r="B32" t="str">
-        <f>"ProbMulta_"&amp;D32</f>
-        <v>ProbMulta_Lei2</v>
+        <f>"CustoMedioMulta_"&amp;D32</f>
+        <v>CustoMedioMulta_Lei1</v>
       </c>
       <c r="C32" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,241 +2826,37 @@
         <v>124</v>
       </c>
       <c r="B33" t="str">
-        <f>"ProbMulta_"&amp;D33</f>
-        <v>ProbMulta_Lei3</v>
+        <f>"Atendimento_"&amp;D33</f>
+        <v>Atendimento_Lei1</v>
       </c>
       <c r="C33" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
-      <c r="B34" t="str">
-        <f>"CustoMedioMulta_"&amp;D34</f>
-        <v>CustoMedioMulta_Lei1</v>
+      <c r="B34" t="s">
+        <v>131</v>
       </c>
       <c r="C34" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
-      <c r="B35" t="str">
-        <f>"CustoMedioMulta_"&amp;D35</f>
-        <v>CustoMedioMulta_Lei2</v>
+      <c r="B35" t="s">
+        <v>132</v>
       </c>
       <c r="C35" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"CustoMedioMulta_"&amp;D36</f>
-        <v>CustoMedioMulta_Lei3</v>
-      </c>
-      <c r="C36" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"Atendimento_"&amp;D37</f>
-        <v>Atendimento_Lei1</v>
-      </c>
-      <c r="C37" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" ref="B38:B39" si="0">"Atendimento_"&amp;D38</f>
-        <v>Atendimento_Lei2</v>
-      </c>
-      <c r="C38" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>Atendimento_Lei3</v>
-      </c>
-      <c r="C39" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -3334,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,66 +3079,6 @@
       </c>
       <c r="C24" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" ref="B25:B26" si="0">"NumeroMultas_"&amp;C25</f>
-        <v>NumeroMultas_Lei2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>NumeroMultas_Lei3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"ProbMultaAjustada_"&amp;C27</f>
-        <v>ProbMultaAjustada_Lei1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" t="str">
-        <f>"ProbMultaAjustada_"&amp;C28</f>
-        <v>ProbMultaAjustada_Lei2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" t="str">
-        <f>"ProbMultaAjustada_"&amp;C29</f>
-        <v>ProbMultaAjustada_Lei3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="143">
   <si>
     <t>Ano</t>
   </si>
@@ -438,6 +438,33 @@
   </si>
   <si>
     <t>NumeroMultasAPriori_Lei1</t>
+  </si>
+  <si>
+    <t>calcular_acoes_regressivas_inss</t>
+  </si>
+  <si>
+    <t>Nev_AcaoRegressivaINSS</t>
+  </si>
+  <si>
+    <t>Nev_AcaoRegressivaInicial</t>
+  </si>
+  <si>
+    <t>PAcaoRegressiva</t>
+  </si>
+  <si>
+    <t>CustoMedioAcaoRegressivaINSS</t>
+  </si>
+  <si>
+    <t>DespesaAcoesRegressivasINSS</t>
+  </si>
+  <si>
+    <t>AcoesRegressivasINSS</t>
+  </si>
+  <si>
+    <t>Nev_AcaoRegressivaINSSAcumulado</t>
+  </si>
+  <si>
+    <t>PInvalidez</t>
   </si>
 </sst>
 </file>
@@ -1394,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,9 +1441,10 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,8 +1485,11 @@
         <f>"CustoMedioMulta_Lei1"</f>
         <v>CustoMedioMulta_Lei1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1503,8 +1534,11 @@
       <c r="M2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A6" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1551,8 +1585,11 @@
       <c r="M3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -1599,8 +1636,11 @@
       <c r="M4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -1647,8 +1687,11 @@
       <c r="M5">
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -1695,32 +1738,35 @@
       <c r="M6">
         <v>1200</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -1923,15 +1969,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -2408,6 +2454,108 @@
         <v>17</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>0.01</v>
+      </c>
+      <c r="D32">
+        <v>1E-3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>1E-3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G10"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2417,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" activeCellId="1" sqref="B31 B33"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,6 +3009,78 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2869,10 +3089,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,6 +3299,38 @@
       </c>
       <c r="C24" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Custos!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parametros!$A$1:$G$10</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="143">
   <si>
     <t>Ano</t>
   </si>
@@ -971,11 +972,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1029,257 +1028,34 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="12">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D4" s="4">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D5" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D6" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D9" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D18" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D20" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D21" s="4">
-        <v>150000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D5"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1301,7 +1077,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1155,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1000</v>
@@ -1423,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,16 +1299,16 @@
         <v>8</v>
       </c>
       <c r="J2" s="14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N2">
         <v>15000</v>
@@ -1540,207 +1316,77 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A6" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
+        <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
       </c>
       <c r="B3" s="2">
-        <f>ROUND(B2*1.005,0)</f>
-        <v>3015</v>
+        <v>3000</v>
       </c>
       <c r="C3" s="8">
-        <f t="shared" ref="C3:C6" si="1">B3*850</f>
-        <v>2562750</v>
+        <f t="shared" ref="C3" si="1">B3*850</f>
+        <v>2550000</v>
       </c>
       <c r="D3" s="4">
         <f>ROUND(D2*1.08,2)</f>
         <v>810</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E6" si="2">F3*C3</f>
-        <v>153765</v>
+        <f t="shared" ref="E3" si="2">F3*C3</f>
+        <v>153000</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F6" si="3">G3*H3</f>
+        <f t="shared" ref="F3" si="3">G3*H3</f>
         <v>0.06</v>
       </c>
       <c r="G3" s="6">
         <v>0.02</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="4">CategoriaSAT</f>
+        <f t="shared" ref="H3" si="4">CategoriaSAT</f>
         <v>3</v>
       </c>
       <c r="I3" s="14">
         <v>8</v>
       </c>
       <c r="J3" s="14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N3">
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:B6" si="5">ROUND(B3*1.005,0)</f>
-        <v>3030</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" si="1"/>
-        <v>2575500</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D6" si="6">ROUND(D3*1.08,2)</f>
-        <v>874.8</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="2"/>
-        <v>154530</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I4" s="14">
-        <v>8</v>
-      </c>
-      <c r="J4" s="14">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1200</v>
-      </c>
-      <c r="N4">
-        <v>15000</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="5"/>
-        <v>3045</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="1"/>
-        <v>2588250</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="6"/>
-        <v>944.78</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="2"/>
-        <v>155295</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I5" s="14">
-        <v>8</v>
-      </c>
-      <c r="J5" s="14">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1200</v>
-      </c>
-      <c r="N5">
-        <v>15000</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="5"/>
-        <v>3060</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" si="1"/>
-        <v>2601000</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="6"/>
-        <v>1020.36</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="2"/>
-        <v>156060</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I6" s="14">
-        <v>8</v>
-      </c>
-      <c r="J6" s="14">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1200</v>
-      </c>
-      <c r="N6">
-        <v>15000</v>
-      </c>
+      <c r="C6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
@@ -1971,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,10 +1662,11 @@
         <v>71</v>
       </c>
       <c r="C2">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2">
-        <v>9.9999999999999995E-7</v>
+        <f>C2*0.01</f>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -2038,7 +1685,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" ref="D3:D33" si="0">C3*0.01</f>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2052,10 +1700,11 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -2069,10 +1718,11 @@
         <v>71</v>
       </c>
       <c r="C5">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D5">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -2086,10 +1736,11 @@
         <v>71</v>
       </c>
       <c r="C6">
-        <v>1E-3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -2106,7 +1757,8 @@
         <v>0.4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
@@ -2123,7 +1775,8 @@
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G8" t="s">
         <v>43</v>
@@ -2140,7 +1793,8 @@
         <v>0.2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
       </c>
       <c r="G9" t="s">
         <v>43</v>
@@ -2157,7 +1811,8 @@
         <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
       </c>
       <c r="G10" t="s">
         <v>43</v>
@@ -2171,10 +1826,12 @@
         <v>71</v>
       </c>
       <c r="C11">
+        <f>C2-0.002</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2190,10 +1847,12 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" ref="C12:C14" si="1">C3-0.002</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D12">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -2207,10 +1866,12 @@
         <v>71</v>
       </c>
       <c r="C13">
-        <v>2E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -2224,10 +1885,12 @@
         <v>71</v>
       </c>
       <c r="C14">
-        <v>2E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D14">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -2241,10 +1904,12 @@
         <v>71</v>
       </c>
       <c r="C15">
-        <v>1E-3</v>
+        <f>C6-1</f>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="0"/>
+        <v>0.04</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -2261,7 +1926,8 @@
         <v>0.4</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -2278,7 +1944,8 @@
         <v>0.3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -2295,7 +1962,8 @@
         <v>0.2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -2312,7 +1980,8 @@
         <v>0.1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -2326,10 +1995,11 @@
         <v>71</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -2343,10 +2013,11 @@
         <v>71</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
@@ -2363,7 +2034,8 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2380,7 +2052,8 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -2397,7 +2070,8 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -2414,6 +2088,7 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" t="s">
@@ -2431,7 +2106,8 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
@@ -2448,7 +2124,8 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.01</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -2465,7 +2142,8 @@
         <v>0.5</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -2482,7 +2160,8 @@
         <v>0.5</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -2499,7 +2178,8 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="G30" t="s">
         <v>43</v>
@@ -2516,7 +2196,8 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -2530,9 +2211,10 @@
         <v>71</v>
       </c>
       <c r="C32">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
       <c r="G32" t="s">
@@ -2547,9 +2229,10 @@
         <v>71</v>
       </c>
       <c r="C33">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
       <c r="G33" t="s">
@@ -3091,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="4"/>
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="150">
   <si>
     <t>Ano</t>
   </si>
@@ -466,12 +466,33 @@
   </si>
   <si>
     <t>PInvalidez</t>
+  </si>
+  <si>
+    <t>calcular_beneficios_inss</t>
+  </si>
+  <si>
+    <t>NB_91</t>
+  </si>
+  <si>
+    <t>NB_92</t>
+  </si>
+  <si>
+    <t>NB_93</t>
+  </si>
+  <si>
+    <t>NB_94</t>
+  </si>
+  <si>
+    <t>NB_31</t>
+  </si>
+  <si>
+    <t>NB_32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -870,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -964,14 +985,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5"/>
+  <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
@@ -1055,13 +1076,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1073,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1196,7 +1217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1425,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1614,11 +1635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,18 +2261,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G10"/>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,6 +2785,134 @@
         <v>136</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2771,11 +2920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,13 +3165,61 @@
         <v>135</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3096,7 +3293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="156">
   <si>
     <t>Ano</t>
   </si>
@@ -487,6 +487,24 @@
   </si>
   <si>
     <t>NB_32</t>
+  </si>
+  <si>
+    <t>NB_91_Inicial</t>
+  </si>
+  <si>
+    <t>NB_92_Inicial</t>
+  </si>
+  <si>
+    <t>NB_93_Inicial</t>
+  </si>
+  <si>
+    <t>NB_94_Inicial</t>
+  </si>
+  <si>
+    <t>NB_31_Inicial</t>
+  </si>
+  <si>
+    <t>NB_32_Inicial</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,9 +1257,10 @@
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,8 +1304,26 @@
       <c r="N1" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1334,8 +1371,26 @@
       <c r="N2">
         <v>15000</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1384,8 +1439,32 @@
       <c r="N3">
         <v>15000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>O2</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:T3" si="5">P2</f>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -1393,7 +1472,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -1401,7 +1480,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -1409,31 +1488,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -1638,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2269,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,6 +2992,54 @@
         <v>112</v>
       </c>
     </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2923,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="162">
   <si>
     <t>Ano</t>
   </si>
@@ -505,6 +505,24 @@
   </si>
   <si>
     <t>NB_32_Inicial</t>
+  </si>
+  <si>
+    <t>NB_91_Acumulado</t>
+  </si>
+  <si>
+    <t>NB_92_Acumulado</t>
+  </si>
+  <si>
+    <t>NB_93_Acumulado</t>
+  </si>
+  <si>
+    <t>NB_94_Acumulado</t>
+  </si>
+  <si>
+    <t>NB_31_Acumulado</t>
+  </si>
+  <si>
+    <t>NB_32_Acumulado</t>
   </si>
 </sst>
 </file>
@@ -2348,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A66"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,6 +3058,14 @@
         <v>155</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3048,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,6 +3364,54 @@
       </c>
       <c r="B34" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="166">
   <si>
     <t>Ano</t>
   </si>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>NB_32_Acumulado</t>
+  </si>
+  <si>
+    <t>calcular_presenteismo</t>
+  </si>
+  <si>
+    <t>PercPresenteismo</t>
+  </si>
+  <si>
+    <t>HorasPresenteismo</t>
+  </si>
+  <si>
+    <t>DespesaPresenteismo</t>
   </si>
 </sst>
 </file>
@@ -1256,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1815,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D33" si="0">C3*0.01</f>
+        <f t="shared" ref="D3:D35" si="0">C3*0.01</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G3" t="s">
@@ -2354,6 +2366,42 @@
         <v>1E-3</v>
       </c>
       <c r="G33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>0.01</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35">
+        <v>0.01</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="G35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2366,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,6 +3114,38 @@
         <v>142</v>
       </c>
     </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3074,11 +3154,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3412,6 +3490,22 @@
       </c>
       <c r="B40" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="170">
   <si>
     <t>Ano</t>
   </si>
@@ -535,6 +535,18 @@
   </si>
   <si>
     <t>DespesaPresenteismo</t>
+  </si>
+  <si>
+    <t>calcular_despesasmedicas</t>
+  </si>
+  <si>
+    <t>EventosDespesasMedicas</t>
+  </si>
+  <si>
+    <t>DespesaMedicaMedia</t>
+  </si>
+  <si>
+    <t>DespesasMedicas</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1745,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1827,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D35" si="0">C3*0.01</f>
+        <f t="shared" ref="D3:D37" si="0">C3*0.01</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G3" t="s">
@@ -2402,6 +2414,42 @@
         <v>1E-4</v>
       </c>
       <c r="G35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>2500</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>2000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2414,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,6 +3194,62 @@
         <v>21</v>
       </c>
     </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3154,9 +3258,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3506,6 +3612,22 @@
       </c>
       <c r="B42" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="174">
   <si>
     <t>Ano</t>
   </si>
@@ -547,6 +547,18 @@
   </si>
   <si>
     <t>DespesasMedicas</t>
+  </si>
+  <si>
+    <t>CustoMedioRefugoRetrabalho</t>
+  </si>
+  <si>
+    <t>calcular_refugo_retrabalho</t>
+  </si>
+  <si>
+    <t>EventosRefugoeRetrabalho</t>
+  </si>
+  <si>
+    <t>DespesasRefugoERetrabalho</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1839,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D37" si="0">C3*0.01</f>
+        <f t="shared" ref="D3:D38" si="0">C3*0.01</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G3" t="s">
@@ -2450,6 +2462,42 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>2000</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>2000</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="2">C39*0.01</f>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2462,16 +2510,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3247,6 +3295,78 @@
         <v>166</v>
       </c>
       <c r="B78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3258,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,6 +3748,22 @@
       </c>
       <c r="B44" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="178">
   <si>
     <t>Ano</t>
   </si>
@@ -559,6 +559,18 @@
   </si>
   <si>
     <t>DespesasRefugoERetrabalho</t>
+  </si>
+  <si>
+    <t>calcular_mp_insumos</t>
+  </si>
+  <si>
+    <t>CustoMedioMPInsumos</t>
+  </si>
+  <si>
+    <t>EventosMPInsumos</t>
+  </si>
+  <si>
+    <t>DespesasMPInsumos</t>
   </si>
 </sst>
 </file>
@@ -1769,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A41" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,10 +2506,46 @@
         <v>2000</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39" si="2">C39*0.01</f>
+        <f t="shared" ref="D39:D40" si="2">C39*0.01</f>
         <v>20</v>
       </c>
       <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40">
+        <v>2000</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <v>2000</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="3">C41*0.01</f>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2510,16 +2558,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3367,6 +3415,78 @@
         <v>171</v>
       </c>
       <c r="B87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3378,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,6 +3884,22 @@
       </c>
       <c r="B46" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="181">
   <si>
     <t>Ano</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>DespesasMPInsumos</t>
+  </si>
+  <si>
+    <t>calcular_indices_ampliados</t>
+  </si>
+  <si>
+    <t>EventosIndiceFrequenciaAmpliado</t>
+  </si>
+  <si>
+    <t>IndiceFrequenciaAmpliado</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1314,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,9 +1792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A40:A41"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2558,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,6 +3497,142 @@
         <v>108</v>
       </c>
     </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>178</v>
+      </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3498,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,6 +4043,22 @@
       </c>
       <c r="B48" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="182">
   <si>
     <t>Ano</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>IndiceFrequenciaAmpliado</t>
+  </si>
+  <si>
+    <t>IndiceGravidadeAmpliado</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2565,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,6 +3636,14 @@
         <v>112</v>
       </c>
     </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3641,10 +3652,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,6 +4070,14 @@
       </c>
       <c r="B50" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="191">
   <si>
     <t>Ano</t>
   </si>
@@ -583,14 +583,44 @@
   </si>
   <si>
     <t>IndiceGravidadeAmpliado</t>
+  </si>
+  <si>
+    <t>Beta0DesligVoluntarios</t>
+  </si>
+  <si>
+    <t>BetaFreqDesligVoluntarios</t>
+  </si>
+  <si>
+    <t>BetaGravDesligVoluntarios</t>
+  </si>
+  <si>
+    <t>BetaPIBDesigVoluntarios</t>
+  </si>
+  <si>
+    <t>VarPIB</t>
+  </si>
+  <si>
+    <t>calcular_engajamento</t>
+  </si>
+  <si>
+    <t>PercDesligamentoVoluntarios</t>
+  </si>
+  <si>
+    <t>DesligamentosVoluntarios</t>
+  </si>
+  <si>
+    <t>DespesasClima</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -639,12 +669,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,11 +703,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,9 +1370,12 @@
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,8 +1437,23 @@
       <c r="T1" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1467,8 +1519,23 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V2" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W2" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X2" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1541,8 +1608,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V3" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W3" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X3" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -1550,7 +1632,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -1558,7 +1640,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -1566,31 +1648,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -1795,7 +1877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2568,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,6 +3728,78 @@
         <v>94</v>
       </c>
     </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>187</v>
+      </c>
+      <c r="B118" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3652,15 +3808,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B51" sqref="B50:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
@@ -4078,6 +4234,30 @@
       </c>
       <c r="B51" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="197">
   <si>
     <t>Ano</t>
   </si>
@@ -610,6 +610,24 @@
   </si>
   <si>
     <t>DespesasClima</t>
+  </si>
+  <si>
+    <t>calcular_turnovergeral</t>
+  </si>
+  <si>
+    <t>DesligamentosInvoluntarios</t>
+  </si>
+  <si>
+    <t>FuncDesligadosInicial</t>
+  </si>
+  <si>
+    <t>TurnoverGeral</t>
+  </si>
+  <si>
+    <t>FuncionariosDesligados</t>
+  </si>
+  <si>
+    <t>FuncionariosDesligadosAcumulado</t>
   </si>
 </sst>
 </file>
@@ -619,8 +637,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -675,7 +693,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -703,8 +721,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1348,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,9 +1392,11 @@
     <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1452,8 +1473,14 @@
       <c r="Y1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1534,8 +1561,14 @@
       <c r="Y2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="17">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1623,8 +1656,14 @@
       <c r="Y3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="17">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -1632,7 +1671,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -1640,7 +1679,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -1648,31 +1687,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -2652,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,6 +3839,102 @@
         <v>1</v>
       </c>
     </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>191</v>
+      </c>
+      <c r="B125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>191</v>
+      </c>
+      <c r="B126" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>191</v>
+      </c>
+      <c r="B128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>191</v>
+      </c>
+      <c r="B129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>191</v>
+      </c>
+      <c r="B132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>191</v>
+      </c>
+      <c r="B133" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3808,10 +3943,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B51" sqref="B50:B51"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4258,6 +4393,30 @@
       </c>
       <c r="B54" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="202">
   <si>
     <t>Ano</t>
   </si>
@@ -628,6 +628,21 @@
   </si>
   <si>
     <t>FuncionariosDesligadosAcumulado</t>
+  </si>
+  <si>
+    <t>calcular_reclamatorias</t>
+  </si>
+  <si>
+    <t>PReclamatoria</t>
+  </si>
+  <si>
+    <t>CustoMedioReclamatorias</t>
+  </si>
+  <si>
+    <t>NReclamatorias</t>
+  </si>
+  <si>
+    <t>DespesasReclamatorias</t>
   </si>
 </sst>
 </file>
@@ -1914,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,10 +2690,82 @@
         <v>2000</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41" si="3">C41*0.01</f>
+        <f t="shared" ref="D41:D42" si="3">C41*0.01</f>
         <v>20</v>
       </c>
       <c r="G41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42">
+        <v>0.1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43">
+        <v>0.1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D44" si="4">C43*0.01</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="5">C45*0.01</f>
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2691,16 +2778,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3933,6 +4020,30 @@
       </c>
       <c r="B135" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>197</v>
+      </c>
+      <c r="B137" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>197</v>
+      </c>
+      <c r="B138" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3943,10 +4054,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4417,6 +4528,22 @@
       </c>
       <c r="B57" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="209">
   <si>
     <t>Ano</t>
   </si>
@@ -643,6 +643,27 @@
   </si>
   <si>
     <t>DespesasReclamatorias</t>
+  </si>
+  <si>
+    <t>calcular_reajustes_plano</t>
+  </si>
+  <si>
+    <t>DespesasPlanoInicial</t>
+  </si>
+  <si>
+    <t>Beta0ReajustePlano</t>
+  </si>
+  <si>
+    <t>BetaFreqReajustePlano</t>
+  </si>
+  <si>
+    <t>BetaGravReajustePlano</t>
+  </si>
+  <si>
+    <t>ReajustePlanoEstimado</t>
+  </si>
+  <si>
+    <t>DespesasPlanodeSaude</t>
   </si>
 </sst>
 </file>
@@ -1382,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,9 +1430,12 @@
     <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.85546875" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,8 +1518,20 @@
       <c r="AA1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1582,8 +1618,20 @@
       <c r="AA2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>10000</v>
+      </c>
+      <c r="AC2">
+        <v>1E-4</v>
+      </c>
+      <c r="AD2">
+        <v>1E-4</v>
+      </c>
+      <c r="AE2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1677,8 +1725,20 @@
       <c r="AA3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>10000</v>
+      </c>
+      <c r="AC3">
+        <v>1E-4</v>
+      </c>
+      <c r="AD3">
+        <v>1E-4</v>
+      </c>
+      <c r="AE3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -1686,7 +1746,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -1694,7 +1754,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -1702,31 +1762,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -2778,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4046,6 +4106,54 @@
         <v>199</v>
       </c>
     </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>202</v>
+      </c>
+      <c r="B139" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>202</v>
+      </c>
+      <c r="B140" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4054,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4544,6 +4652,22 @@
       </c>
       <c r="B59" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="214">
   <si>
     <t>Ano</t>
   </si>
@@ -664,6 +664,21 @@
   </si>
   <si>
     <t>DespesasPlanodeSaude</t>
+  </si>
+  <si>
+    <t>calcular_reabilitacao</t>
+  </si>
+  <si>
+    <t>EventosReabilitacao</t>
+  </si>
+  <si>
+    <t>DespesasReabilitacao</t>
+  </si>
+  <si>
+    <t>PercentualReabilitacao</t>
+  </si>
+  <si>
+    <t>CustoMedioReabilitacao</t>
   </si>
 </sst>
 </file>
@@ -1989,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,10 +2837,82 @@
         <v>1000</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45" si="5">C45*0.01</f>
+        <f t="shared" ref="D45:D48" si="5">C45*0.01</f>
         <v>10</v>
       </c>
       <c r="G45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>0.1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="6">C49*0.01</f>
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2838,10 +2925,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,6 +4241,78 @@
         <v>181</v>
       </c>
     </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>209</v>
+      </c>
+      <c r="B145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>209</v>
+      </c>
+      <c r="B146" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>209</v>
+      </c>
+      <c r="B147" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>209</v>
+      </c>
+      <c r="B148" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>209</v>
+      </c>
+      <c r="B149" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B150" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>209</v>
+      </c>
+      <c r="B151" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>209</v>
+      </c>
+      <c r="B152" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>209</v>
+      </c>
+      <c r="B153" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4162,10 +4321,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,6 +4827,22 @@
       </c>
       <c r="B61" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="221">
   <si>
     <t>Ano</t>
   </si>
@@ -679,6 +679,27 @@
   </si>
   <si>
     <t>CustoMedioReabilitacao</t>
+  </si>
+  <si>
+    <t>calcular_produtividade</t>
+  </si>
+  <si>
+    <t>GanhoProdutividade</t>
+  </si>
+  <si>
+    <t>SavingProdutividade</t>
+  </si>
+  <si>
+    <t>ProducaoProjetada</t>
+  </si>
+  <si>
+    <t>calcular_qualidade</t>
+  </si>
+  <si>
+    <t>VarVolumeVendaQualidade</t>
+  </si>
+  <si>
+    <t>MargemMedUnitaria</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,9 +1469,11 @@
     <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,8 +1568,14 @@
       <c r="AE1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1645,8 +1674,14 @@
       <c r="AE2">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2">
+        <v>10000</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1752,8 +1787,14 @@
       <c r="AE3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3">
+        <v>10040</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -1761,7 +1802,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -1769,7 +1810,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -1777,31 +1818,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -2004,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,6 +2957,78 @@
         <v>17</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:D51" si="7">C50*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D53" si="8">C52*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="8"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2925,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4313,6 +4426,46 @@
         <v>212</v>
       </c>
     </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>214</v>
+      </c>
+      <c r="B154" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>214</v>
+      </c>
+      <c r="B155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>218</v>
+      </c>
+      <c r="B156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>218</v>
+      </c>
+      <c r="B157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>218</v>
+      </c>
+      <c r="B158" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4321,10 +4474,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4843,6 +4996,14 @@
       </c>
       <c r="B63" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="230">
   <si>
     <t>Ano</t>
   </si>
@@ -700,6 +700,33 @@
   </si>
   <si>
     <t>MargemMedUnitaria</t>
+  </si>
+  <si>
+    <t>Beta0TempoContratacao</t>
+  </si>
+  <si>
+    <t>BetaFreqTempoContratacao</t>
+  </si>
+  <si>
+    <t>BetaGravTempoContratacao</t>
+  </si>
+  <si>
+    <t>BetaPIBTempoContratacao</t>
+  </si>
+  <si>
+    <t>TempoContratacaoPadrao</t>
+  </si>
+  <si>
+    <t>calcular_imagem_contracacao</t>
+  </si>
+  <si>
+    <t>TempoContratacaoEstimado</t>
+  </si>
+  <si>
+    <t>DespesasImagemContratacao</t>
+  </si>
+  <si>
+    <t>CustoMedSubstituporTempo</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,9 +1498,13 @@
     <col min="30" max="31" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,8 +1605,23 @@
       <c r="AG1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1680,8 +1726,23 @@
       <c r="AG2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1793,8 +1854,23 @@
       <c r="AG3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -1802,7 +1878,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -1810,7 +1886,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -1818,31 +1894,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -2045,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,6 +3105,42 @@
         <v>17</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:D55" si="9">C54*0.01</f>
+        <v>0.1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3038,10 +3150,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4466,6 +4578,94 @@
         <v>217</v>
       </c>
     </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>226</v>
+      </c>
+      <c r="B160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>226</v>
+      </c>
+      <c r="B161" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>226</v>
+      </c>
+      <c r="B162" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>226</v>
+      </c>
+      <c r="B164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B166" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>226</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>226</v>
+      </c>
+      <c r="B169" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4474,10 +4674,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,6 +5204,22 @@
       </c>
       <c r="B64" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="236">
   <si>
     <t>Ano</t>
   </si>
@@ -727,6 +727,24 @@
   </si>
   <si>
     <t>CustoMedSubstituporTempo</t>
+  </si>
+  <si>
+    <t>calcular_imagem_receita</t>
+  </si>
+  <si>
+    <t>IFrMaximoImagem</t>
+  </si>
+  <si>
+    <t>IGrMaximoImagem</t>
+  </si>
+  <si>
+    <t>GanhoImagemReceitaEsperado</t>
+  </si>
+  <si>
+    <t>HouveGanhoImagemReceita</t>
+  </si>
+  <si>
+    <t>GanhoImagemReceita</t>
   </si>
 </sst>
 </file>
@@ -1466,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,9 +1520,11 @@
     <col min="35" max="36" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,8 +1640,14 @@
       <c r="AL1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1741,8 +1767,14 @@
       <c r="AL2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2">
+        <v>10</v>
+      </c>
+      <c r="AN2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1869,8 +1901,14 @@
       <c r="AL3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <v>10</v>
+      </c>
+      <c r="AN3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -1878,7 +1916,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -1886,7 +1924,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -1894,31 +1932,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -2121,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,6 +3179,42 @@
         <v>17</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D57" si="10">C56*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3150,10 +3224,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,6 +4740,46 @@
         <v>194</v>
       </c>
     </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>230</v>
+      </c>
+      <c r="B170" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>230</v>
+      </c>
+      <c r="B171" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>230</v>
+      </c>
+      <c r="B172" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>230</v>
+      </c>
+      <c r="B173" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>230</v>
+      </c>
+      <c r="B174" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4674,10 +4788,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5220,6 +5334,22 @@
       </c>
       <c r="B66" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="259">
   <si>
     <t>Ano</t>
   </si>
@@ -745,6 +745,75 @@
   </si>
   <si>
     <t>GanhoImagemReceita</t>
+  </si>
+  <si>
+    <t>CustoMedioMulta_Lei1</t>
+  </si>
+  <si>
+    <t>Atendimento_Lei2</t>
+  </si>
+  <si>
+    <t>Atendimento_Lei3</t>
+  </si>
+  <si>
+    <t>Atendimento_Lei4</t>
+  </si>
+  <si>
+    <t>Atendimento_Lei5</t>
+  </si>
+  <si>
+    <t>CustoMedioMulta_Lei2</t>
+  </si>
+  <si>
+    <t>CustoMedioMulta_Lei3</t>
+  </si>
+  <si>
+    <t>CustoMedioMulta_Lei4</t>
+  </si>
+  <si>
+    <t>CustoMedioMulta_Lei5</t>
+  </si>
+  <si>
+    <t>NumeroMultasAPriori_Lei2</t>
+  </si>
+  <si>
+    <t>NumeroMultasAPriori_Lei3</t>
+  </si>
+  <si>
+    <t>NumeroMultasAPriori_Lei4</t>
+  </si>
+  <si>
+    <t>NumeroMultasAPriori_Lei5</t>
+  </si>
+  <si>
+    <t>Beta0Multa1</t>
+  </si>
+  <si>
+    <t>Beta0Multa2</t>
+  </si>
+  <si>
+    <t>Beta0Multa3</t>
+  </si>
+  <si>
+    <t>Beta0Multa4</t>
+  </si>
+  <si>
+    <t>Beta0Multa5</t>
+  </si>
+  <si>
+    <t>Beta1Multa1</t>
+  </si>
+  <si>
+    <t>Beta1Multa2</t>
+  </si>
+  <si>
+    <t>Beta1Multa3</t>
+  </si>
+  <si>
+    <t>Beta1Multa4</t>
+  </si>
+  <si>
+    <t>Beta1Multa5</t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM7" sqref="AM7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,28 +1572,28 @@
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.85546875" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.28515625" customWidth="1"/>
-    <col min="40" max="40" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="49" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,93 +1630,119 @@
       <c r="L1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="9" t="str">
-        <f>"CustoMedioMulta_Lei1"</f>
-        <v>CustoMedioMulta_Lei1</v>
+      <c r="M1" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="9" t="s">
         <v>155</v>
       </c>
+      <c r="T1" t="s">
+        <v>182</v>
+      </c>
       <c r="U1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Z1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AB1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AD1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AF1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AH1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AJ1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AM1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1690,10 +1785,10 @@
         <v>0.1</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="N2">
-        <v>15000</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1710,8 +1805,8 @@
       <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="T2" s="15">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="U2" s="15">
         <v>1.0000000000000001E-5</v>
@@ -1719,23 +1814,23 @@
       <c r="V2" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X2" s="16">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y2">
+      <c r="X2">
         <v>0.1</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Y2" s="17">
         <v>10</v>
       </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
       <c r="AA2">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="AB2">
-        <v>10000</v>
+        <v>1E-4</v>
       </c>
       <c r="AC2">
         <v>1E-4</v>
@@ -1744,13 +1839,13 @@
         <v>1E-4</v>
       </c>
       <c r="AE2">
-        <v>1E-4</v>
+        <v>10000</v>
       </c>
       <c r="AF2">
-        <v>10000</v>
+        <v>3</v>
       </c>
       <c r="AG2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1765,16 +1860,43 @@
         <v>1</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AM2">
         <v>10</v>
       </c>
       <c r="AN2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -1818,17 +1940,18 @@
         <v>0.1</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="N3">
-        <v>15000</v>
+        <f>N2</f>
+        <v>1</v>
       </c>
       <c r="O3">
-        <f>O2</f>
+        <f t="shared" ref="O3:S3" si="5">O2</f>
         <v>1</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:T3" si="5">P2</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q3">
@@ -1843,9 +1966,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+      <c r="T3" s="15">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="U3" s="15">
         <v>1.0000000000000001E-5</v>
@@ -1853,23 +1975,23 @@
       <c r="V3" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X3" s="16">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y3">
+      <c r="X3">
         <v>0.1</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Y3" s="17">
         <v>10</v>
       </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
       <c r="AA3">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="AB3">
-        <v>10000</v>
+        <v>1E-4</v>
       </c>
       <c r="AC3">
         <v>1E-4</v>
@@ -1878,13 +2000,13 @@
         <v>1E-4</v>
       </c>
       <c r="AE3">
-        <v>1E-4</v>
+        <v>10040</v>
       </c>
       <c r="AF3">
-        <v>10040</v>
+        <v>3</v>
       </c>
       <c r="AG3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -1899,16 +2021,43 @@
         <v>1</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AM3">
         <v>10</v>
       </c>
       <c r="AN3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -1916,7 +2065,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -1924,7 +2073,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -1932,31 +2081,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -2159,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2378,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D38" si="0">C3*0.01</f>
+        <f t="shared" ref="D3:D34" si="0">C3*0.01</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G3" t="s">
@@ -2605,17 +2754,17 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -2623,53 +2772,53 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -2677,17 +2826,17 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -2695,151 +2844,151 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="C29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>136</v>
+      <c r="A30" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1E-4</v>
       </c>
       <c r="G30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>136</v>
+      <c r="A31" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1E-4</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>137</v>
+      <c r="A32" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
       </c>
       <c r="C32">
-        <v>0.1</v>
+        <v>2500</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>137</v>
+      <c r="A33" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33">
-        <v>0.1</v>
+        <v>2000</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>163</v>
+      <c r="A34" t="s">
+        <v>170</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34">
-        <v>0.01</v>
+        <v>2000</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>163</v>
+      <c r="A35" t="s">
+        <v>170</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>2000</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <f t="shared" ref="D35:D36" si="2">C35*0.01</f>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>168</v>
+      <c r="A36" t="s">
+        <v>175</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>168</v>
+      <c r="A37" t="s">
+        <v>175</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -2848,7 +2997,7 @@
         <v>2000</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D37:D38" si="3">C37*0.01</f>
         <v>20</v>
       </c>
       <c r="G37" t="s">
@@ -2857,17 +3006,17 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
       </c>
       <c r="C38">
-        <v>2000</v>
+        <v>0.1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -2875,17 +3024,17 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
       </c>
       <c r="C39">
-        <v>2000</v>
+        <v>0.1</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D40" si="2">C39*0.01</f>
-        <v>20</v>
+        <f t="shared" ref="D39:D40" si="4">C39*0.01</f>
+        <v>1E-3</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -2893,17 +3042,17 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
       </c>
       <c r="C40">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
         <v>43</v>
@@ -2911,17 +3060,17 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
       </c>
       <c r="C41">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:D42" si="3">C41*0.01</f>
-        <v>20</v>
+        <f t="shared" ref="D41:D44" si="5">C41*0.01</f>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -2929,7 +3078,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
@@ -2938,7 +3087,7 @@
         <v>0.1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
       <c r="G42" t="s">
@@ -2947,7 +3096,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
@@ -2956,7 +3105,7 @@
         <v>0.1</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:D44" si="4">C43*0.01</f>
+        <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
       <c r="G43" t="s">
@@ -2965,7 +3114,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
         <v>71</v>
@@ -2974,7 +3123,7 @@
         <v>1000</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G44" t="s">
@@ -2983,7 +3132,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
@@ -2992,7 +3141,7 @@
         <v>1000</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:D48" si="5">C45*0.01</f>
+        <f t="shared" ref="D45" si="6">C45*0.01</f>
         <v>10</v>
       </c>
       <c r="G45" t="s">
@@ -3001,17 +3150,17 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
         <v>71</v>
       </c>
       <c r="C46">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <f t="shared" ref="D46:D47" si="7">C46*0.01</f>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -3019,17 +3168,17 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s">
         <v>71</v>
       </c>
       <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="7"/>
         <v>0.1</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3037,17 +3186,17 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
       <c r="C48">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" ref="D48:D49" si="8">C48*0.01</f>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -3055,17 +3204,17 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49">
-        <v>1000</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="6">C49*0.01</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -3073,17 +3222,17 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D51" si="7">C50*0.01</f>
-        <v>0</v>
+        <f t="shared" ref="D50:D51" si="9">C50*0.01</f>
+        <v>0.1</v>
       </c>
       <c r="G50" t="s">
         <v>43</v>
@@ -3091,7 +3240,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
         <v>71</v>
@@ -3100,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="G51" t="s">
@@ -3109,7 +3258,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
@@ -3118,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D53" si="8">C52*0.01</f>
+        <f t="shared" ref="D52:D54" si="10">C52*0.01</f>
         <v>0</v>
       </c>
       <c r="G52" t="s">
@@ -3127,17 +3276,17 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
       </c>
       <c r="C53">
-        <v>5.0000000000000001E-3</v>
+        <v>1000</v>
       </c>
       <c r="D53">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000002E-5</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -3145,17 +3294,17 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
         <v>71</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54:D55" si="9">C54*0.01</f>
-        <v>0.1</v>
+        <f t="shared" si="10"/>
+        <v>0.02</v>
       </c>
       <c r="G54" t="s">
         <v>43</v>
@@ -3163,35 +3312,35 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f t="shared" ref="D55:D59" si="11">C55*0.01</f>
+        <v>0.02</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:D57" si="10">C56*0.01</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.02</v>
       </c>
       <c r="G56" t="s">
         <v>43</v>
@@ -3199,19 +3348,482 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
       </c>
       <c r="C57">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>0.02</v>
       </c>
       <c r="G57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="11"/>
+        <v>0.02</v>
+      </c>
+      <c r="G58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59">
+        <v>500</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>500</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:D74" si="12">C60*0.01</f>
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>500</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <v>500</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <v>500</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <v>500</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75">
+        <v>500</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D78" si="13">C75*0.01</f>
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76">
+        <v>500</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77">
+        <v>500</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78">
+        <v>500</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3224,10 +3836,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -3440,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -3452,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -3464,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -3476,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -3488,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -3500,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -3512,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -3524,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -3536,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -3548,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -3560,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -3572,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -3584,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -3596,180 +4208,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" t="str">
-        <f>"NumeroMultasAPriori_"&amp;D31</f>
-        <v>NumeroMultasAPriori_Lei1</v>
-      </c>
-      <c r="C31" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"CustoMedioMulta_"&amp;D32</f>
-        <v>CustoMedioMulta_Lei1</v>
-      </c>
-      <c r="C32" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"Atendimento_"&amp;D33</f>
-        <v>Atendimento_Lei1</v>
-      </c>
-      <c r="C33" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +4357,7 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +4365,7 @@
         <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +4373,7 @@
         <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +4381,7 @@
         <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +4389,7 @@
         <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +4397,7 @@
         <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,47 +4405,47 @@
         <v>143</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>143</v>
       </c>
-      <c r="B56" t="s">
-        <v>111</v>
+      <c r="B56" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>143</v>
       </c>
-      <c r="B57" t="s">
-        <v>100</v>
+      <c r="B57" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>143</v>
       </c>
-      <c r="B58" t="s">
-        <v>104</v>
+      <c r="B58" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>143</v>
       </c>
-      <c r="B59" t="s">
-        <v>108</v>
+      <c r="B59" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>143</v>
       </c>
-      <c r="B60" t="s">
-        <v>112</v>
+      <c r="B60" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3873,95 +4453,95 @@
         <v>143</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>151</v>
+      <c r="B62" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>142</v>
+        <v>166</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>20</v>
+        <v>166</v>
+      </c>
+      <c r="B69" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>21</v>
+        <v>166</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>168</v>
+      <c r="B72" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,47 +4549,47 @@
         <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4597,7 @@
         <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -4025,7 +4605,7 @@
         <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4033,7 +4613,7 @@
         <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -4041,47 +4621,47 @@
         <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -4089,7 +4669,7 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -4097,7 +4677,7 @@
         <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -4105,7 +4685,7 @@
         <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -4113,55 +4693,55 @@
         <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>174</v>
-      </c>
-      <c r="B92" t="s">
-        <v>110</v>
+        <v>178</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>178</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>1</v>
+      <c r="B97" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -4169,7 +4749,7 @@
         <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -4177,7 +4757,7 @@
         <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4765,7 @@
         <v>178</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +4773,7 @@
         <v>178</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -4201,7 +4781,7 @@
         <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,7 +4789,7 @@
         <v>178</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -4217,7 +4797,7 @@
         <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -4225,7 +4805,7 @@
         <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +4813,7 @@
         <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -4241,7 +4821,7 @@
         <v>178</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,7 +4829,7 @@
         <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -4257,47 +4837,47 @@
         <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B114" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -4305,7 +4885,7 @@
         <v>187</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -4313,7 +4893,7 @@
         <v>187</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -4321,7 +4901,7 @@
         <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -4329,47 +4909,47 @@
         <v>187</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -4377,7 +4957,7 @@
         <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -4385,7 +4965,7 @@
         <v>191</v>
       </c>
       <c r="B125" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -4393,7 +4973,7 @@
         <v>191</v>
       </c>
       <c r="B126" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -4401,7 +4981,7 @@
         <v>191</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -4409,7 +4989,7 @@
         <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -4417,7 +4997,7 @@
         <v>191</v>
       </c>
       <c r="B129" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -4425,71 +5005,71 @@
         <v>191</v>
       </c>
       <c r="B130" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B131" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B132" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B136" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B137" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -4497,47 +5077,47 @@
         <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -4545,7 +5125,7 @@
         <v>209</v>
       </c>
       <c r="B145" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4553,7 +5133,7 @@
         <v>209</v>
       </c>
       <c r="B146" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4561,7 +5141,7 @@
         <v>209</v>
       </c>
       <c r="B147" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4569,87 +5149,87 @@
         <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B149" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B150" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B151" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B152" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B157" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4657,7 +5237,7 @@
         <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4665,7 +5245,7 @@
         <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4673,7 +5253,7 @@
         <v>226</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4681,7 +5261,7 @@
         <v>226</v>
       </c>
       <c r="B162" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4689,7 +5269,7 @@
         <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4697,12 +5277,12 @@
         <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B165" t="s">
         <v>180</v>
@@ -4710,74 +5290,250 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B166" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B168" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B169" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B170" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B171" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B173" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B174" t="s">
-        <v>233</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>124</v>
+      </c>
+      <c r="B175" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>124</v>
+      </c>
+      <c r="B176" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>124</v>
+      </c>
+      <c r="B177" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>124</v>
+      </c>
+      <c r="B178" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>124</v>
+      </c>
+      <c r="B179" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>124</v>
+      </c>
+      <c r="B180" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>124</v>
+      </c>
+      <c r="B181" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>124</v>
+      </c>
+      <c r="B182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>124</v>
+      </c>
+      <c r="B183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>124</v>
+      </c>
+      <c r="B184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>124</v>
+      </c>
+      <c r="B185" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>124</v>
+      </c>
+      <c r="B186" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>124</v>
+      </c>
+      <c r="B187" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>124</v>
+      </c>
+      <c r="B188" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>124</v>
+      </c>
+      <c r="B189" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>124</v>
+      </c>
+      <c r="B190" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>124</v>
+      </c>
+      <c r="B191" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>124</v>
+      </c>
+      <c r="B192" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>124</v>
+      </c>
+      <c r="B193" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>124</v>
+      </c>
+      <c r="B194" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>124</v>
+      </c>
+      <c r="B195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>124</v>
+      </c>
+      <c r="B196" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4790,8 +5546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
     <sheet name="Configs" sheetId="1" r:id="rId2"/>
     <sheet name="Dados_Projetados" sheetId="2" r:id="rId3"/>
-    <sheet name="Cenarios" sheetId="9" r:id="rId4"/>
-    <sheet name="Parametros" sheetId="4" r:id="rId5"/>
-    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId6"/>
-    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId7"/>
-    <sheet name="Distribuições" sheetId="10" r:id="rId8"/>
-    <sheet name="Categorias" sheetId="13" r:id="rId9"/>
-    <sheet name="Custos" sheetId="8" r:id="rId10"/>
-    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId11"/>
+    <sheet name="HistoricoFAP" sheetId="14" r:id="rId4"/>
+    <sheet name="Cenarios" sheetId="9" r:id="rId5"/>
+    <sheet name="Parametros" sheetId="4" r:id="rId6"/>
+    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId7"/>
+    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId8"/>
+    <sheet name="Distribuições" sheetId="10" r:id="rId9"/>
+    <sheet name="Categorias" sheetId="13" r:id="rId10"/>
+    <sheet name="Custos" sheetId="8" r:id="rId11"/>
+    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Custos!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Custos!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parametros!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$10</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
     <definedName name="CategoriaSAT">Configs!$C$2:$C$2</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="271">
   <si>
     <t>Ano</t>
   </si>
@@ -63,9 +64,6 @@
     <t>SATProjetado</t>
   </si>
   <si>
-    <t>IndiceDoSAT</t>
-  </si>
-  <si>
     <t>FAPProjetado</t>
   </si>
   <si>
@@ -814,6 +812,45 @@
   </si>
   <si>
     <t>Beta1Multa5</t>
+  </si>
+  <si>
+    <t>CustoTotalBeneficiosFAP</t>
+  </si>
+  <si>
+    <t>CustoMedio_NB_91</t>
+  </si>
+  <si>
+    <t>CustoMedio_NB_92</t>
+  </si>
+  <si>
+    <t>CustoMedio_NB_93</t>
+  </si>
+  <si>
+    <t>CustoMedio_NB_94</t>
+  </si>
+  <si>
+    <t>Beta0IGravidadeFAP</t>
+  </si>
+  <si>
+    <t>Beta0IFrequenciaFAP</t>
+  </si>
+  <si>
+    <t>Beta1IGravidadeFAP</t>
+  </si>
+  <si>
+    <t>Beta0ICustoFAP</t>
+  </si>
+  <si>
+    <t>Beta1ICustoFAP</t>
+  </si>
+  <si>
+    <t>Beta1IFrequenciaFAP</t>
+  </si>
+  <si>
+    <t>RATTabela</t>
+  </si>
+  <si>
+    <t>RATAjustado</t>
   </si>
 </sst>
 </file>
@@ -879,7 +916,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,6 +947,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1245,78 +1286,78 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1327,6 +1368,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1342,24 +1418,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="12">
         <v>2017</v>
@@ -1370,10 +1446,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="12">
         <v>2018</v>
@@ -1384,10 +1460,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="12">
         <v>2017</v>
@@ -1398,10 +1474,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="12">
         <v>2018</v>
@@ -1416,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1432,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1458,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1467,46 +1543,46 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1514,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1536,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1553,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AW11"/>
+  <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,9 +1667,15 @@
     <col min="38" max="38" width="18.28515625" customWidth="1"/>
     <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="49" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,142 +1689,172 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="M1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="T1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U1" t="s">
         <v>182</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>183</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>184</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>185</v>
       </c>
-      <c r="X1" t="s">
-        <v>186</v>
-      </c>
       <c r="Y1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" t="s">
         <v>192</v>
       </c>
-      <c r="Z1" t="s">
-        <v>193</v>
-      </c>
       <c r="AA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB1" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>204</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>205</v>
       </c>
-      <c r="AD1" t="s">
-        <v>206</v>
-      </c>
       <c r="AE1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG1" t="s">
         <v>220</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>221</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>222</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>223</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>224</v>
       </c>
-      <c r="AK1" t="s">
-        <v>225</v>
-      </c>
       <c r="AL1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM1" t="s">
         <v>231</v>
       </c>
-      <c r="AM1" t="s">
-        <v>232</v>
-      </c>
       <c r="AN1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO1" t="s">
         <v>249</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>250</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>251</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>252</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>253</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>254</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>255</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>256</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>257</v>
       </c>
-      <c r="AW1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1895,8 +2007,38 @@
       <c r="AW2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX2">
+        <v>50000</v>
+      </c>
+      <c r="AY2">
+        <v>50000</v>
+      </c>
+      <c r="AZ2">
+        <v>50000</v>
+      </c>
+      <c r="BA2">
+        <v>50000</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -2056,8 +2198,38 @@
       <c r="AW3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX3">
+        <v>50000</v>
+      </c>
+      <c r="AY3">
+        <v>50000</v>
+      </c>
+      <c r="AZ3">
+        <v>50000</v>
+      </c>
+      <c r="BA3">
+        <v>50000</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -2065,7 +2237,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -2073,7 +2245,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -2081,31 +2253,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -2118,6 +2290,168 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D0FF9-8990-44BE-BAF9-E556463C7042}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"CustoMedio_"&amp;B1</f>
+        <v>CustoMedio_NB_91</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" ref="J1:M1" si="0">"CustoMedio_"&amp;C1</f>
+        <v>CustoMedio_NB_92</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>CustoMedio_NB_93</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>CustoMedio_NB_94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A3-1</f>
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>213</v>
+      </c>
+      <c r="G2">
+        <v>12628104.869999999</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="I2" s="19">
+        <v>50000</v>
+      </c>
+      <c r="J2" s="19">
+        <v>50000</v>
+      </c>
+      <c r="K2" s="19">
+        <v>50000</v>
+      </c>
+      <c r="L2" s="19">
+        <v>50000</v>
+      </c>
+      <c r="M2" s="17">
+        <f>I2*B2+C2*J2+D2*K2+E2*L2</f>
+        <v>200000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Ano_Inicial-1</f>
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>213</v>
+      </c>
+      <c r="G3">
+        <v>12628104.869999999</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="I3" s="19">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="19">
+        <v>50000</v>
+      </c>
+      <c r="K3" s="19">
+        <v>50000</v>
+      </c>
+      <c r="L3" s="19">
+        <v>50000</v>
+      </c>
+      <c r="M3" s="17">
+        <f>I3*B3+C3*J3+D3*K3+E3*L3</f>
+        <v>250000</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -2132,18 +2466,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="b">
         <f>TRUE</f>
@@ -2156,7 +2490,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <f>TRUE</f>
@@ -2169,7 +2503,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="b">
         <f>FALSE</f>
@@ -2182,7 +2516,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="b">
         <f>FALSE</f>
@@ -2195,7 +2529,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="b">
         <f>FALSE</f>
@@ -2208,7 +2542,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="b">
         <f>FALSE</f>
@@ -2221,7 +2555,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="b">
         <f>FALSE</f>
@@ -2234,7 +2568,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="b">
         <f>FALSE</f>
@@ -2247,7 +2581,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="b">
         <f>FALSE</f>
@@ -2260,7 +2594,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" t="b">
         <f>FALSE</f>
@@ -2273,7 +2607,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="b">
         <f>FALSE</f>
@@ -2286,7 +2620,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="b">
         <f>FALSE</f>
@@ -2306,7 +2640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
@@ -2326,33 +2660,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>5.0000000000000001E-3</v>
@@ -2364,15 +2698,15 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>5.0000000000000001E-3</v>
@@ -2382,15 +2716,15 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
@@ -2400,15 +2734,15 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>5.0000000000000001E-3</v>
@@ -2418,15 +2752,15 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2436,15 +2770,15 @@
         <v>0.05</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -2454,15 +2788,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -2472,15 +2806,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -2490,15 +2824,15 @@
         <v>2E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -2508,15 +2842,15 @@
         <v>1E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <f>C2-0.002</f>
@@ -2529,15 +2863,15 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C14" si="1">C3-0.002</f>
@@ -2548,15 +2882,15 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -2567,15 +2901,15 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -2586,15 +2920,15 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <f>C6-1</f>
@@ -2605,15 +2939,15 @@
         <v>0.04</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>0.4</v>
@@ -2623,15 +2957,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>0.3</v>
@@ -2641,15 +2975,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>0.2</v>
@@ -2659,15 +2993,15 @@
         <v>2E-3</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>0.1</v>
@@ -2677,15 +3011,15 @@
         <v>1E-3</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>1000</v>
@@ -2695,15 +3029,15 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>1000</v>
@@ -2713,15 +3047,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2731,15 +3065,15 @@
         <v>0.05</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -2749,15 +3083,15 @@
         <v>0.05</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -2767,15 +3101,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -2785,15 +3119,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2803,15 +3137,15 @@
         <v>0.1</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -2821,15 +3155,15 @@
         <v>0.1</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <v>0.1</v>
@@ -2839,15 +3173,15 @@
         <v>1E-3</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>0.1</v>
@@ -2857,15 +3191,15 @@
         <v>1E-3</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <v>0.01</v>
@@ -2875,15 +3209,15 @@
         <v>1E-4</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>0.01</v>
@@ -2893,15 +3227,15 @@
         <v>1E-4</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>2500</v>
@@ -2911,15 +3245,15 @@
         <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>2000</v>
@@ -2929,15 +3263,15 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>2000</v>
@@ -2947,15 +3281,15 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>2000</v>
@@ -2965,15 +3299,15 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>2000</v>
@@ -2983,15 +3317,15 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -3001,15 +3335,15 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38">
         <v>0.1</v>
@@ -3019,15 +3353,15 @@
         <v>1E-3</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>0.1</v>
@@ -3037,15 +3371,15 @@
         <v>1E-3</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>1000</v>
@@ -3055,15 +3389,15 @@
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41">
         <v>1000</v>
@@ -3073,15 +3407,15 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>0.1</v>
@@ -3091,15 +3425,15 @@
         <v>1E-3</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43">
         <v>0.1</v>
@@ -3109,15 +3443,15 @@
         <v>1E-3</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44">
         <v>1000</v>
@@ -3127,15 +3461,15 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>1000</v>
@@ -3145,15 +3479,15 @@
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3163,15 +3497,15 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -3181,15 +3515,15 @@
         <v>0.1</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3199,15 +3533,15 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49">
         <v>5.0000000000000001E-3</v>
@@ -3217,15 +3551,15 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -3235,15 +3569,15 @@
         <v>0.1</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -3253,15 +3587,15 @@
         <v>0.1</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3271,15 +3605,15 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <v>1000</v>
@@ -3289,15 +3623,15 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3307,15 +3641,15 @@
         <v>0.02</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3325,15 +3659,15 @@
         <v>0.02</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -3343,15 +3677,15 @@
         <v>0.02</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3361,15 +3695,15 @@
         <v>0.02</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3379,15 +3713,15 @@
         <v>0.02</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>500</v>
@@ -3397,15 +3731,15 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60">
         <v>500</v>
@@ -3415,15 +3749,15 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -3433,15 +3767,15 @@
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <v>500</v>
@@ -3451,15 +3785,15 @@
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>500</v>
@@ -3469,15 +3803,15 @@
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3487,15 +3821,15 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3505,15 +3839,15 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3523,15 +3857,15 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3541,15 +3875,15 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3559,15 +3893,15 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -3577,15 +3911,15 @@
         <v>0.02</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -3595,15 +3929,15 @@
         <v>0.02</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -3613,15 +3947,15 @@
         <v>0.02</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -3631,15 +3965,15 @@
         <v>0.02</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -3649,15 +3983,15 @@
         <v>0.02</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74">
         <v>500</v>
@@ -3667,15 +4001,15 @@
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75">
         <v>500</v>
@@ -3685,15 +4019,15 @@
         <v>5</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76">
         <v>500</v>
@@ -3703,15 +4037,15 @@
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77">
         <v>500</v>
@@ -3721,15 +4055,15 @@
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78">
         <v>500</v>
@@ -3739,15 +4073,15 @@
         <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3756,15 +4090,15 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3773,15 +4107,15 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3790,15 +4124,15 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3807,15 +4141,15 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3824,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3834,12 +4168,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,18 +4185,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>88</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -3874,10 +4208,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
       </c>
       <c r="C3" t="b">
         <f>TRUE</f>
@@ -3886,10 +4220,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="b">
         <f>TRUE</f>
@@ -3898,10 +4232,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE</f>
@@ -3910,10 +4244,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="b">
         <f>TRUE</f>
@@ -3922,10 +4256,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="b">
         <f>TRUE</f>
@@ -3934,10 +4268,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -3946,10 +4280,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -3958,10 +4292,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -3970,10 +4304,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -3982,7 +4316,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -3994,10 +4328,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="b">
         <f>FALSE</f>
@@ -4006,10 +4340,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="b">
         <f>FALSE</f>
@@ -4018,10 +4352,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="b">
         <f>FALSE</f>
@@ -4030,10 +4364,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="b">
         <f>FALSE</f>
@@ -4042,10 +4376,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="b">
         <f>FALSE</f>
@@ -4054,10 +4388,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="b">
         <f>FALSE</f>
@@ -4066,10 +4400,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="b">
         <f>FALSE</f>
@@ -4078,10 +4412,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" t="b">
         <f>FALSE</f>
@@ -4090,10 +4424,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
         <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
       </c>
       <c r="C21" t="b">
         <f>TRUE</f>
@@ -4102,7 +4436,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -4114,10 +4448,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="b">
         <f>FALSE</f>
@@ -4126,10 +4460,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="b">
         <f>FALSE</f>
@@ -4138,10 +4472,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
         <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>121</v>
       </c>
       <c r="C25" t="b">
         <f>TRUE</f>
@@ -4150,10 +4484,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" t="b">
         <f>FALSE</f>
@@ -4162,10 +4496,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="b">
         <f>FALSE</f>
@@ -4174,10 +4508,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" t="b">
         <f>FALSE</f>
@@ -4186,10 +4520,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" t="b">
         <f>FALSE</f>
@@ -4198,10 +4532,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" t="b">
         <f>FALSE</f>
@@ -4210,279 +4544,279 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>1</v>
@@ -4490,215 +4824,215 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s">
         <v>174</v>
-      </c>
-      <c r="B83" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>1</v>
@@ -4706,207 +5040,207 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
         <v>1</v>
@@ -4914,95 +5248,95 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128" t="s">
         <v>191</v>
-      </c>
-      <c r="B128" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
         <v>1</v>
@@ -5010,255 +5344,255 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B131" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>196</v>
+      </c>
+      <c r="B132" t="s">
         <v>197</v>
-      </c>
-      <c r="B132" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" t="s">
         <v>202</v>
-      </c>
-      <c r="B134" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B139" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" t="s">
         <v>218</v>
-      </c>
-      <c r="B151" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B153" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B160" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B161" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B162" t="s">
         <v>1</v>
@@ -5266,274 +5600,274 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B163" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>229</v>
+      </c>
+      <c r="B166" t="s">
         <v>230</v>
-      </c>
-      <c r="B166" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B172" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B173" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B174" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B177" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B178" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B180" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B182" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B183" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B189" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B190" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B191" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B192" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B193" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B194" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B195" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B196" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5542,12 +5876,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5559,553 +5893,553 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
         <v>124</v>
-      </c>
-      <c r="B23" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" t="str">
         <f>"NumeroMultas_"&amp;C24</f>
         <v>NumeroMultas_Lei1</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
         <v>134</v>
-      </c>
-      <c r="B28" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
         <v>143</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
         <v>166</v>
-      </c>
-      <c r="B43" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
         <v>171</v>
-      </c>
-      <c r="B45" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" t="s">
         <v>178</v>
-      </c>
-      <c r="B49" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
         <v>187</v>
-      </c>
-      <c r="B52" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
         <v>209</v>
-      </c>
-      <c r="B62" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" t="s">
         <v>214</v>
-      </c>
-      <c r="B64" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" t="s">
         <v>226</v>
-      </c>
-      <c r="B65" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6113,7 +6447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -6131,90 +6465,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -2335,7 +2335,7 @@
         <v>CustoMedio_NB_91</v>
       </c>
       <c r="J1" t="str">
-        <f t="shared" ref="J1:M1" si="0">"CustoMedio_"&amp;C1</f>
+        <f t="shared" ref="J1:L1" si="0">"CustoMedio_"&amp;C1</f>
         <v>CustoMedio_NB_92</v>
       </c>
       <c r="K1" t="str">

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="269">
   <si>
     <t>Ano</t>
   </si>
@@ -442,27 +442,15 @@
     <t>calcular_acoes_regressivas_inss</t>
   </si>
   <si>
-    <t>Nev_AcaoRegressivaINSS</t>
-  </si>
-  <si>
-    <t>Nev_AcaoRegressivaInicial</t>
-  </si>
-  <si>
     <t>PAcaoRegressiva</t>
   </si>
   <si>
-    <t>CustoMedioAcaoRegressivaINSS</t>
-  </si>
-  <si>
     <t>DespesaAcoesRegressivasINSS</t>
   </si>
   <si>
     <t>AcoesRegressivasINSS</t>
   </si>
   <si>
-    <t>Nev_AcaoRegressivaINSSAcumulado</t>
-  </si>
-  <si>
     <t>PInvalidez</t>
   </si>
   <si>
@@ -851,6 +839,12 @@
   </si>
   <si>
     <t>RATAjustado</t>
+  </si>
+  <si>
+    <t>CustoMedioPonderadoAcaoRegressiva</t>
+  </si>
+  <si>
+    <t>NB_AcaoRegressivaINSSAcumulado</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BG11"/>
+  <dimension ref="A1:BF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,34 +1642,33 @@
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.28515625" customWidth="1"/>
-    <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="49" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="48" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>19</v>
@@ -1713,148 +1706,145 @@
         <v>131</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>154</v>
+      <c r="S1" t="s">
+        <v>177</v>
       </c>
       <c r="T1" t="s">
+        <v>178</v>
+      </c>
+      <c r="U1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" t="s">
         <v>181</v>
       </c>
-      <c r="U1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V1" t="s">
-        <v>183</v>
-      </c>
-      <c r="W1" t="s">
-        <v>184</v>
-      </c>
       <c r="X1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Z1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AA1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AB1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AC1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AD1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AE1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF1" t="s">
         <v>216</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI1" t="s">
         <v>219</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>220</v>
       </c>
-      <c r="AH1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>223</v>
-      </c>
       <c r="AK1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AL1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AM1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AN1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>248</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>249</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>250</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>251</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>252</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>253</v>
       </c>
-      <c r="AT1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>255</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>256</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>257</v>
       </c>
-      <c r="AX1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BA1" t="s">
         <v>260</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>262</v>
       </c>
       <c r="BB1" t="s">
         <v>264</v>
       </c>
       <c r="BC1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="BD1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BF1" t="s">
         <v>263</v>
       </c>
-      <c r="BE1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1897,7 +1887,7 @@
         <v>0.1</v>
       </c>
       <c r="M2">
-        <v>15000</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1914,8 +1904,8 @@
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>1</v>
+      <c r="S2" s="15">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="T2" s="15">
         <v>1.0000000000000001E-5</v>
@@ -1923,23 +1913,23 @@
       <c r="U2" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="W2" s="16">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X2">
+      <c r="W2">
         <v>0.1</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="X2" s="17">
         <v>10</v>
       </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
       <c r="Z2">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="AA2">
-        <v>10000</v>
+        <v>1E-4</v>
       </c>
       <c r="AB2">
         <v>1E-4</v>
@@ -1948,13 +1938,13 @@
         <v>1E-4</v>
       </c>
       <c r="AD2">
-        <v>1E-4</v>
+        <v>10000</v>
       </c>
       <c r="AE2">
-        <v>10000</v>
+        <v>3</v>
       </c>
       <c r="AF2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -1969,13 +1959,13 @@
         <v>1</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL2">
         <v>10</v>
       </c>
       <c r="AM2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -2005,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AX2">
         <v>50000</v>
@@ -2017,7 +2007,7 @@
         <v>50000</v>
       </c>
       <c r="BA2">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="BB2">
         <v>1</v>
@@ -2034,11 +2024,8 @@
       <c r="BF2">
         <v>1</v>
       </c>
-      <c r="BG2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -2082,14 +2069,15 @@
         <v>0.1</v>
       </c>
       <c r="M3">
-        <v>15000</v>
+        <f>M2</f>
+        <v>1</v>
       </c>
       <c r="N3">
-        <f>N2</f>
+        <f t="shared" ref="N3:R3" si="5">N2</f>
         <v>1</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:S3" si="5">O2</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P3">
@@ -2104,9 +2092,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+      <c r="S3" s="15">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="T3" s="15">
         <v>1.0000000000000001E-5</v>
@@ -2114,23 +2101,23 @@
       <c r="U3" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="W3" s="16">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X3">
+      <c r="W3">
         <v>0.1</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="X3" s="17">
         <v>10</v>
       </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
       <c r="Z3">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="AA3">
-        <v>10000</v>
+        <v>1E-4</v>
       </c>
       <c r="AB3">
         <v>1E-4</v>
@@ -2139,13 +2126,13 @@
         <v>1E-4</v>
       </c>
       <c r="AD3">
-        <v>1E-4</v>
+        <v>10040</v>
       </c>
       <c r="AE3">
-        <v>10040</v>
+        <v>3</v>
       </c>
       <c r="AF3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -2160,13 +2147,13 @@
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL3">
         <v>10</v>
       </c>
       <c r="AM3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -2196,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AX3">
         <v>50000</v>
@@ -2208,7 +2195,7 @@
         <v>50000</v>
       </c>
       <c r="BA3">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="BB3">
         <v>1</v>
@@ -2225,11 +2212,8 @@
       <c r="BF3">
         <v>1</v>
       </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
@@ -2237,7 +2221,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
@@ -2245,7 +2229,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
@@ -2253,31 +2237,31 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -2293,7 +2277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D0FF9-8990-44BE-BAF9-E556463C7042}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2310,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -2328,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I1" t="str">
         <f>"CustoMedio_"&amp;B1</f>
@@ -2347,10 +2333,10 @@
         <v>CustoMedio_NB_94</v>
       </c>
       <c r="M1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2642,11 +2628,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2712,7 +2696,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D34" si="0">C3*0.01</f>
+        <f t="shared" ref="D3:D32" si="0">C3*0.01</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G3" t="s">
@@ -3088,7 +3072,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -3106,7 +3090,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -3124,17 +3108,17 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -3142,53 +3126,53 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>136</v>
+      <c r="A28" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
       </c>
       <c r="C28">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>136</v>
+      <c r="A29" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
       <c r="C29">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
@@ -3196,17 +3180,17 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
       <c r="C30">
-        <v>0.01</v>
+        <v>2500</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -3214,43 +3198,43 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
       </c>
       <c r="C31">
-        <v>0.01</v>
+        <v>2000</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>167</v>
+      <c r="A32" t="s">
+        <v>165</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
       </c>
       <c r="C32">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>167</v>
+      <c r="A33" t="s">
+        <v>165</v>
       </c>
       <c r="B33" t="s">
         <v>70</v>
@@ -3259,7 +3243,7 @@
         <v>2000</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D33:D34" si="2">C33*0.01</f>
         <v>20</v>
       </c>
       <c r="G33" t="s">
@@ -3268,7 +3252,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
@@ -3277,7 +3261,7 @@
         <v>2000</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G34" t="s">
@@ -3286,7 +3270,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
@@ -3295,7 +3279,7 @@
         <v>2000</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D36" si="2">C35*0.01</f>
+        <f t="shared" ref="D35:D36" si="3">C35*0.01</f>
         <v>20</v>
       </c>
       <c r="G35" t="s">
@@ -3304,17 +3288,17 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
       </c>
       <c r="C36">
-        <v>2000</v>
+        <v>0.1</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -3322,17 +3306,17 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
       </c>
       <c r="C37">
-        <v>2000</v>
+        <v>0.1</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D38" si="3">C37*0.01</f>
-        <v>20</v>
+        <f t="shared" ref="D37:D38" si="4">C37*0.01</f>
+        <v>1E-3</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -3340,17 +3324,17 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -3358,17 +3342,17 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D40" si="4">C39*0.01</f>
-        <v>1E-3</v>
+        <f t="shared" ref="D39:D42" si="5">C39*0.01</f>
+        <v>10</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
@@ -3376,17 +3360,17 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
       </c>
       <c r="C40">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -3394,17 +3378,17 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s">
         <v>70</v>
       </c>
       <c r="C41">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:D44" si="5">C41*0.01</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
@@ -3412,17 +3396,17 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
       </c>
       <c r="C42">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="D42">
         <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
@@ -3430,17 +3414,17 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
         <v>70</v>
       </c>
       <c r="C43">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <f t="shared" ref="D43" si="6">C43*0.01</f>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -3448,17 +3432,17 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
         <v>70</v>
       </c>
       <c r="C44">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" ref="D44:D45" si="7">C44*0.01</f>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
@@ -3466,17 +3450,17 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
       </c>
       <c r="C45">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45" si="6">C45*0.01</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>0.1</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
@@ -3484,7 +3468,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
@@ -3493,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:D47" si="7">C46*0.01</f>
+        <f t="shared" ref="D46:D47" si="8">C46*0.01</f>
         <v>0</v>
       </c>
       <c r="G46" t="s">
@@ -3502,17 +3486,17 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D47">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G47" t="s">
         <v>16</v>
@@ -3520,17 +3504,17 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:D49" si="8">C48*0.01</f>
-        <v>0</v>
+        <f t="shared" ref="D48:D49" si="9">C48*0.01</f>
+        <v>0.1</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -3538,17 +3522,17 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s">
         <v>70</v>
       </c>
       <c r="C49">
-        <v>5.0000000000000001E-3</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000002E-5</v>
+        <f t="shared" si="9"/>
+        <v>0.1</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
@@ -3562,11 +3546,11 @@
         <v>70</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D51" si="9">C50*0.01</f>
-        <v>0.1</v>
+        <f t="shared" ref="D50:D52" si="10">C50*0.01</f>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>42</v>
@@ -3580,11 +3564,11 @@
         <v>70</v>
       </c>
       <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="10"/>
         <v>10</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
@@ -3592,17 +3576,17 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D54" si="10">C52*0.01</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.02</v>
       </c>
       <c r="G52" t="s">
         <v>42</v>
@@ -3610,25 +3594,25 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
         <v>70</v>
       </c>
       <c r="C53">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" ref="D53:D57" si="11">C53*0.01</f>
+        <v>0.02</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B54" t="s">
         <v>70</v>
@@ -3637,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
       <c r="G54" t="s">
@@ -3646,7 +3630,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s">
         <v>70</v>
@@ -3655,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:D59" si="11">C55*0.01</f>
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
       <c r="G55" t="s">
@@ -3664,7 +3648,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
@@ -3682,17 +3666,17 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
         <v>70</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D57">
         <f t="shared" si="11"/>
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -3700,17 +3684,17 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D58">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
+        <f t="shared" ref="D58:D72" si="12">C58*0.01</f>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
         <v>42</v>
@@ -3718,7 +3702,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
         <v>70</v>
@@ -3727,7 +3711,7 @@
         <v>500</v>
       </c>
       <c r="D59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="G59" t="s">
@@ -3736,7 +3720,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
@@ -3745,7 +3729,7 @@
         <v>500</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:D74" si="12">C60*0.01</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="G60" t="s">
@@ -3754,7 +3738,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
@@ -3772,17 +3756,17 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
       </c>
       <c r="C62">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -3790,17 +3774,17 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
       </c>
       <c r="C63">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -3808,7 +3792,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
@@ -3826,7 +3810,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
@@ -3844,7 +3828,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
@@ -3862,43 +3846,43 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -3916,7 +3900,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -3934,7 +3918,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -3952,17 +3936,17 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D72">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3970,17 +3954,17 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B73" t="s">
         <v>70</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D73">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
+        <f t="shared" ref="D73:D76" si="13">C73*0.01</f>
+        <v>5</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3988,7 +3972,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
         <v>70</v>
@@ -3997,7 +3981,7 @@
         <v>500</v>
       </c>
       <c r="D74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="G74" t="s">
@@ -4006,7 +3990,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
@@ -4015,7 +3999,7 @@
         <v>500</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D78" si="13">C75*0.01</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="G75" t="s">
@@ -4024,7 +4008,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
         <v>70</v>
@@ -4042,17 +4026,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
         <v>70</v>
       </c>
       <c r="C77">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -4060,17 +4043,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
         <v>70</v>
       </c>
       <c r="C78">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -4078,7 +4060,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="B79" t="s">
         <v>70</v>
@@ -4095,7 +4077,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
         <v>70</v>
@@ -4112,7 +4094,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
@@ -4124,40 +4106,6 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>238</v>
-      </c>
-      <c r="B82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>239</v>
-      </c>
-      <c r="B83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4170,10 +4118,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,7 +4495,7 @@
         <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4555,7 +4503,7 @@
         <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4563,7 +4511,7 @@
         <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4571,7 +4519,7 @@
         <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4579,7 +4527,7 @@
         <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4587,7 +4535,7 @@
         <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4595,7 +4543,7 @@
         <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4603,223 +4551,223 @@
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
+        <v>138</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>154</v>
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4827,415 +4775,415 @@
         <v>161</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
         <v>165</v>
-      </c>
-      <c r="B73" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
         <v>170</v>
-      </c>
-      <c r="B82" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>173</v>
       </c>
-      <c r="B91" t="s">
-        <v>107</v>
+      <c r="B91" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>1</v>
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" t="s">
         <v>177</v>
-      </c>
-      <c r="B109" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -5243,124 +5191,124 @@
         <v>186</v>
       </c>
       <c r="B118" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B130" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B133" t="s">
         <v>198</v>
@@ -5368,119 +5316,119 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B134" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B135" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" t="s">
         <v>201</v>
-      </c>
-      <c r="B136" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B137" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B138" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B140" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B142" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B143" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B145" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B146" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
         <v>211</v>
@@ -5488,10 +5436,10 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -5499,28 +5447,28 @@
         <v>213</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B152" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B153" t="s">
         <v>216</v>
@@ -5528,82 +5476,82 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B156" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B157" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B159" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B162" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B163" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -5611,47 +5559,47 @@
         <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="B169" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -5659,7 +5607,7 @@
         <v>123</v>
       </c>
       <c r="B170" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -5667,7 +5615,7 @@
         <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -5675,7 +5623,7 @@
         <v>123</v>
       </c>
       <c r="B172" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -5683,7 +5631,7 @@
         <v>123</v>
       </c>
       <c r="B173" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -5691,7 +5639,7 @@
         <v>123</v>
       </c>
       <c r="B174" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -5699,7 +5647,7 @@
         <v>123</v>
       </c>
       <c r="B175" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -5707,7 +5655,7 @@
         <v>123</v>
       </c>
       <c r="B176" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -5715,7 +5663,7 @@
         <v>123</v>
       </c>
       <c r="B177" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -5723,7 +5671,7 @@
         <v>123</v>
       </c>
       <c r="B178" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -5731,7 +5679,7 @@
         <v>123</v>
       </c>
       <c r="B179" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -5739,7 +5687,7 @@
         <v>123</v>
       </c>
       <c r="B180" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -5747,7 +5695,7 @@
         <v>123</v>
       </c>
       <c r="B181" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -5755,7 +5703,7 @@
         <v>123</v>
       </c>
       <c r="B182" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -5763,7 +5711,7 @@
         <v>123</v>
       </c>
       <c r="B183" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -5771,7 +5719,7 @@
         <v>123</v>
       </c>
       <c r="B184" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -5779,7 +5727,7 @@
         <v>123</v>
       </c>
       <c r="B185" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -5787,7 +5735,7 @@
         <v>123</v>
       </c>
       <c r="B186" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -5795,7 +5743,7 @@
         <v>123</v>
       </c>
       <c r="B187" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -5803,7 +5751,7 @@
         <v>123</v>
       </c>
       <c r="B188" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -5811,7 +5759,7 @@
         <v>123</v>
       </c>
       <c r="B189" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -5819,7 +5767,7 @@
         <v>123</v>
       </c>
       <c r="B190" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -5827,7 +5775,7 @@
         <v>123</v>
       </c>
       <c r="B191" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -5835,7 +5783,7 @@
         <v>123</v>
       </c>
       <c r="B192" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -5843,7 +5791,7 @@
         <v>123</v>
       </c>
       <c r="B193" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -5851,7 +5799,7 @@
         <v>123</v>
       </c>
       <c r="B194" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -5859,15 +5807,7 @@
         <v>123</v>
       </c>
       <c r="B195" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>123</v>
-      </c>
-      <c r="B196" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5881,7 +5821,7 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6095,7 +6035,7 @@
         <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6103,7 +6043,7 @@
         <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6111,7 +6051,7 @@
         <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6119,327 +6059,327 @@
         <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
         <v>142</v>
-      </c>
-      <c r="B32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
         <v>190</v>
-      </c>
-      <c r="B56" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
         <v>196</v>
-      </c>
-      <c r="B59" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" t="s">
         <v>229</v>
-      </c>
-      <c r="B67" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6451,8 +6391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="279">
   <si>
     <t>Ano</t>
   </si>
@@ -845,6 +845,36 @@
   </si>
   <si>
     <t>NB_AcaoRegressivaINSSAcumulado</t>
+  </si>
+  <si>
+    <t>calcular_interrupcao_acidentes</t>
+  </si>
+  <si>
+    <t>DiasInterrupcaoAcidenteObito</t>
+  </si>
+  <si>
+    <t>DiasInterrupcaoAcidenteOutros</t>
+  </si>
+  <si>
+    <t>LucroCessanteDiario</t>
+  </si>
+  <si>
+    <t>DiasTotaisInterrupcaoAcidente</t>
+  </si>
+  <si>
+    <t>DespesasInterrupcaoAcidentes</t>
+  </si>
+  <si>
+    <t>EventoInterdicao</t>
+  </si>
+  <si>
+    <t>DiasInterdicaoFiscalizacao</t>
+  </si>
+  <si>
+    <t>calcular_interdicao_fiscalizacao</t>
+  </si>
+  <si>
+    <t>DespesasInterdicaoFiscalizacao</t>
   </si>
 </sst>
 </file>
@@ -1502,9 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1584,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -2278,7 +2306,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,9 +2656,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4109,6 +4139,186 @@
         <v>16</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82:D84" si="14">C82*0.01</f>
+        <v>0.1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="14"/>
+        <v>0.01</v>
+      </c>
+      <c r="G83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84">
+        <v>1000</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ref="D85:D89" si="15">C85*0.01</f>
+        <v>0.1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87">
+        <v>1000</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>275</v>
+      </c>
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+      <c r="G88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ref="D90:D91" si="16">C90*0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4118,10 +4328,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5810,6 +6020,102 @@
         <v>253</v>
       </c>
     </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>269</v>
+      </c>
+      <c r="B196" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>269</v>
+      </c>
+      <c r="B197" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>269</v>
+      </c>
+      <c r="B198" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>269</v>
+      </c>
+      <c r="B199" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>269</v>
+      </c>
+      <c r="B200" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>269</v>
+      </c>
+      <c r="B201" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>269</v>
+      </c>
+      <c r="B202" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>277</v>
+      </c>
+      <c r="B203" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>277</v>
+      </c>
+      <c r="B204" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>277</v>
+      </c>
+      <c r="B205" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>277</v>
+      </c>
+      <c r="B206" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>277</v>
+      </c>
+      <c r="B207" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5818,10 +6124,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,6 +6688,30 @@
         <v>230</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6391,8 +6721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="280">
   <si>
     <t>Ano</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>DespesasInterdicaoFiscalizacao</t>
+  </si>
+  <si>
+    <t>GanhoQualidade</t>
   </si>
 </sst>
 </file>
@@ -4330,8 +4333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6124,11 +6127,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6658,10 +6659,10 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -6669,15 +6670,15 @@
         <v>221</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -6685,15 +6686,15 @@
         <v>225</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -6701,14 +6702,22 @@
         <v>269</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>277</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>278</v>
       </c>
     </row>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -14,15 +14,18 @@
     <sheet name="Cenarios" sheetId="9" r:id="rId5"/>
     <sheet name="Parametros" sheetId="4" r:id="rId6"/>
     <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId7"/>
-    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId8"/>
-    <sheet name="Distribuições" sheetId="10" r:id="rId9"/>
-    <sheet name="Categorias" sheetId="13" r:id="rId10"/>
-    <sheet name="Custos" sheetId="8" r:id="rId11"/>
-    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId12"/>
+    <sheet name="Módulos" sheetId="15" r:id="rId8"/>
+    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId9"/>
+    <sheet name="Distribuições" sheetId="10" r:id="rId10"/>
+    <sheet name="Categorias" sheetId="13" r:id="rId11"/>
+    <sheet name="Custos" sheetId="8" r:id="rId12"/>
+    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Custos!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Custos!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Funcoes_Inputs!$A$1:$D$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$10</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="278">
   <si>
     <t>Ano</t>
   </si>
@@ -58,18 +61,6 @@
     <t>AnosaSeremSimulados</t>
   </si>
   <si>
-    <t>SalarioMedio</t>
-  </si>
-  <si>
-    <t>SATProjetado</t>
-  </si>
-  <si>
-    <t>FAPProjetado</t>
-  </si>
-  <si>
-    <t>DespesaSATProjetada</t>
-  </si>
-  <si>
     <t>NomeVariavel</t>
   </si>
   <si>
@@ -878,6 +869,12 @@
   </si>
   <si>
     <t>GanhoQualidade</t>
+  </si>
+  <si>
+    <t>Obrigatório?</t>
+  </si>
+  <si>
+    <t>Módulo</t>
   </si>
 </sst>
 </file>
@@ -943,7 +940,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,9 +952,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,79 +1307,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>28</v>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1395,6 +1390,80 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1406,22 +1475,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1439,32 +1508,32 @@
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>69</v>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="12">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10">
         <v>2017</v>
       </c>
       <c r="D2" s="4">
@@ -1473,12 +1542,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="12">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10">
         <v>2018</v>
       </c>
       <c r="D3" s="4">
@@ -1487,12 +1556,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="12">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10">
         <v>2017</v>
       </c>
       <c r="D4" s="4">
@@ -1501,12 +1570,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="12">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10">
         <v>2018</v>
       </c>
       <c r="D5" s="4">
@@ -1519,7 +1588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1559,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1568,46 +1637,46 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1637,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1654,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BF11"/>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AW19" sqref="AW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,41 +1734,37 @@
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.28515625" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="48" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="44" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,86 +1774,86 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
+      <c r="D1" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>150</v>
+      <c r="O1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" t="s">
+        <v>176</v>
       </c>
       <c r="S1" t="s">
         <v>177</v>
       </c>
       <c r="T1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="U1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="V1" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="W1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Y1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Z1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AA1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AB1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AC1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AD1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE1" t="s">
         <v>215</v>
@@ -1797,22 +1862,22 @@
         <v>216</v>
       </c>
       <c r="AG1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AH1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AI1" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="AJ1" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="AK1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="AL1" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="AM1" t="s">
         <v>244</v>
@@ -1833,49 +1898,37 @@
         <v>249</v>
       </c>
       <c r="AS1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AU1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AV1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AW1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AY1" t="s">
         <v>255</v>
       </c>
-      <c r="AX1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>257</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>258</v>
       </c>
-      <c r="BA1" t="s">
-        <v>260</v>
-      </c>
       <c r="BB1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BC1" t="s">
         <v>259</v>
       </c>
-      <c r="BD1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1883,105 +1936,103 @@
       <c r="B2" s="2">
         <v>3000</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <f>B2*850</f>
         <v>2550000</v>
       </c>
-      <c r="D2" s="5">
-        <v>750</v>
-      </c>
-      <c r="E2" s="5">
-        <f>F2*C2</f>
-        <v>153000</v>
-      </c>
-      <c r="F2" s="7">
-        <f>G2*H2</f>
-        <v>0.06</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H2">
+      <c r="D2">
         <f>CategoriaSAT</f>
         <v>3</v>
       </c>
-      <c r="I2" s="14">
+      <c r="E2" s="12">
         <v>8</v>
       </c>
-      <c r="J2" s="14">
+      <c r="F2" s="12">
         <v>15</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="P2" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R2" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S2">
         <v>0.1</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="T2" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="U2" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="V2" s="16">
-        <v>1.0000000000000001E-5</v>
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>10000</v>
       </c>
       <c r="W2">
-        <v>0.1</v>
-      </c>
-      <c r="X2" s="17">
-        <v>10</v>
+        <v>1E-4</v>
+      </c>
+      <c r="X2">
+        <v>1E-4</v>
       </c>
       <c r="Y2">
-        <v>10</v>
+        <v>1E-4</v>
       </c>
       <c r="Z2">
         <v>10000</v>
       </c>
       <c r="AA2">
-        <v>1E-4</v>
+        <v>3</v>
       </c>
       <c r="AB2">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1990,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="AK2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -2014,28 +2065,28 @@
         <v>1</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AW2">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="BA2">
         <v>1</v>
@@ -2043,20 +2094,8 @@
       <c r="BB2">
         <v>1</v>
       </c>
-      <c r="BC2">
-        <v>1</v>
-      </c>
-      <c r="BD2">
-        <v>1</v>
-      </c>
-      <c r="BE2">
-        <v>1</v>
-      </c>
-      <c r="BF2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -2064,113 +2103,110 @@
       <c r="B3" s="2">
         <v>3000</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <f t="shared" ref="C3" si="1">B3*850</f>
         <v>2550000</v>
       </c>
-      <c r="D3" s="4">
-        <f>ROUND(D2*1.08,2)</f>
-        <v>810</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3" si="2">F3*C3</f>
-        <v>153000</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3" si="3">G3*H3</f>
-        <v>0.06</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.02</v>
+      <c r="D3">
+        <f t="shared" ref="D3" si="2">CategoriaSAT</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="12">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3" si="4">CategoriaSAT</f>
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <f>I2</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:N3" si="3">J2</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R3" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S3">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="15">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>10000</v>
+      </c>
+      <c r="W3">
+        <v>1E-4</v>
+      </c>
+      <c r="X3">
+        <v>1E-4</v>
+      </c>
+      <c r="Y3">
+        <v>1E-4</v>
+      </c>
+      <c r="Z3">
+        <v>10040</v>
+      </c>
+      <c r="AA3">
         <v>3</v>
       </c>
-      <c r="I3" s="14">
-        <v>8</v>
-      </c>
-      <c r="J3" s="14">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <f>M2</f>
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:R3" si="5">N2</f>
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S3" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T3" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="U3" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="V3" s="16">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="W3">
-        <v>0.1</v>
-      </c>
-      <c r="X3" s="17">
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
         <v>10</v>
       </c>
-      <c r="Y3">
+      <c r="AH3">
         <v>10</v>
       </c>
-      <c r="Z3">
-        <v>10000</v>
-      </c>
-      <c r="AA3">
-        <v>1E-4</v>
-      </c>
-      <c r="AB3">
-        <v>1E-4</v>
-      </c>
-      <c r="AC3">
-        <v>1E-4</v>
-      </c>
-      <c r="AD3">
-        <v>10040</v>
-      </c>
-      <c r="AE3">
-        <v>3</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
       <c r="AI3">
         <v>1</v>
       </c>
@@ -2178,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AM3">
         <v>1</v>
@@ -2202,28 +2238,28 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AW3">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="BA3">
         <v>1</v>
@@ -2231,72 +2267,36 @@
       <c r="BB3">
         <v>1</v>
       </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <v>1</v>
-      </c>
-      <c r="BE3">
-        <v>1</v>
-      </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C4" s="8"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2308,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D0FF9-8990-44BE-BAF9-E556463C7042}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,25 +2327,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I1" t="str">
         <f>"CustoMedio_"&amp;B1</f>
@@ -2364,10 +2364,10 @@
         <v>CustoMedio_NB_94</v>
       </c>
       <c r="M1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2387,32 +2387,32 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>213</v>
       </c>
       <c r="G2">
         <v>12628104.869999999</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>0.26</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="17">
         <v>50000</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="17">
         <v>50000</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="17">
         <v>50000</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="17">
         <v>50000</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <f>I2*B2+C2*J2+D2*K2+E2*L2</f>
         <v>200000</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>0.02</v>
       </c>
     </row>
@@ -2433,32 +2433,32 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>213</v>
       </c>
       <c r="G3">
         <v>12628104.869999999</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>0.26</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <v>50000</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>50000</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="17">
         <v>50000</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="17">
         <v>50000</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="15">
         <f>I3*B3+C3*J3+D3*K3+E3*L3</f>
         <v>250000</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>0.02</v>
       </c>
     </row>
@@ -2472,7 +2472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2482,19 +2484,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>68</v>
+      <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
+      <c r="A2" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B2" t="b">
         <f>TRUE</f>
@@ -2506,8 +2508,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <f>TRUE</f>
@@ -2519,8 +2521,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>41</v>
+      <c r="A4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B4" t="b">
         <f>FALSE</f>
@@ -2532,113 +2534,113 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="B13" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -2649,7 +2651,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2661,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,34 +2678,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>67</v>
+      <c r="G1" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>83</v>
+      <c r="A2" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>5.0000000000000001E-3</v>
@@ -2712,18 +2714,18 @@
         <f>C2*0.01</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>5.0000000000000001E-3</v>
@@ -2733,15 +2735,15 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
@@ -2751,15 +2753,15 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>5.0000000000000001E-3</v>
@@ -2769,15 +2771,15 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2787,15 +2789,15 @@
         <v>0.05</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -2805,15 +2807,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -2823,15 +2825,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -2841,15 +2843,15 @@
         <v>2E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -2859,15 +2861,15 @@
         <v>1E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>83</v>
+      <c r="A11" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <f>C2-0.002</f>
@@ -2877,18 +2879,18 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C14" si="1">C3-0.002</f>
@@ -2899,15 +2901,15 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -2918,15 +2920,15 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -2937,15 +2939,15 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <f>C6-1</f>
@@ -2956,15 +2958,15 @@
         <v>0.04</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>0.4</v>
@@ -2974,15 +2976,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>0.3</v>
@@ -2992,15 +2994,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>0.2</v>
@@ -3010,15 +3012,15 @@
         <v>2E-3</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>0.1</v>
@@ -3028,15 +3030,15 @@
         <v>1E-3</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>1000</v>
@@ -3046,15 +3048,15 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>1000</v>
@@ -3064,15 +3066,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -3082,15 +3084,15 @@
         <v>0.05</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -3100,15 +3102,15 @@
         <v>0.05</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -3118,15 +3120,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -3136,15 +3138,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>0.1</v>
@@ -3154,15 +3156,15 @@
         <v>1E-3</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C27">
         <v>0.1</v>
@@ -3172,15 +3174,15 @@
         <v>1E-3</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>158</v>
+      <c r="A28" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>0.01</v>
@@ -3190,15 +3192,15 @@
         <v>1E-4</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>158</v>
+      <c r="A29" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.01</v>
@@ -3208,15 +3210,15 @@
         <v>1E-4</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>163</v>
+      <c r="A30" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>2500</v>
@@ -3226,15 +3228,15 @@
         <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>163</v>
+      <c r="A31" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>2000</v>
@@ -3244,15 +3246,15 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C32">
         <v>2000</v>
@@ -3262,15 +3264,15 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>2000</v>
@@ -3280,15 +3282,15 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>2000</v>
@@ -3298,15 +3300,15 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C35">
         <v>2000</v>
@@ -3316,15 +3318,15 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.1</v>
@@ -3334,15 +3336,15 @@
         <v>1E-3</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>0.1</v>
@@ -3352,15 +3354,15 @@
         <v>1E-3</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C38">
         <v>1000</v>
@@ -3370,15 +3372,15 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>1000</v>
@@ -3388,15 +3390,15 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C40">
         <v>0.1</v>
@@ -3406,15 +3408,15 @@
         <v>1E-3</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C41">
         <v>0.1</v>
@@ -3424,15 +3426,15 @@
         <v>1E-3</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>1000</v>
@@ -3442,15 +3444,15 @@
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>1000</v>
@@ -3460,15 +3462,15 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3478,15 +3480,15 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -3496,15 +3498,15 @@
         <v>0.1</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3514,15 +3516,15 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C47">
         <v>5.0000000000000001E-3</v>
@@ -3532,15 +3534,15 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>10</v>
@@ -3550,15 +3552,15 @@
         <v>0.1</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -3568,15 +3570,15 @@
         <v>0.1</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3586,15 +3588,15 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>1000</v>
@@ -3604,15 +3606,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -3622,15 +3624,15 @@
         <v>0.02</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -3640,15 +3642,15 @@
         <v>0.02</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3658,15 +3660,15 @@
         <v>0.02</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3676,15 +3678,15 @@
         <v>0.02</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -3694,15 +3696,15 @@
         <v>0.02</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>500</v>
@@ -3712,15 +3714,15 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>500</v>
@@ -3730,15 +3732,15 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>500</v>
@@ -3748,15 +3750,15 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>500</v>
@@ -3766,15 +3768,15 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -3784,15 +3786,15 @@
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3802,15 +3804,15 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3820,15 +3822,15 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3838,15 +3840,15 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3856,15 +3858,15 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3874,15 +3876,15 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -3892,15 +3894,15 @@
         <v>0.02</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -3910,15 +3912,15 @@
         <v>0.02</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -3928,15 +3930,15 @@
         <v>0.02</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -3946,15 +3948,15 @@
         <v>0.02</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -3964,15 +3966,15 @@
         <v>0.02</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C72">
         <v>500</v>
@@ -3982,15 +3984,15 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C73">
         <v>500</v>
@@ -4000,15 +4002,15 @@
         <v>5</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C74">
         <v>500</v>
@@ -4018,15 +4020,15 @@
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C75">
         <v>500</v>
@@ -4036,15 +4038,15 @@
         <v>5</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C76">
         <v>500</v>
@@ -4054,15 +4056,15 @@
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4071,15 +4073,15 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4088,15 +4090,15 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4105,15 +4107,15 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4122,15 +4124,15 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4139,15 +4141,15 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -4157,15 +4159,15 @@
         <v>0.1</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4175,15 +4177,15 @@
         <v>0.01</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C84">
         <v>1000</v>
@@ -4193,15 +4195,15 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85">
         <v>10</v>
@@ -4211,15 +4213,15 @@
         <v>0.1</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4229,15 +4231,15 @@
         <v>0.01</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87">
         <v>1000</v>
@@ -4247,15 +4249,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -4265,15 +4267,15 @@
         <v>0.02</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -4283,15 +4285,15 @@
         <v>0.1</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -4301,15 +4303,15 @@
         <v>0.02</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91">
         <v>10</v>
@@ -4319,7 +4321,7 @@
         <v>0.1</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4331,1805 +4333,3577 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <f>VLOOKUP(A2,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <f>VLOOKUP(A3,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <f>VLOOKUP(A4,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <f>VLOOKUP(A5,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f>VLOOKUP(A6,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <f>VLOOKUP(A7,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <f>VLOOKUP(A8,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <f>VLOOKUP(A9,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <f>VLOOKUP(A10,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <f>VLOOKUP(A11,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <f>VLOOKUP(A12,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <f>VLOOKUP(A13,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <f>VLOOKUP(A14,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <f>VLOOKUP(A15,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <f>VLOOKUP(A16,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <f>VLOOKUP(A17,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <f>VLOOKUP(A18,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <f>VLOOKUP(A19,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <f>VLOOKUP(A20,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <f>VLOOKUP(A21,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <f>VLOOKUP(A22,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <f>VLOOKUP(A23,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <f>VLOOKUP(A24,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <f>VLOOKUP(A25,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C26" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <f>VLOOKUP(A26,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="C8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C27" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <f>VLOOKUP(A27,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <f>VLOOKUP(A28,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <f>VLOOKUP(A29,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <f>VLOOKUP(A30,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <f>VLOOKUP(A31,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <f>VLOOKUP(A32,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <f>VLOOKUP(A33,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <f>VLOOKUP(A34,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <f>VLOOKUP(A35,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <f>VLOOKUP(A36,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <f>VLOOKUP(A37,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <f>VLOOKUP(A38,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <f>VLOOKUP(A39,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <f>VLOOKUP(A40,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <f>VLOOKUP(A41,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <f>VLOOKUP(A42,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <f>VLOOKUP(A43,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <f>VLOOKUP(A44,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <f>VLOOKUP(A45,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <f>VLOOKUP(A46,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <f>VLOOKUP(A47,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <f>VLOOKUP(A48,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <f>VLOOKUP(A49,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <f>VLOOKUP(A50,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C51" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <f>VLOOKUP(A51,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <f>VLOOKUP(A52,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <f>VLOOKUP(A53,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <f>VLOOKUP(A54,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <f>VLOOKUP(A55,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <f>VLOOKUP(A56,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <f>VLOOKUP(A57,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <f>VLOOKUP(A58,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <f>VLOOKUP(A59,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <f>VLOOKUP(A60,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <f>VLOOKUP(A61,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <f>VLOOKUP(A62,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <f>VLOOKUP(A63,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <f>VLOOKUP(A64,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <f>VLOOKUP(A65,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <f>VLOOKUP(A66,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
         <v>96</v>
       </c>
-      <c r="C10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C67" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <f>VLOOKUP(A67,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <f>VLOOKUP(A68,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <f>VLOOKUP(A69,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <f>VLOOKUP(A70,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <f>VLOOKUP(A71,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <f>VLOOKUP(A72,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <f>VLOOKUP(A73,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <f>VLOOKUP(A74,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <f>VLOOKUP(A75,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
         <v>97</v>
       </c>
-      <c r="C11" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C76" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <f>VLOOKUP(A76,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <f>VLOOKUP(A77,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <f>VLOOKUP(A78,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D79" t="b">
+        <f>VLOOKUP(A79,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <f>VLOOKUP(A80,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D81" t="b">
+        <f>VLOOKUP(A81,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
+        <f>VLOOKUP(A82,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D83" t="b">
+        <f>VLOOKUP(A83,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D84" t="b">
+        <f>VLOOKUP(A84,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D85" t="b">
+        <f>VLOOKUP(A85,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D86" t="b">
+        <f>VLOOKUP(A86,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D87" t="b">
+        <f>VLOOKUP(A87,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D88" t="b">
+        <f>VLOOKUP(A88,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D89" t="b">
+        <f>VLOOKUP(A89,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D90" t="b">
+        <f>VLOOKUP(A90,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <f>VLOOKUP(A91,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D92" t="b">
+        <f>VLOOKUP(A92,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D93" t="b">
+        <f>VLOOKUP(A93,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D94" t="b">
+        <f>VLOOKUP(A94,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D95" t="b">
+        <f>VLOOKUP(A95,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D96" t="b">
+        <f>VLOOKUP(A96,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D97" t="b">
+        <f>VLOOKUP(A97,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D98" t="b">
+        <f>VLOOKUP(A98,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D99" t="b">
+        <f>VLOOKUP(A99,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D100" t="b">
+        <f>VLOOKUP(A100,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D101" t="b">
+        <f>VLOOKUP(A101,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D102" t="b">
+        <f>VLOOKUP(A102,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D103" t="b">
+        <f>VLOOKUP(A103,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D104" t="b">
+        <f>VLOOKUP(A104,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" t="s">
         <v>99</v>
       </c>
-      <c r="C13" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C105" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D105" t="b">
+        <f>VLOOKUP(A105,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D106" t="b">
+        <f>VLOOKUP(A106,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D107" t="b">
+        <f>VLOOKUP(A107,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D108" t="b">
+        <f>VLOOKUP(A108,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
+        <f>VLOOKUP(A109,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>178</v>
+      </c>
+      <c r="B110" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D110" t="b">
+        <f>VLOOKUP(A110,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
+        <f>VLOOKUP(A111,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D112" t="b">
+        <f>VLOOKUP(A112,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
+        <f>VLOOKUP(A113,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D114" t="b">
+        <f>VLOOKUP(A114,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D115" t="b">
+        <f>VLOOKUP(A115,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>178</v>
+      </c>
+      <c r="B116" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D116" t="b">
+        <f>VLOOKUP(A116,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>178</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D117" t="b">
+        <f>VLOOKUP(A117,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D118" t="b">
+        <f>VLOOKUP(A118,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>182</v>
+      </c>
+      <c r="B119" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D119" t="b">
+        <f>VLOOKUP(A119,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D120" t="b">
+        <f>VLOOKUP(A120,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>182</v>
+      </c>
+      <c r="B121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D121" t="b">
+        <f>VLOOKUP(A121,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D122" t="b">
+        <f>VLOOKUP(A122,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>182</v>
+      </c>
+      <c r="B123" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C123" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D123" t="b">
+        <f>VLOOKUP(A123,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>182</v>
+      </c>
+      <c r="B124" t="s">
+        <v>105</v>
+      </c>
+      <c r="C124" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D124" t="b">
+        <f>VLOOKUP(A124,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D125" t="b">
+        <f>VLOOKUP(A125,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D126" t="b">
+        <f>VLOOKUP(A126,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D127" t="b">
+        <f>VLOOKUP(A127,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D128" t="b">
+        <f>VLOOKUP(A128,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D129" t="b">
+        <f>VLOOKUP(A129,Módulos!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" t="s">
+        <v>187</v>
+      </c>
+      <c r="C130" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D130" t="b">
+        <f>VLOOKUP(A130,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>188</v>
+      </c>
+      <c r="B131" t="s">
+        <v>189</v>
+      </c>
+      <c r="C131" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D131" t="b">
+        <f>VLOOKUP(A131,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D132" t="b">
+        <f>VLOOKUP(A132,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D133" t="b">
+        <f>VLOOKUP(A133,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>193</v>
+      </c>
+      <c r="B134" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D134" t="b">
+        <f>VLOOKUP(A134,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>193</v>
+      </c>
+      <c r="B135" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D135" t="b">
+        <f>VLOOKUP(A135,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>193</v>
+      </c>
+      <c r="B136" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D136" t="b">
+        <f>VLOOKUP(A136,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>193</v>
+      </c>
+      <c r="B137" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D137" t="b">
+        <f>VLOOKUP(A137,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>193</v>
+      </c>
+      <c r="B138" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D138" t="b">
+        <f>VLOOKUP(A138,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D139" t="b">
+        <f>VLOOKUP(A139,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D140" t="b">
+        <f>VLOOKUP(A140,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" t="s">
         <v>103</v>
       </c>
-      <c r="C15" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C141" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D141" t="b">
+        <f>VLOOKUP(A141,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" t="s">
         <v>107</v>
       </c>
-      <c r="C17" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C142" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D142" t="b">
+        <f>VLOOKUP(A142,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D143" t="b">
+        <f>VLOOKUP(A143,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>200</v>
+      </c>
+      <c r="B144" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D144" t="b">
+        <f>VLOOKUP(A144,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D145" t="b">
+        <f>VLOOKUP(A145,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D146" t="b">
+        <f>VLOOKUP(A146,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" t="s">
+        <v>203</v>
+      </c>
+      <c r="C147" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D147" t="b">
+        <f>VLOOKUP(A147,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>205</v>
+      </c>
+      <c r="B148" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D148" t="b">
+        <f>VLOOKUP(A148,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>205</v>
+      </c>
+      <c r="B149" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D149" t="b">
+        <f>VLOOKUP(A149,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B150" t="s">
+        <v>210</v>
+      </c>
+      <c r="C150" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D150" t="b">
+        <f>VLOOKUP(A150,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>209</v>
+      </c>
+      <c r="B151" t="s">
+        <v>211</v>
+      </c>
+      <c r="C151" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D151" t="b">
+        <f>VLOOKUP(A151,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>209</v>
+      </c>
+      <c r="B152" t="s">
+        <v>208</v>
+      </c>
+      <c r="C152" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D152" t="b">
+        <f>VLOOKUP(A152,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153" t="s">
+        <v>212</v>
+      </c>
+      <c r="C153" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D153" t="b">
+        <f>VLOOKUP(A153,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>217</v>
+      </c>
+      <c r="B154" t="s">
+        <v>213</v>
+      </c>
+      <c r="C154" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D154" t="b">
+        <f>VLOOKUP(A154,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>217</v>
+      </c>
+      <c r="B155" t="s">
+        <v>214</v>
+      </c>
+      <c r="C155" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D155" t="b">
+        <f>VLOOKUP(A155,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>217</v>
+      </c>
+      <c r="B156" t="s">
+        <v>215</v>
+      </c>
+      <c r="C156" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D156" t="b">
+        <f>VLOOKUP(A156,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D157" t="b">
+        <f>VLOOKUP(A157,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158" t="s">
+        <v>177</v>
+      </c>
+      <c r="C158" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D158" t="b">
+        <f>VLOOKUP(A158,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D159" t="b">
+        <f>VLOOKUP(A159,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>217</v>
+      </c>
+      <c r="B160" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D160" t="b">
+        <f>VLOOKUP(A160,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>217</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D161" t="b">
+        <f>VLOOKUP(A161,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>217</v>
+      </c>
+      <c r="B162" t="s">
+        <v>220</v>
+      </c>
+      <c r="C162" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D162" t="b">
+        <f>VLOOKUP(A162,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>217</v>
+      </c>
+      <c r="B163" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D163" t="b">
+        <f>VLOOKUP(A163,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>221</v>
+      </c>
+      <c r="B164" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D164" t="b">
+        <f>VLOOKUP(A164,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>221</v>
+      </c>
+      <c r="B165" t="s">
+        <v>222</v>
+      </c>
+      <c r="C165" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D165" t="b">
+        <f>VLOOKUP(A165,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>221</v>
+      </c>
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D166" t="b">
+        <f>VLOOKUP(A166,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>221</v>
+      </c>
+      <c r="B167" t="s">
+        <v>223</v>
+      </c>
+      <c r="C167" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D167" t="b">
+        <f>VLOOKUP(A167,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>221</v>
+      </c>
+      <c r="B168" t="s">
+        <v>224</v>
+      </c>
+      <c r="C168" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D168" t="b">
+        <f>VLOOKUP(A168,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>119</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B169" t="s">
+        <v>128</v>
+      </c>
+      <c r="C169" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D169" t="b">
+        <f>VLOOKUP(A169,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>119</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B170" t="s">
+        <v>236</v>
+      </c>
+      <c r="C170" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D170" t="b">
+        <f>VLOOKUP(A170,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>119</v>
       </c>
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B171" t="s">
+        <v>237</v>
+      </c>
+      <c r="C171" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D171" t="b">
+        <f>VLOOKUP(A171,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>119</v>
       </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B172" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D172" t="b">
+        <f>VLOOKUP(A172,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>119</v>
       </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B173" t="s">
+        <v>239</v>
+      </c>
+      <c r="C173" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D173" t="b">
+        <f>VLOOKUP(A173,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B174" t="s">
+        <v>227</v>
+      </c>
+      <c r="C174" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D174" t="b">
+        <f>VLOOKUP(A174,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>119</v>
       </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B175" t="s">
+        <v>232</v>
+      </c>
+      <c r="C175" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D175" t="b">
+        <f>VLOOKUP(A175,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>119</v>
       </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>161</v>
-      </c>
-      <c r="B70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>169</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>169</v>
-      </c>
-      <c r="B90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>173</v>
-      </c>
-      <c r="B92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>173</v>
-      </c>
-      <c r="B93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>173</v>
-      </c>
-      <c r="B96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>173</v>
-      </c>
-      <c r="B100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>173</v>
-      </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>173</v>
-      </c>
-      <c r="B103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>173</v>
-      </c>
-      <c r="B104" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>173</v>
-      </c>
-      <c r="B105" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>173</v>
-      </c>
-      <c r="B107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>173</v>
-      </c>
-      <c r="B108" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>182</v>
-      </c>
-      <c r="B110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>182</v>
-      </c>
-      <c r="B111" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>182</v>
-      </c>
-      <c r="B112" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>182</v>
-      </c>
-      <c r="B113" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>182</v>
-      </c>
-      <c r="B114" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>182</v>
-      </c>
-      <c r="B115" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>182</v>
-      </c>
-      <c r="B116" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>182</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>186</v>
-      </c>
-      <c r="B118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>186</v>
-      </c>
-      <c r="B119" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>186</v>
-      </c>
-      <c r="B120" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>186</v>
-      </c>
-      <c r="B121" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>186</v>
-      </c>
-      <c r="B122" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>186</v>
-      </c>
-      <c r="B123" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>186</v>
-      </c>
-      <c r="B124" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>186</v>
-      </c>
-      <c r="B125" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>186</v>
-      </c>
-      <c r="B126" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>186</v>
-      </c>
-      <c r="B127" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>186</v>
-      </c>
-      <c r="B128" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>186</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>192</v>
-      </c>
-      <c r="B130" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>192</v>
-      </c>
-      <c r="B131" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>192</v>
-      </c>
-      <c r="B132" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>197</v>
-      </c>
-      <c r="B133" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>197</v>
-      </c>
-      <c r="B134" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>197</v>
-      </c>
-      <c r="B135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>197</v>
-      </c>
-      <c r="B136" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>197</v>
-      </c>
-      <c r="B137" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>197</v>
-      </c>
-      <c r="B138" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>204</v>
-      </c>
-      <c r="B139" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>204</v>
-      </c>
-      <c r="B140" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>204</v>
-      </c>
-      <c r="B141" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>204</v>
-      </c>
-      <c r="B142" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>204</v>
-      </c>
-      <c r="B143" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>204</v>
-      </c>
-      <c r="B144" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>204</v>
-      </c>
-      <c r="B145" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>204</v>
-      </c>
-      <c r="B146" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>204</v>
-      </c>
-      <c r="B147" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>209</v>
-      </c>
-      <c r="B148" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>209</v>
-      </c>
-      <c r="B149" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>213</v>
-      </c>
-      <c r="B150" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>213</v>
-      </c>
-      <c r="B151" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>213</v>
-      </c>
-      <c r="B152" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>221</v>
-      </c>
-      <c r="B153" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>221</v>
-      </c>
-      <c r="B154" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>221</v>
-      </c>
-      <c r="B155" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>221</v>
-      </c>
-      <c r="B156" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>221</v>
-      </c>
-      <c r="B157" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>221</v>
-      </c>
-      <c r="B158" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>221</v>
-      </c>
-      <c r="B159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>221</v>
-      </c>
-      <c r="B160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>221</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>221</v>
-      </c>
-      <c r="B162" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>221</v>
-      </c>
-      <c r="B163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>225</v>
-      </c>
-      <c r="B164" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>225</v>
-      </c>
-      <c r="B165" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>225</v>
-      </c>
-      <c r="B166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>225</v>
-      </c>
-      <c r="B167" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>225</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="B176" t="s">
+        <v>233</v>
+      </c>
+      <c r="C176" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D176" t="b">
+        <f>VLOOKUP(A176,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>119</v>
+      </c>
+      <c r="B177" t="s">
+        <v>234</v>
+      </c>
+      <c r="C177" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D177" t="b">
+        <f>VLOOKUP(A177,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>119</v>
+      </c>
+      <c r="B178" t="s">
+        <v>235</v>
+      </c>
+      <c r="C178" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D178" t="b">
+        <f>VLOOKUP(A178,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>119</v>
+      </c>
+      <c r="B179" t="s">
+        <v>125</v>
+      </c>
+      <c r="C179" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D179" t="b">
+        <f>VLOOKUP(A179,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>123</v>
-      </c>
-      <c r="B169" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>123</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="C180" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D180" t="b">
+        <f>VLOOKUP(A180,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>119</v>
+      </c>
+      <c r="B181" t="s">
+        <v>229</v>
+      </c>
+      <c r="C181" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D181" t="b">
+        <f>VLOOKUP(A181,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>119</v>
+      </c>
+      <c r="B182" t="s">
+        <v>230</v>
+      </c>
+      <c r="C182" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D182" t="b">
+        <f>VLOOKUP(A182,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>119</v>
+      </c>
+      <c r="B183" t="s">
+        <v>231</v>
+      </c>
+      <c r="C183" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D183" t="b">
+        <f>VLOOKUP(A183,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>119</v>
+      </c>
+      <c r="B184" t="s">
+        <v>126</v>
+      </c>
+      <c r="C184" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D184" t="b">
+        <f>VLOOKUP(A184,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>119</v>
+      </c>
+      <c r="B185" t="s">
+        <v>127</v>
+      </c>
+      <c r="C185" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D185" t="b">
+        <f>VLOOKUP(A185,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>119</v>
+      </c>
+      <c r="B186" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>123</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="C186" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D186" t="b">
+        <f>VLOOKUP(A186,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>119</v>
+      </c>
+      <c r="B187" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>123</v>
-      </c>
-      <c r="B172" t="s">
+      <c r="C187" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D187" t="b">
+        <f>VLOOKUP(A187,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>119</v>
+      </c>
+      <c r="B188" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>123</v>
-      </c>
-      <c r="B173" t="s">
+      <c r="C188" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D188" t="b">
+        <f>VLOOKUP(A188,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>119</v>
+      </c>
+      <c r="B189" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>123</v>
-      </c>
-      <c r="B174" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>123</v>
-      </c>
-      <c r="B175" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>123</v>
-      </c>
-      <c r="B176" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>123</v>
-      </c>
-      <c r="B177" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>123</v>
-      </c>
-      <c r="B178" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>123</v>
-      </c>
-      <c r="B179" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>123</v>
-      </c>
-      <c r="B180" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>123</v>
-      </c>
-      <c r="B181" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>123</v>
-      </c>
-      <c r="B182" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>123</v>
-      </c>
-      <c r="B183" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>123</v>
-      </c>
-      <c r="B184" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>123</v>
-      </c>
-      <c r="B185" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>123</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="C189" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D189" t="b">
+        <f>VLOOKUP(A189,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>119</v>
+      </c>
+      <c r="B190" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>123</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="C190" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D190" t="b">
+        <f>VLOOKUP(A190,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>119</v>
+      </c>
+      <c r="B191" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>123</v>
-      </c>
-      <c r="B188" t="s">
+      <c r="C191" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D191" t="b">
+        <f>VLOOKUP(A191,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>119</v>
+      </c>
+      <c r="B192" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>123</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="C192" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D192" t="b">
+        <f>VLOOKUP(A192,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>119</v>
+      </c>
+      <c r="B193" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>123</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="C193" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D193" t="b">
+        <f>VLOOKUP(A193,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>119</v>
+      </c>
+      <c r="B194" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>123</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="C194" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D194" t="b">
+        <f>VLOOKUP(A194,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>119</v>
+      </c>
+      <c r="B195" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>123</v>
-      </c>
-      <c r="B192" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>123</v>
-      </c>
-      <c r="B193" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>123</v>
-      </c>
-      <c r="B194" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>123</v>
-      </c>
-      <c r="B195" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D195" t="b">
+        <f>VLOOKUP(A195,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="C196" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D196" t="b">
+        <f>VLOOKUP(A196,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B197" t="s">
+        <v>267</v>
+      </c>
+      <c r="C197" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D197" t="b">
+        <f>VLOOKUP(A197,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>265</v>
+      </c>
+      <c r="B198" t="s">
+        <v>96</v>
+      </c>
+      <c r="C198" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D198" t="b">
+        <f>VLOOKUP(A198,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>265</v>
+      </c>
+      <c r="B199" t="s">
+        <v>97</v>
+      </c>
+      <c r="C199" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D199" t="b">
+        <f>VLOOKUP(A199,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>265</v>
+      </c>
+      <c r="B200" t="s">
+        <v>94</v>
+      </c>
+      <c r="C200" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D200" t="b">
+        <f>VLOOKUP(A200,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>265</v>
+      </c>
+      <c r="B201" t="s">
+        <v>95</v>
+      </c>
+      <c r="C201" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D201" t="b">
+        <f>VLOOKUP(A201,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>265</v>
+      </c>
+      <c r="B202" t="s">
+        <v>268</v>
+      </c>
+      <c r="C202" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D202" t="b">
+        <f>VLOOKUP(A202,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>273</v>
+      </c>
+      <c r="B203" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>269</v>
-      </c>
-      <c r="B198" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>269</v>
-      </c>
-      <c r="B199" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>269</v>
-      </c>
-      <c r="B200" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>269</v>
-      </c>
-      <c r="B201" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>269</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="C203" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D203" t="b">
+        <f>VLOOKUP(A203,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>273</v>
+      </c>
+      <c r="B204" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>277</v>
-      </c>
-      <c r="B203" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>277</v>
-      </c>
-      <c r="B204" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D204" t="b">
+        <f>VLOOKUP(A204,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B205" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="C205" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D205" t="b">
+        <f>VLOOKUP(A205,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B206" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="C206" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D206" t="b">
+        <f>VLOOKUP(A206,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B207" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="C207" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D207" t="b">
+        <f>VLOOKUP(A207,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D207" xr:uid="{0A5D5554-6CAA-46ED-B4AB-68D7DD4DD734}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A637D1-2310-439A-BD02-4B96D1435E85}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B24" xr:uid="{955D7034-6C13-437D-9C30-BB0846CAC95B}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6140,659 +7914,585 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B24" t="str">
         <f>"NumeroMultas_"&amp;C24</f>
         <v>NumeroMultas_Lei1</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
         <v>138</v>
-      </c>
-      <c r="B32" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
         <v>186</v>
-      </c>
-      <c r="B56" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
         <v>192</v>
-      </c>
-      <c r="B59" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" t="s">
         <v>225</v>
-      </c>
-      <c r="B68" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" t="s">
         <v>269</v>
-      </c>
-      <c r="B70" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4335,9 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4838,7 +4836,7 @@
       </c>
       <c r="D31" t="b">
         <f>VLOOKUP(A31,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4854,7 +4852,7 @@
       </c>
       <c r="D32" t="b">
         <f>VLOOKUP(A32,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4870,7 +4868,7 @@
       </c>
       <c r="D33" t="b">
         <f>VLOOKUP(A33,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4886,7 +4884,7 @@
       </c>
       <c r="D34" t="b">
         <f>VLOOKUP(A34,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4902,7 +4900,7 @@
       </c>
       <c r="D35" t="b">
         <f>VLOOKUP(A35,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4918,7 +4916,7 @@
       </c>
       <c r="D36" t="b">
         <f>VLOOKUP(A36,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4934,7 +4932,7 @@
       </c>
       <c r="D37" t="b">
         <f>VLOOKUP(A37,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4950,7 +4948,7 @@
       </c>
       <c r="D38" t="b">
         <f>VLOOKUP(A38,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4966,7 +4964,7 @@
       </c>
       <c r="D39" t="b">
         <f>VLOOKUP(A39,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,7 +4980,7 @@
       </c>
       <c r="D40" t="b">
         <f>VLOOKUP(A40,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4998,7 +4996,7 @@
       </c>
       <c r="D41" t="b">
         <f>VLOOKUP(A41,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,7 +5012,7 @@
       </c>
       <c r="D42" t="b">
         <f>VLOOKUP(A42,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,7 +5028,7 @@
       </c>
       <c r="D43" t="b">
         <f>VLOOKUP(A43,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5046,7 +5044,7 @@
       </c>
       <c r="D44" t="b">
         <f>VLOOKUP(A44,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5062,7 +5060,7 @@
       </c>
       <c r="D45" t="b">
         <f>VLOOKUP(A45,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,7 +5076,7 @@
       </c>
       <c r="D46" t="b">
         <f>VLOOKUP(A46,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5094,7 +5092,7 @@
       </c>
       <c r="D47" t="b">
         <f>VLOOKUP(A47,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,7 +5108,7 @@
       </c>
       <c r="D48" t="b">
         <f>VLOOKUP(A48,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5126,7 +5124,7 @@
       </c>
       <c r="D49" t="b">
         <f>VLOOKUP(A49,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5142,7 +5140,7 @@
       </c>
       <c r="D50" t="b">
         <f>VLOOKUP(A50,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5158,7 +5156,7 @@
       </c>
       <c r="D51" t="b">
         <f>VLOOKUP(A51,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5174,7 +5172,7 @@
       </c>
       <c r="D52" t="b">
         <f>VLOOKUP(A52,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5190,7 +5188,7 @@
       </c>
       <c r="D53" t="b">
         <f>VLOOKUP(A53,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,7 +5204,7 @@
       </c>
       <c r="D54" t="b">
         <f>VLOOKUP(A54,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5222,7 +5220,7 @@
       </c>
       <c r="D55" t="b">
         <f>VLOOKUP(A55,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,7 +5236,7 @@
       </c>
       <c r="D56" t="b">
         <f>VLOOKUP(A56,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -5254,7 +5252,7 @@
       </c>
       <c r="D57" t="b">
         <f>VLOOKUP(A57,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -5270,7 +5268,7 @@
       </c>
       <c r="D58" t="b">
         <f>VLOOKUP(A58,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -5286,7 +5284,7 @@
       </c>
       <c r="D59" t="b">
         <f>VLOOKUP(A59,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -5302,7 +5300,7 @@
       </c>
       <c r="D60" t="b">
         <f>VLOOKUP(A60,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -5318,7 +5316,7 @@
       </c>
       <c r="D61" t="b">
         <f>VLOOKUP(A61,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -7668,11 +7666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A637D1-2310-439A-BD02-4B96D1435E85}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7725,8 +7725,8 @@
         <v>129</v>
       </c>
       <c r="B6" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7734,8 +7734,8 @@
         <v>134</v>
       </c>
       <c r="B7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Custos!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Funcoes_Inputs!$A$1:$D$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Funcoes_Inputs!$A$1:$D$215</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$2</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
     <definedName name="CategoriaSAT">Configs!$C$2:$C$2</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="286">
   <si>
     <t>Ano</t>
   </si>
@@ -280,18 +280,6 @@
     <t>moda (valor mais provável)</t>
   </si>
   <si>
-    <t>Pev_Tipico</t>
-  </si>
-  <si>
-    <t>Pev_Trajeto</t>
-  </si>
-  <si>
-    <t>Pev_DoenOcup</t>
-  </si>
-  <si>
-    <t>Pev_NRelac</t>
-  </si>
-  <si>
     <t>Funcao</t>
   </si>
   <si>
@@ -313,18 +301,6 @@
     <t>NFaltas</t>
   </si>
   <si>
-    <t>Pev_Afmenor15</t>
-  </si>
-  <si>
-    <t>Pev_Afmaior15</t>
-  </si>
-  <si>
-    <t>Pev_Safast</t>
-  </si>
-  <si>
-    <t>Pev_Obito</t>
-  </si>
-  <si>
     <t>Nev_Afmenor15_Tipico</t>
   </si>
   <si>
@@ -875,6 +851,54 @@
   </si>
   <si>
     <t>Módulo</t>
+  </si>
+  <si>
+    <t>Pev_Safast_Tipico</t>
+  </si>
+  <si>
+    <t>Pev_Safast_Trajeto</t>
+  </si>
+  <si>
+    <t>Pev_Safast_DoenOcup</t>
+  </si>
+  <si>
+    <t>Pev_Safast_NRelac</t>
+  </si>
+  <si>
+    <t>Pev_Obito_Tipico</t>
+  </si>
+  <si>
+    <t>Pev_Obito_Trajeto</t>
+  </si>
+  <si>
+    <t>Pev_Obito_DoenOcup</t>
+  </si>
+  <si>
+    <t>Pev_Obito_NRelac</t>
+  </si>
+  <si>
+    <t>Pev_Afmenor15_Tipico</t>
+  </si>
+  <si>
+    <t>Pev_Afmenor15_Trajeto</t>
+  </si>
+  <si>
+    <t>Pev_Afmenor15_DoenOcup</t>
+  </si>
+  <si>
+    <t>Pev_Afmenor15_NRelac</t>
+  </si>
+  <si>
+    <t>Pev_Afmaior15_Tipico</t>
+  </si>
+  <si>
+    <t>Pev_Afmaior15_Trajeto</t>
+  </si>
+  <si>
+    <t>Pev_Afmaior15_DoenOcup</t>
+  </si>
+  <si>
+    <t>Pev_Afmaior15_NRelac</t>
   </si>
 </sst>
 </file>
@@ -911,18 +935,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -964,7 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -973,6 +990,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1475,22 +1493,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -1784,148 +1802,148 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
         <v>175</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>176</v>
       </c>
-      <c r="S1" t="s">
-        <v>177</v>
-      </c>
-      <c r="T1" t="s">
-        <v>183</v>
-      </c>
-      <c r="U1" t="s">
-        <v>184</v>
-      </c>
       <c r="V1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="W1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="X1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Y1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Z1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF1" t="s">
         <v>208</v>
       </c>
-      <c r="AA1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>214</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>215</v>
       </c>
-      <c r="AF1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>223</v>
-      </c>
       <c r="AI1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>240</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AR1" t="s">
         <v>241</v>
       </c>
-      <c r="AK1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AS1" t="s">
         <v>243</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AT1" t="s">
         <v>244</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AU1" t="s">
         <v>245</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AV1" t="s">
         <v>246</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AW1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY1" t="s">
         <v>247</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AZ1" t="s">
         <v>249</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BA1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BB1" t="s">
         <v>251</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
@@ -1944,10 +1962,10 @@
         <f>CategoriaSAT</f>
         <v>3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>8</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>15</v>
       </c>
       <c r="G2">
@@ -1974,22 +1992,22 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="S2">
         <v>0.1</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="14">
         <v>10</v>
       </c>
       <c r="U2">
@@ -2111,10 +2129,10 @@
         <f t="shared" ref="D3" si="2">CategoriaSAT</f>
         <v>3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>8</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>15</v>
       </c>
       <c r="G3">
@@ -2147,22 +2165,22 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="S3">
         <v>0.1</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="14">
         <v>10</v>
       </c>
       <c r="U3">
@@ -2270,18 +2288,18 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C5" s="6"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C6" s="6"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
@@ -2327,25 +2345,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I1" t="str">
         <f>"CustoMedio_"&amp;B1</f>
@@ -2364,10 +2382,10 @@
         <v>CustoMedio_NB_94</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="N1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2387,28 +2405,28 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>213</v>
       </c>
       <c r="G2">
         <v>12628104.869999999</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>0.26</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>50000</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>50000</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>50000</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>50000</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <f>I2*B2+C2*J2+D2*K2+E2*L2</f>
         <v>200000</v>
       </c>
@@ -2433,28 +2451,28 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>213</v>
       </c>
       <c r="G3">
         <v>12628104.869999999</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>0.26</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>50000</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>50000</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <v>50000</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <v>50000</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <f>I3*B3+C3*J3+D3*K3+E3*L3</f>
         <v>250000</v>
       </c>
@@ -2661,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,74 +2719,73 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>79</v>
+      <c r="A2" t="s">
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
       <c r="C2">
-        <v>5.0000000000000001E-3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <f>C2*0.01</f>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+        <f t="shared" ref="D2:D16" si="0">C2*0.01</f>
+        <v>0.05</v>
+      </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3">
-        <v>5.0000000000000001E-3</v>
+        <f>C2-1</f>
+        <v>4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D32" si="0">C3*0.01</f>
-        <v>5.0000000000000002E-5</v>
+        <f t="shared" si="0"/>
+        <v>0.04</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4">
-        <v>5.0000000000000001E-3</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>5.0000000000000002E-5</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5">
-        <v>5.0000000000000001E-3</v>
+        <v>1000</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>5.0000000000000002E-5</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -2776,7 +2793,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -2794,35 +2811,35 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2830,25 +2847,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -2865,133 +2882,126 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>79</v>
+      <c r="A11" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
       </c>
       <c r="C11">
-        <f>C2-0.002</f>
-        <v>3.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+        <v>1E-3</v>
+      </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>80</v>
+      <c r="A12" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C14" si="1">C3-0.002</f>
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>81</v>
+      <c r="A13" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>82</v>
+      <c r="A14" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2500</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-5</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>88</v>
+      <c r="A15" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
       <c r="C15">
-        <f>C6-1</f>
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>90</v>
+      <c r="A16" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>2000</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="C17">
-        <v>0.3</v>
+        <v>2000</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" ref="D17:D18" si="1">C17*0.01</f>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -2999,35 +3009,35 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>2000</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>2000</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <f t="shared" ref="D19:D20" si="2">C19*0.01</f>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -3035,53 +3045,53 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
       </c>
       <c r="C20">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
       </c>
       <c r="C21">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" ref="D21:D22" si="3">C21*0.01</f>
+        <v>1E-3</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -3089,17 +3099,17 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f t="shared" ref="D23:D26" si="4">C23*0.01</f>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -3107,17 +3117,17 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -3125,17 +3135,17 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -3143,17 +3153,17 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
         <v>38</v>
@@ -3161,89 +3171,89 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
       </c>
       <c r="C27">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <f t="shared" ref="D27" si="5">C27*0.01</f>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>154</v>
+      <c r="A28" t="s">
+        <v>199</v>
       </c>
       <c r="B28" t="s">
         <v>66</v>
       </c>
       <c r="C28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <f t="shared" ref="D28:D29" si="6">C28*0.01</f>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>154</v>
+      <c r="A29" t="s">
+        <v>199</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
       <c r="C29">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <f t="shared" si="6"/>
+        <v>0.1</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>159</v>
+      <c r="A30" t="s">
+        <v>202</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
       </c>
       <c r="C30">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" ref="D30:D31" si="7">C30*0.01</f>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>159</v>
+      <c r="A31" t="s">
+        <v>202</v>
       </c>
       <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="C31">
-        <v>2000</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -3251,17 +3261,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
       </c>
       <c r="C32">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="D32:D33" si="8">C32*0.01</f>
+        <v>0.1</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3269,17 +3279,17 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
       </c>
       <c r="C33">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D34" si="2">C33*0.01</f>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>0.1</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -3287,17 +3297,17 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
       </c>
       <c r="C34">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" ref="D34:D36" si="9">C34*0.01</f>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3305,17 +3315,17 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
       </c>
       <c r="C35">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D36" si="3">C35*0.01</f>
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -3323,17 +3333,17 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
       </c>
       <c r="C36">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <f t="shared" si="9"/>
+        <v>0.02</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3341,35 +3351,35 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s">
         <v>66</v>
       </c>
       <c r="C37">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D38" si="4">C37*0.01</f>
-        <v>1E-3</v>
+        <f t="shared" ref="D37:D41" si="10">C37*0.01</f>
+        <v>0.02</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
         <v>66</v>
       </c>
       <c r="C38">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>0.02</v>
       </c>
       <c r="G38" t="s">
         <v>38</v>
@@ -3377,35 +3387,35 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="B39" t="s">
         <v>66</v>
       </c>
       <c r="C39">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D42" si="5">C39*0.01</f>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>0.02</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
         <v>66</v>
       </c>
       <c r="C40">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <f t="shared" si="10"/>
+        <v>0.02</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -3413,35 +3423,35 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>0.1</v>
+        <v>500</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
         <v>66</v>
       </c>
       <c r="C42">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" ref="D42:D56" si="11">C42*0.01</f>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -3449,35 +3459,35 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
         <v>66</v>
       </c>
       <c r="C43">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="6">C43*0.01</f>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
         <v>66</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:D45" si="7">C44*0.01</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="G44" t="s">
         <v>38</v>
@@ -3485,25 +3495,25 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D45">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
         <v>66</v>
@@ -3512,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:D47" si="8">C46*0.01</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G46" t="s">
@@ -3521,35 +3531,35 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
       </c>
       <c r="C47">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000002E-5</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:D49" si="9">C48*0.01</f>
-        <v>0.1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -3557,25 +3567,25 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s">
         <v>66</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
         <v>66</v>
@@ -3584,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D52" si="10">C50*0.01</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G50" t="s">
@@ -3593,17 +3603,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
         <v>66</v>
       </c>
       <c r="C51">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>0.02</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -3611,7 +3621,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -3620,16 +3630,16 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
         <v>66</v>
@@ -3638,16 +3648,16 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:D57" si="11">C53*0.01</f>
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s">
         <v>66</v>
@@ -3660,12 +3670,12 @@
         <v>0.02</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s">
         <v>66</v>
@@ -3678,30 +3688,30 @@
         <v>0.02</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
         <v>66</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D56">
         <f t="shared" si="11"/>
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
         <v>66</v>
@@ -3710,16 +3720,16 @@
         <v>500</v>
       </c>
       <c r="D57">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D57:D60" si="12">C57*0.01</f>
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
@@ -3728,16 +3738,16 @@
         <v>500</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D72" si="12">C58*0.01</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
@@ -3750,12 +3760,12 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
@@ -3768,112 +3778,107 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="D66:D68" si="13">C66*0.01</f>
+        <v>0.1</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -3881,53 +3886,53 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
+        <f t="shared" si="13"/>
+        <v>0.01</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D68">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s">
         <v>66</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
+        <f t="shared" ref="D69:D73" si="14">C69*0.01</f>
+        <v>0.1</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -3935,17 +3940,17 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
         <v>66</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
+        <f t="shared" si="14"/>
+        <v>0.01</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -3953,17 +3958,17 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
         <v>66</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D71">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -3971,53 +3976,53 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
         <v>66</v>
       </c>
       <c r="C72">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>0.02</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
       <c r="C73">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:D76" si="13">C73*0.01</f>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>0.1</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
         <v>66</v>
       </c>
       <c r="C74">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" ref="D74:D76" si="15">C74*0.01</f>
+        <v>0.02</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -4025,17 +4030,17 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
         <v>66</v>
       </c>
       <c r="C75">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>0.1</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -4043,120 +4048,125 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
         <v>66</v>
       </c>
       <c r="C76">
-        <v>500</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D76">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
         <v>66</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <f t="shared" ref="D77:D79" si="16">C77*0.01</f>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s">
         <v>66</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s">
         <v>66</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <f t="shared" ref="D80:D91" si="17">C80*0.01</f>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s">
         <v>66</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B82" t="s">
         <v>66</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D84" si="14">C82*0.01</f>
-        <v>0.1</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -4164,17 +4174,17 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B83" t="s">
         <v>66</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D83">
-        <f t="shared" si="14"/>
-        <v>0.01</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G83" t="s">
         <v>38</v>
@@ -4182,17 +4192,17 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B84" t="s">
         <v>66</v>
       </c>
       <c r="C84">
-        <v>1000</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D84">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G84" t="s">
         <v>38</v>
@@ -4200,71 +4210,71 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B85" t="s">
         <v>66</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85:D89" si="15">C85*0.01</f>
-        <v>0.1</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s">
         <v>66</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D86">
-        <f t="shared" si="15"/>
-        <v>0.01</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s">
         <v>66</v>
       </c>
       <c r="C87">
-        <v>1000</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D87">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B88" t="s">
         <v>66</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D88">
-        <f t="shared" si="15"/>
-        <v>0.02</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -4272,17 +4282,17 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s">
         <v>66</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D89">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G89" t="s">
         <v>38</v>
@@ -4290,42 +4300,330 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s">
         <v>66</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D90">
-        <f t="shared" ref="D90:D91" si="16">C90*0.01</f>
-        <v>0.02</v>
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="17"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ref="D92:D107" si="18">C92*0.01</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>272</v>
       </c>
-      <c r="B91" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91">
-        <v>10</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G94" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>275</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>277</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>282</v>
+      </c>
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>285</v>
+      </c>
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4333,9 +4631,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4347,28 +4647,28 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <f>VLOOKUP(A2,Módulos!A:B,2,FALSE)</f>
@@ -4377,10 +4677,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" t="b">
         <f>TRUE</f>
@@ -4393,10 +4693,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="C4" t="b">
         <f>TRUE</f>
@@ -4409,10 +4709,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE</f>
@@ -4425,10 +4725,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="C6" t="b">
         <f>TRUE</f>
@@ -4441,10 +4741,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="C7" t="b">
         <f>TRUE</f>
@@ -4457,10 +4757,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -4473,10 +4773,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -4489,10 +4789,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -4505,10 +4805,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -4521,14 +4821,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="C12" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <f>VLOOKUP(A12,Módulos!A:B,2,FALSE)</f>
@@ -4537,142 +4837,142 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="C13" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <f>VLOOKUP(A13,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="C14" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <f>VLOOKUP(A14,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="C15" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <f>VLOOKUP(A15,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="C16" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <f>VLOOKUP(A16,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="C17" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <f>VLOOKUP(A17,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="C18" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <f>VLOOKUP(A18,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="C19" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <f>VLOOKUP(A19,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <f>VLOOKUP(A20,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C21" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <f>VLOOKUP(A21,Módulos!A:B,2,FALSE)</f>
@@ -4681,10 +4981,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C22" t="b">
         <f>FALSE</f>
@@ -4697,10 +4997,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C23" t="b">
         <f>FALSE</f>
@@ -4713,10 +5013,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C24" t="b">
         <f>FALSE</f>
@@ -4729,14 +5029,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C25" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <f>VLOOKUP(A25,Módulos!A:B,2,FALSE)</f>
@@ -4745,10 +5045,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C26" t="b">
         <f>FALSE</f>
@@ -4761,10 +5061,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C27" t="b">
         <f>FALSE</f>
@@ -4777,10 +5077,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C28" t="b">
         <f>FALSE</f>
@@ -4793,14 +5093,14 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C29" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <f>VLOOKUP(A29,Módulos!A:B,2,FALSE)</f>
@@ -4809,10 +5109,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <f>FALSE</f>
@@ -4825,10 +5125,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="C31" t="b">
         <f>FALSE</f>
@@ -4841,10 +5141,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="C32" t="b">
         <f>FALSE</f>
@@ -4857,14 +5157,14 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C33" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <f>VLOOKUP(A33,Módulos!A:B,2,FALSE)</f>
@@ -4873,10 +5173,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C34" t="b">
         <f>FALSE</f>
@@ -4889,14 +5189,14 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="C35" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <f>VLOOKUP(A35,Módulos!A:B,2,FALSE)</f>
@@ -4905,14 +5205,14 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="C36" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
         <f>VLOOKUP(A36,Módulos!A:B,2,FALSE)</f>
@@ -4921,14 +5221,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="C37" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
         <f>VLOOKUP(A37,Módulos!A:B,2,FALSE)</f>
@@ -4937,14 +5237,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="C38" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
         <f>VLOOKUP(A38,Módulos!A:B,2,FALSE)</f>
@@ -4953,10 +5253,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C39" t="b">
         <f>FALSE</f>
@@ -4964,15 +5264,15 @@
       </c>
       <c r="D39" t="b">
         <f>VLOOKUP(A39,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C40" t="b">
         <f>FALSE</f>
@@ -4980,15 +5280,15 @@
       </c>
       <c r="D40" t="b">
         <f>VLOOKUP(A40,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C41" t="b">
         <f>FALSE</f>
@@ -4996,15 +5296,15 @@
       </c>
       <c r="D41" t="b">
         <f>VLOOKUP(A41,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C42" t="b">
         <f>FALSE</f>
@@ -5012,79 +5312,79 @@
       </c>
       <c r="D42" t="b">
         <f>VLOOKUP(A42,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="C43" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
         <f>VLOOKUP(A43,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="C44" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
         <f>VLOOKUP(A44,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="C45" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
         <f>VLOOKUP(A45,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="C46" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
         <f>VLOOKUP(A46,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C47" t="b">
         <f>FALSE</f>
@@ -5097,10 +5397,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C48" t="b">
         <f>FALSE</f>
@@ -5113,10 +5413,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C49" t="b">
         <f>FALSE</f>
@@ -5129,10 +5429,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C50" t="b">
         <f>FALSE</f>
@@ -5145,10 +5445,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C51" t="b">
         <f>FALSE</f>
@@ -5161,10 +5461,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C52" t="b">
         <f>FALSE</f>
@@ -5177,10 +5477,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C53" t="b">
         <f>FALSE</f>
@@ -5193,10 +5493,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C54" t="b">
         <f>FALSE</f>
@@ -5209,14 +5509,14 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
       </c>
       <c r="C55" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D55" t="b">
         <f>VLOOKUP(A55,Módulos!A:B,2,FALSE)</f>
@@ -5225,14 +5525,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
       </c>
       <c r="C56" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
         <f>VLOOKUP(A56,Módulos!A:B,2,FALSE)</f>
@@ -5241,14 +5541,14 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
       </c>
       <c r="C57" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
         <f>VLOOKUP(A57,Módulos!A:B,2,FALSE)</f>
@@ -5257,14 +5557,14 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
       </c>
       <c r="C58" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
         <f>VLOOKUP(A58,Módulos!A:B,2,FALSE)</f>
@@ -5273,14 +5573,14 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
       </c>
       <c r="C59" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
         <f>VLOOKUP(A59,Módulos!A:B,2,FALSE)</f>
@@ -5289,14 +5589,14 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
       </c>
       <c r="C60" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
         <f>VLOOKUP(A60,Módulos!A:B,2,FALSE)</f>
@@ -5305,14 +5605,14 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C61" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
         <f>VLOOKUP(A61,Módulos!A:B,2,FALSE)</f>
@@ -5321,26 +5621,26 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>154</v>
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
       </c>
       <c r="C62" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D62" t="b">
         <f>VLOOKUP(A62,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="C63" t="b">
         <f>TRUE</f>
@@ -5348,15 +5648,15 @@
       </c>
       <c r="D63" t="b">
         <f>VLOOKUP(A63,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C64" t="b">
         <f>TRUE</f>
@@ -5364,15 +5664,15 @@
       </c>
       <c r="D64" t="b">
         <f>VLOOKUP(A64,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="C65" t="b">
         <f>TRUE</f>
@@ -5380,15 +5680,15 @@
       </c>
       <c r="D65" t="b">
         <f>VLOOKUP(A65,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C66" t="b">
         <f>TRUE</f>
@@ -5396,67 +5696,67 @@
       </c>
       <c r="D66" t="b">
         <f>VLOOKUP(A66,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" t="s">
-        <v>96</v>
+        <v>126</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C67" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
         <f>VLOOKUP(A67,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" t="s">
-        <v>104</v>
+        <v>126</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
         <f>VLOOKUP(A68,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C69" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D69" t="b">
         <f>VLOOKUP(A69,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" t="s">
-        <v>102</v>
+        <v>145</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="C70" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D70" t="b">
         <f>VLOOKUP(A70,Módulos!A:B,2,FALSE)</f>
@@ -5465,14 +5765,14 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C71" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D71" t="b">
         <f>VLOOKUP(A71,Módulos!A:B,2,FALSE)</f>
@@ -5481,14 +5781,14 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" t="s">
-        <v>103</v>
+        <v>145</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C72" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
         <f>VLOOKUP(A72,Módulos!A:B,2,FALSE)</f>
@@ -5497,10 +5797,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" t="s">
-        <v>161</v>
+        <v>145</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C73" t="b">
         <f>TRUE</f>
@@ -5513,14 +5813,14 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" t="s">
-        <v>96</v>
+        <v>149</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="C74" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D74" t="b">
         <f>VLOOKUP(A74,Módulos!A:B,2,FALSE)</f>
@@ -5529,10 +5829,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C75" t="b">
         <f>FALSE</f>
@@ -5545,10 +5845,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" t="b">
         <f>FALSE</f>
@@ -5561,10 +5861,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C77" t="b">
         <f>FALSE</f>
@@ -5577,7 +5877,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
         <v>94</v>
@@ -5593,10 +5893,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C79" t="b">
         <f>FALSE</f>
@@ -5609,7 +5909,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
         <v>95</v>
@@ -5625,14 +5925,14 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C81" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D81" t="b">
         <f>VLOOKUP(A81,Módulos!A:B,2,FALSE)</f>
@@ -5641,14 +5941,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C82" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D82" t="b">
         <f>VLOOKUP(A82,Módulos!A:B,2,FALSE)</f>
@@ -5657,7 +5957,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
         <v>96</v>
@@ -5673,10 +5973,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C84" t="b">
         <f>FALSE</f>
@@ -5689,7 +5989,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
         <v>97</v>
@@ -5705,10 +6005,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C86" t="b">
         <f>FALSE</f>
@@ -5721,7 +6021,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
         <v>94</v>
@@ -5737,10 +6037,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C88" t="b">
         <f>FALSE</f>
@@ -5753,7 +6053,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
@@ -5769,14 +6069,14 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C90" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
         <f>VLOOKUP(A90,Módulos!A:B,2,FALSE)</f>
@@ -5785,14 +6085,14 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
       </c>
       <c r="C91" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
         <f>VLOOKUP(A91,Módulos!A:B,2,FALSE)</f>
@@ -5801,7 +6101,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
@@ -5817,10 +6117,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C93" t="b">
         <f>FALSE</f>
@@ -5833,10 +6133,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C94" t="b">
         <f>FALSE</f>
@@ -5849,10 +6149,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C95" t="b">
         <f>FALSE</f>
@@ -5865,10 +6165,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C96" t="b">
         <f>FALSE</f>
@@ -5881,10 +6181,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C97" t="b">
         <f>FALSE</f>
@@ -5897,10 +6197,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C98" t="b">
         <f>FALSE</f>
@@ -5913,14 +6213,14 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>169</v>
-      </c>
-      <c r="B99" t="s">
-        <v>109</v>
+        <v>161</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C99" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D99" t="b">
         <f>VLOOKUP(A99,Módulos!A:B,2,FALSE)</f>
@@ -5929,10 +6229,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C100" t="b">
         <f>FALSE</f>
@@ -5945,10 +6245,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C101" t="b">
         <f>FALSE</f>
@@ -5961,10 +6261,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C102" t="b">
         <f>FALSE</f>
@@ -5977,10 +6277,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C103" t="b">
         <f>FALSE</f>
@@ -5993,10 +6293,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C104" t="b">
         <f>FALSE</f>
@@ -6009,10 +6309,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C105" t="b">
         <f>FALSE</f>
@@ -6025,10 +6325,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C106" t="b">
         <f>FALSE</f>
@@ -6041,10 +6341,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C107" t="b">
         <f>FALSE</f>
@@ -6057,10 +6357,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C108" t="b">
         <f>FALSE</f>
@@ -6073,14 +6373,14 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="C109" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D109" t="b">
         <f>VLOOKUP(A109,Módulos!A:B,2,FALSE)</f>
@@ -6089,14 +6389,14 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C110" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D110" t="b">
         <f>VLOOKUP(A110,Módulos!A:B,2,FALSE)</f>
@@ -6105,14 +6405,14 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C111" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D111" t="b">
         <f>VLOOKUP(A111,Módulos!A:B,2,FALSE)</f>
@@ -6121,14 +6421,14 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="C112" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D112" t="b">
         <f>VLOOKUP(A112,Módulos!A:B,2,FALSE)</f>
@@ -6137,14 +6437,14 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B113" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="C113" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D113" t="b">
         <f>VLOOKUP(A113,Módulos!A:B,2,FALSE)</f>
@@ -6153,14 +6453,14 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C114" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D114" t="b">
         <f>VLOOKUP(A114,Módulos!A:B,2,FALSE)</f>
@@ -6169,10 +6469,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="C115" t="b">
         <f>FALSE</f>
@@ -6185,10 +6485,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="C116" t="b">
         <f>FALSE</f>
@@ -6201,10 +6501,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="C117" t="b">
         <f>TRUE</f>
@@ -6217,90 +6517,90 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="C118" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D118" t="b">
         <f>VLOOKUP(A118,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="C119" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D119" t="b">
         <f>VLOOKUP(A119,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C120" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D120" t="b">
         <f>VLOOKUP(A120,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="C121" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D121" t="b">
         <f>VLOOKUP(A121,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C122" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D122" t="b">
         <f>VLOOKUP(A122,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="C123" t="b">
         <f>FALSE</f>
@@ -6308,15 +6608,15 @@
       </c>
       <c r="D123" t="b">
         <f>VLOOKUP(A123,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="C124" t="b">
         <f>FALSE</f>
@@ -6324,31 +6624,31 @@
       </c>
       <c r="D124" t="b">
         <f>VLOOKUP(A124,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C125" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D125" t="b">
         <f>VLOOKUP(A125,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="C126" t="b">
         <f>FALSE</f>
@@ -6361,10 +6661,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="C127" t="b">
         <f>FALSE</f>
@@ -6377,14 +6677,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="C128" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D128" t="b">
         <f>VLOOKUP(A128,Módulos!A:B,2,FALSE)</f>
@@ -6393,14 +6693,14 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C129" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D129" t="b">
         <f>VLOOKUP(A129,Módulos!A:B,2,FALSE)</f>
@@ -6409,10 +6709,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="C130" t="b">
         <f>FALSE</f>
@@ -6420,31 +6720,31 @@
       </c>
       <c r="D130" t="b">
         <f>VLOOKUP(A130,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B131" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="C131" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D131" t="b">
         <f>VLOOKUP(A131,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B132" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="C132" t="b">
         <f>FALSE</f>
@@ -6452,63 +6752,63 @@
       </c>
       <c r="D132" t="b">
         <f>VLOOKUP(A132,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="C133" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D133" t="b">
         <f>VLOOKUP(A133,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C134" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D134" t="b">
         <f>VLOOKUP(A134,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C135" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D135" t="b">
         <f>VLOOKUP(A135,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B136" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C136" t="b">
         <f>TRUE</f>
@@ -6516,31 +6816,31 @@
       </c>
       <c r="D136" t="b">
         <f>VLOOKUP(A136,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="C137" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D137" t="b">
         <f>VLOOKUP(A137,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B138" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C138" t="b">
         <f>FALSE</f>
@@ -6553,14 +6853,14 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B139" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="C139" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D139" t="b">
         <f>VLOOKUP(A139,Módulos!A:B,2,FALSE)</f>
@@ -6569,10 +6869,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B140" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C140" t="b">
         <f>FALSE</f>
@@ -6585,14 +6885,14 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="C141" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D141" t="b">
         <f>VLOOKUP(A141,Módulos!A:B,2,FALSE)</f>
@@ -6601,14 +6901,14 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="C142" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D142" t="b">
         <f>VLOOKUP(A142,Módulos!A:B,2,FALSE)</f>
@@ -6617,14 +6917,14 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="C143" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D143" t="b">
         <f>VLOOKUP(A143,Módulos!A:B,2,FALSE)</f>
@@ -6633,14 +6933,14 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C144" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D144" t="b">
         <f>VLOOKUP(A144,Módulos!A:B,2,FALSE)</f>
@@ -6649,10 +6949,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="C145" t="b">
         <f>FALSE</f>
@@ -6665,10 +6965,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C146" t="b">
         <f>FALSE</f>
@@ -6681,14 +6981,14 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C147" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D147" t="b">
         <f>VLOOKUP(A147,Módulos!A:B,2,FALSE)</f>
@@ -6697,14 +6997,14 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B148" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="C148" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D148" t="b">
         <f>VLOOKUP(A148,Módulos!A:B,2,FALSE)</f>
@@ -6713,14 +7013,14 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="C149" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D149" t="b">
         <f>VLOOKUP(A149,Módulos!A:B,2,FALSE)</f>
@@ -6729,14 +7029,14 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B150" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="C150" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D150" t="b">
         <f>VLOOKUP(A150,Módulos!A:B,2,FALSE)</f>
@@ -6745,14 +7045,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B151" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C151" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D151" t="b">
         <f>VLOOKUP(A151,Módulos!A:B,2,FALSE)</f>
@@ -6761,14 +7061,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="C152" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D152" t="b">
         <f>VLOOKUP(A152,Módulos!A:B,2,FALSE)</f>
@@ -6777,14 +7077,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="C153" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D153" t="b">
         <f>VLOOKUP(A153,Módulos!A:B,2,FALSE)</f>
@@ -6793,14 +7093,14 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="C154" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D154" t="b">
         <f>VLOOKUP(A154,Módulos!A:B,2,FALSE)</f>
@@ -6809,10 +7109,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C155" t="b">
         <f>TRUE</f>
@@ -6825,10 +7125,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C156" t="b">
         <f>TRUE</f>
@@ -6841,10 +7141,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C157" t="b">
         <f>TRUE</f>
@@ -6857,10 +7157,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C158" t="b">
         <f>TRUE</f>
@@ -6873,14 +7173,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C159" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D159" t="b">
         <f>VLOOKUP(A159,Módulos!A:B,2,FALSE)</f>
@@ -6889,14 +7189,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B160" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C160" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D160" t="b">
         <f>VLOOKUP(A160,Módulos!A:B,2,FALSE)</f>
@@ -6905,10 +7205,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B161" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C161" t="b">
         <f>TRUE</f>
@@ -6921,10 +7221,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C162" t="b">
         <f>TRUE</f>
@@ -6937,14 +7237,14 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C163" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D163" t="b">
         <f>VLOOKUP(A163,Módulos!A:B,2,FALSE)</f>
@@ -6953,14 +7253,14 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C164" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D164" t="b">
         <f>VLOOKUP(A164,Módulos!A:B,2,FALSE)</f>
@@ -6969,10 +7269,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B165" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C165" t="b">
         <f>TRUE</f>
@@ -6985,14 +7285,14 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C166" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D166" t="b">
         <f>VLOOKUP(A166,Módulos!A:B,2,FALSE)</f>
@@ -7001,14 +7301,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B167" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="C167" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D167" t="b">
         <f>VLOOKUP(A167,Módulos!A:B,2,FALSE)</f>
@@ -7017,14 +7317,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B168" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="C168" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D168" t="b">
         <f>VLOOKUP(A168,Módulos!A:B,2,FALSE)</f>
@@ -7033,10 +7333,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B169" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="C169" t="b">
         <f>TRUE</f>
@@ -7049,10 +7349,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C170" t="b">
         <f>TRUE</f>
@@ -7065,14 +7365,14 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="C171" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D171" t="b">
         <f>VLOOKUP(A171,Módulos!A:B,2,FALSE)</f>
@@ -7081,14 +7381,14 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="C172" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D172" t="b">
         <f>VLOOKUP(A172,Módulos!A:B,2,FALSE)</f>
@@ -7097,10 +7397,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C173" t="b">
         <f>TRUE</f>
@@ -7113,14 +7413,14 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="C174" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D174" t="b">
         <f>VLOOKUP(A174,Módulos!A:B,2,FALSE)</f>
@@ -7129,10 +7429,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="B175" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C175" t="b">
         <f>TRUE</f>
@@ -7145,10 +7445,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="B176" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C176" t="b">
         <f>TRUE</f>
@@ -7161,10 +7461,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B177" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="C177" t="b">
         <f>TRUE</f>
@@ -7177,10 +7477,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B178" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C178" t="b">
         <f>TRUE</f>
@@ -7193,10 +7493,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B179" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="C179" t="b">
         <f>TRUE</f>
@@ -7209,10 +7509,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B180" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C180" t="b">
         <f>TRUE</f>
@@ -7225,10 +7525,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B181" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C181" t="b">
         <f>TRUE</f>
@@ -7241,10 +7541,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B182" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C182" t="b">
         <f>TRUE</f>
@@ -7257,10 +7557,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B183" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C183" t="b">
         <f>TRUE</f>
@@ -7273,10 +7573,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B184" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="C184" t="b">
         <f>TRUE</f>
@@ -7289,10 +7589,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B185" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="C185" t="b">
         <f>TRUE</f>
@@ -7305,10 +7605,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B186" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C186" t="b">
         <f>TRUE</f>
@@ -7321,10 +7621,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B187" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="C187" t="b">
         <f>TRUE</f>
@@ -7337,10 +7637,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B188" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C188" t="b">
         <f>TRUE</f>
@@ -7353,10 +7653,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B189" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C189" t="b">
         <f>TRUE</f>
@@ -7369,10 +7669,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C190" t="b">
         <f>TRUE</f>
@@ -7385,10 +7685,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B191" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C191" t="b">
         <f>TRUE</f>
@@ -7401,10 +7701,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B192" t="s">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="C192" t="b">
         <f>TRUE</f>
@@ -7417,10 +7717,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>111</v>
+      </c>
+      <c r="B193" t="s">
         <v>119</v>
-      </c>
-      <c r="B193" t="s">
-        <v>247</v>
       </c>
       <c r="C193" t="b">
         <f>TRUE</f>
@@ -7433,10 +7733,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B194" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C194" t="b">
         <f>TRUE</f>
@@ -7449,10 +7749,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B195" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C195" t="b">
         <f>TRUE</f>
@@ -7465,10 +7765,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B196" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="C196" t="b">
         <f>TRUE</f>
@@ -7481,10 +7781,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="C197" t="b">
         <f>TRUE</f>
@@ -7497,14 +7797,14 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B198" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="C198" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D198" t="b">
         <f>VLOOKUP(A198,Módulos!A:B,2,FALSE)</f>
@@ -7513,14 +7813,14 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B199" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="C199" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D199" t="b">
         <f>VLOOKUP(A199,Módulos!A:B,2,FALSE)</f>
@@ -7529,14 +7829,14 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B200" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="C200" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D200" t="b">
         <f>VLOOKUP(A200,Módulos!A:B,2,FALSE)</f>
@@ -7545,14 +7845,14 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B201" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="C201" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D201" t="b">
         <f>VLOOKUP(A201,Módulos!A:B,2,FALSE)</f>
@@ -7561,10 +7861,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B202" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C202" t="b">
         <f>TRUE</f>
@@ -7577,10 +7877,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="B203" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C203" t="b">
         <f>TRUE</f>
@@ -7593,10 +7893,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B204" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C204" t="b">
         <f>TRUE</f>
@@ -7609,10 +7909,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B205" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C205" t="b">
         <f>TRUE</f>
@@ -7625,14 +7925,14 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B206" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C206" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D206" t="b">
         <f>VLOOKUP(A206,Módulos!A:B,2,FALSE)</f>
@@ -7641,22 +7941,150 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B207" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C207" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D207" t="b">
         <f>VLOOKUP(A207,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>257</v>
+      </c>
+      <c r="B208" t="s">
+        <v>86</v>
+      </c>
+      <c r="C208" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D208" t="b">
+        <f>VLOOKUP(A208,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>257</v>
+      </c>
+      <c r="B209" t="s">
+        <v>87</v>
+      </c>
+      <c r="C209" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D209" t="b">
+        <f>VLOOKUP(A209,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>257</v>
+      </c>
+      <c r="B210" t="s">
+        <v>260</v>
+      </c>
+      <c r="C210" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D210" t="b">
+        <f>VLOOKUP(A210,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211" t="s">
+        <v>263</v>
+      </c>
+      <c r="C211" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D211" t="b">
+        <f>VLOOKUP(A211,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>265</v>
+      </c>
+      <c r="B212" t="s">
+        <v>264</v>
+      </c>
+      <c r="C212" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D212" t="b">
+        <f>VLOOKUP(A212,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>265</v>
+      </c>
+      <c r="B213" t="s">
+        <v>260</v>
+      </c>
+      <c r="C213" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D213" t="b">
+        <f>VLOOKUP(A213,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>265</v>
+      </c>
+      <c r="B214" t="s">
+        <v>118</v>
+      </c>
+      <c r="C214" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D214" t="b">
+        <f>VLOOKUP(A214,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>265</v>
+      </c>
+      <c r="B215" t="s">
+        <v>119</v>
+      </c>
+      <c r="C215" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D215" t="b">
+        <f>VLOOKUP(A215,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D207" xr:uid="{0A5D5554-6CAA-46ED-B4AB-68D7DD4DD734}"/>
+  <autoFilter ref="A1:D215" xr:uid="{0A5D5554-6CAA-46ED-B4AB-68D7DD4DD734}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7678,15 +8106,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" t="b">
         <f>TRUE</f>
@@ -7695,7 +8123,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B3" t="b">
         <f>TRUE</f>
@@ -7704,7 +8132,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B4" t="b">
         <f>FALSE</f>
@@ -7713,7 +8141,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B5" t="b">
         <f>FALSE</f>
@@ -7722,7 +8150,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B6" t="b">
         <f>FALSE</f>
@@ -7731,7 +8159,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B7" t="b">
         <f>TRUE</f>
@@ -7740,7 +8168,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B8" t="b">
         <f>FALSE</f>
@@ -7749,7 +8177,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B9" t="b">
         <f>FALSE</f>
@@ -7758,7 +8186,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B10" t="b">
         <f>FALSE</f>
@@ -7767,7 +8195,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B11" t="b">
         <f>FALSE</f>
@@ -7776,7 +8204,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B12" t="b">
         <f>FALSE</f>
@@ -7785,7 +8213,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B13" t="b">
         <f>FALSE</f>
@@ -7794,7 +8222,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B14" t="b">
         <f>TRUE</f>
@@ -7803,7 +8231,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B15" t="b">
         <f>FALSE</f>
@@ -7812,7 +8240,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B16" t="b">
         <f>FALSE</f>
@@ -7821,7 +8249,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B17" t="b">
         <f>FALSE</f>
@@ -7830,7 +8258,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B18" t="b">
         <f>FALSE</f>
@@ -7839,7 +8267,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B19" t="b">
         <f>FALSE</f>
@@ -7848,7 +8276,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B20" t="b">
         <f>FALSE</f>
@@ -7857,7 +8285,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B21" t="b">
         <f>FALSE</f>
@@ -7866,7 +8294,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B22" t="b">
         <f>FALSE</f>
@@ -7875,7 +8303,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B23" t="b">
         <f>FALSE</f>
@@ -7884,7 +8312,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B24" t="b">
         <f>FALSE</f>
@@ -7914,10 +8342,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7925,574 +8353,574 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B24" t="str">
         <f>"NumeroMultas_"&amp;C24</f>
         <v>NumeroMultas_Lei1</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Funcoes_Inputs!$A$1:$D$215</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$54</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
     <definedName name="CategoriaSAT">Configs!$C$2:$C$2</definedName>
@@ -157,9 +157,6 @@
     <t>Iniciativa2</t>
   </si>
   <si>
-    <t>SemIniciativa</t>
-  </si>
-  <si>
     <t>NomeInicativa1</t>
   </si>
   <si>
@@ -899,6 +896,9 @@
   </si>
   <si>
     <t>Pev_Afmaior15_NRelac</t>
+  </si>
+  <si>
+    <t>ASIS</t>
   </si>
 </sst>
 </file>
@@ -1425,55 +1425,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1493,22 +1493,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1532,16 +1534,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1549,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10">
         <v>2017</v>
@@ -1563,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10">
         <v>2018</v>
@@ -1574,10 +1576,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="10">
         <v>2017</v>
@@ -1588,10 +1590,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10">
         <v>2018</v>
@@ -1646,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1664,37 +1666,37 @@
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1743,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AW19" sqref="AW19"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -1802,148 +1804,148 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="I1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
         <v>165</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>166</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>167</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>168</v>
       </c>
-      <c r="S1" t="s">
-        <v>169</v>
-      </c>
       <c r="T1" t="s">
+        <v>174</v>
+      </c>
+      <c r="U1" t="s">
         <v>175</v>
       </c>
-      <c r="U1" t="s">
-        <v>176</v>
-      </c>
       <c r="V1" t="s">
+        <v>185</v>
+      </c>
+      <c r="W1" t="s">
         <v>186</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>187</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>188</v>
       </c>
-      <c r="Y1" t="s">
-        <v>189</v>
-      </c>
       <c r="Z1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB1" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>204</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>205</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>206</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>207</v>
       </c>
-      <c r="AF1" t="s">
-        <v>208</v>
-      </c>
       <c r="AG1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH1" t="s">
         <v>214</v>
       </c>
-      <c r="AH1" t="s">
-        <v>215</v>
-      </c>
       <c r="AI1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>232</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>233</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>234</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>235</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>236</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>237</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>238</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>239</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>240</v>
       </c>
-      <c r="AR1" t="s">
-        <v>241</v>
-      </c>
       <c r="AS1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT1" t="s">
         <v>243</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>244</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>245</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY1" t="s">
         <v>246</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>248</v>
       </c>
-      <c r="AX1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>249</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>250</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
@@ -2345,16 +2347,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -2363,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I1" t="str">
         <f>"CustoMedio_"&amp;B1</f>
@@ -2382,10 +2384,10 @@
         <v>CustoMedio_NB_94</v>
       </c>
       <c r="M1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2491,7 +2493,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,18 +2505,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
+      <c r="A2" t="s">
+        <v>285</v>
       </c>
       <c r="B2" t="b">
         <f>TRUE</f>
@@ -2553,7 +2555,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="b">
         <f>FALSE</f>
@@ -2566,7 +2568,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="b">
         <f>FALSE</f>
@@ -2579,7 +2581,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="b">
         <f>FALSE</f>
@@ -2592,7 +2594,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="b">
         <f>FALSE</f>
@@ -2605,7 +2607,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="b">
         <f>FALSE</f>
@@ -2618,7 +2620,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="b">
         <f>FALSE</f>
@@ -2631,7 +2633,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="b">
         <f>FALSE</f>
@@ -2644,7 +2646,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="b">
         <f>FALSE</f>
@@ -2657,7 +2659,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="b">
         <f>FALSE</f>
@@ -2681,9 +2683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2715,977 +2715,976 @@
         <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D16" si="0">C2*0.01</f>
+        <f t="shared" ref="D2:D9" si="0">C2*0.01</f>
         <v>0.05</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <f>C2-1</f>
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>108</v>
+      <c r="A7" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>1E-4</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>125</v>
+      <c r="A8" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>2500</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>125</v>
+      <c r="A9" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>2000</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>2000</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <f t="shared" ref="D10" si="1">C10*0.01</f>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>122</v>
+      <c r="A11" t="s">
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>0.1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D11" si="2">C11*0.01</f>
         <v>1E-3</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>146</v>
+      <c r="A12" t="s">
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>1000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <f t="shared" ref="D12" si="3">C12*0.01</f>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>146</v>
+      <c r="A13" t="s">
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <f t="shared" ref="D13:D14" si="4">C13*0.01</f>
+        <v>1E-3</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>151</v>
+      <c r="A14" t="s">
+        <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>151</v>
+      <c r="A15" t="s">
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="D15" si="5">C15*0.01</f>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>153</v>
+      <c r="A16" t="s">
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="D16" si="6">C16*0.01</f>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D18" si="1">C17*0.01</f>
-        <v>20</v>
+        <f t="shared" ref="D17" si="7">C17*0.01</f>
+        <v>0.1</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" ref="D18:D19" si="8">C18*0.01</f>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D20" si="2">C19*0.01</f>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>0.02</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <f t="shared" ref="D20:D24" si="9">C20*0.01</f>
+        <v>0.02</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D22" si="3">C21*0.01</f>
-        <v>1E-3</v>
+        <f t="shared" si="9"/>
+        <v>0.02</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>0.02</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D26" si="4">C23*0.01</f>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>0.02</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>500</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>500</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <f t="shared" ref="D25:D33" si="10">C25*0.01</f>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27" si="5">C27*0.01</f>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D29" si="6">C28*0.01</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D31" si="7">C30*0.01</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="7"/>
-        <v>5.0000000000000002E-5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D33" si="8">C32*0.01</f>
-        <v>0.1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D36" si="9">C34*0.01</f>
-        <v>0</v>
+        <f t="shared" ref="D34:D36" si="11">C34*0.01</f>
+        <v>0.1</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>0.01</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D36">
-        <f t="shared" si="9"/>
-        <v>0.02</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D41" si="10">C37*0.01</f>
+        <f t="shared" ref="D37:D38" si="12">C37*0.01</f>
         <v>0.02</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <f t="shared" si="10"/>
-        <v>0.02</v>
+        <f t="shared" si="12"/>
+        <v>0.1</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D39">
-        <f t="shared" si="10"/>
-        <v>0.02</v>
+        <f t="shared" ref="D39" si="13">C39*0.01</f>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D40">
-        <f t="shared" si="10"/>
-        <v>0.02</v>
+        <f t="shared" ref="D40:D42" si="14">C40*0.01</f>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41">
-        <v>500</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D41">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42">
-        <v>500</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:D56" si="11">C42*0.01</f>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43">
-        <v>500</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D43">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" ref="D43:D95" si="15">C43*0.01</f>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44">
-        <v>500</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D44">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45">
-        <v>500</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D46">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D47">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D48">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D49">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D50">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D51">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D53">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D54">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
+        <f t="shared" si="15"/>
+        <v>0.03</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -3693,17 +3692,17 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D56">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -3711,17 +3710,17 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D60" si="12">C57*0.01</f>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>0.03</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -3729,17 +3728,17 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -3747,69 +3746,71 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="D59">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>227</v>
+      <c r="A60" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>500</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D60">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>117</v>
+      <c r="A61" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>220</v>
+      <c r="A62" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -3817,16 +3818,17 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -3834,16 +3836,17 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1E-4</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -3851,16 +3854,17 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
@@ -3868,71 +3872,71 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D68" si="13">C66*0.01</f>
-        <v>0.1</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D67">
-        <f t="shared" si="13"/>
-        <v>0.01</v>
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="D68">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>1E-3</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D73" si="14">C69*0.01</f>
-        <v>0.1</v>
+        <f t="shared" si="15"/>
+        <v>1E-3</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -3940,17 +3944,17 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <f t="shared" si="14"/>
-        <v>0.01</v>
+        <f t="shared" si="15"/>
+        <v>0.08</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -3958,17 +3962,17 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D71">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -3976,53 +3980,53 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <f t="shared" si="14"/>
-        <v>0.02</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:D76" si="15">C74*0.01</f>
-        <v>0.02</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -4030,17 +4034,17 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <f t="shared" si="15"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -4048,305 +4052,306 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <f t="shared" si="15"/>
-        <v>5.0000000000000004E-6</v>
+        <v>0.01</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77">
-        <v>5.0000000000000001E-4</v>
+        <v>300</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77:D79" si="16">C77*0.01</f>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78">
-        <v>5.0000000000000001E-4</v>
+        <v>300</v>
       </c>
       <c r="D78">
-        <f t="shared" si="16"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79">
-        <v>5.0000000000000001E-4</v>
+        <v>300</v>
       </c>
       <c r="D79">
-        <f t="shared" si="16"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80">
-        <v>5.0000000000000001E-4</v>
+        <v>300</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:D91" si="17">C80*0.01</f>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81">
-        <v>5.0000000000000001E-4</v>
+        <v>300</v>
       </c>
       <c r="D81">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C85">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87">
-        <v>5.0000000000000001E-4</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>0.08</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88">
-        <v>5.0000000000000001E-4</v>
+        <v>0.5</v>
       </c>
       <c r="D88">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89">
-        <v>5.0000000000000001E-4</v>
+        <v>800</v>
       </c>
       <c r="D89">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>0.01</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C91">
-        <v>5.0000000000000001E-4</v>
+        <v>7</v>
       </c>
       <c r="D91">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C92">
-        <v>5.0000000000000001E-4</v>
+        <f>0.0005/2</f>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92:D107" si="18">C92*0.01</f>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G92" t="s">
         <v>12</v>
@@ -4354,17 +4359,18 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C93">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" ref="C93:C107" si="16">0.0005/2</f>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D93">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
@@ -4372,17 +4378,18 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C94">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D94">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G94" t="s">
         <v>12</v>
@@ -4390,17 +4397,18 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C95">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D95">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="15"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
@@ -4408,17 +4416,18 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C96">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D96">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" ref="D96:D107" si="17">C96*0.01</f>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G96" t="s">
         <v>12</v>
@@ -4426,17 +4435,18 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C97">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D97">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -4444,17 +4454,18 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C98">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D98">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -4462,17 +4473,18 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C99">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D99">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
@@ -4480,17 +4492,18 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D100">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G100" t="s">
         <v>12</v>
@@ -4498,17 +4511,18 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C101">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D101">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
@@ -4516,17 +4530,18 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C102">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D102">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
@@ -4534,17 +4549,18 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C103">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D103">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G103" t="s">
         <v>12</v>
@@ -4552,17 +4568,18 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C104">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D104">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G104" t="s">
         <v>12</v>
@@ -4570,17 +4587,18 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C105">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D105">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G105" t="s">
         <v>12</v>
@@ -4588,17 +4606,18 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C106">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G106" t="s">
         <v>12</v>
@@ -4606,24 +4625,25 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C107">
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D107">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
+        <f t="shared" si="17"/>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G54" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4647,21 +4667,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4677,10 +4697,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
       </c>
       <c r="C3" t="b">
         <f>TRUE</f>
@@ -4693,10 +4713,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" t="b">
         <f>TRUE</f>
@@ -4709,10 +4729,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE</f>
@@ -4725,10 +4745,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" t="b">
         <f>TRUE</f>
@@ -4741,10 +4761,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" t="b">
         <f>TRUE</f>
@@ -4757,10 +4777,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -4773,10 +4793,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -4789,10 +4809,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -4805,10 +4825,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -4821,10 +4841,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" t="b">
         <f>TRUE</f>
@@ -4837,10 +4857,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" t="b">
         <f>TRUE</f>
@@ -4853,10 +4873,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" t="b">
         <f>TRUE</f>
@@ -4869,10 +4889,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" t="b">
         <f>TRUE</f>
@@ -4885,10 +4905,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" t="b">
         <f>TRUE</f>
@@ -4901,10 +4921,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" t="b">
         <f>TRUE</f>
@@ -4917,10 +4937,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" t="b">
         <f>TRUE</f>
@@ -4933,10 +4953,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C19" t="b">
         <f>TRUE</f>
@@ -4949,7 +4969,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -4965,10 +4985,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="b">
         <f>FALSE</f>
@@ -4981,10 +5001,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="b">
         <f>FALSE</f>
@@ -4997,10 +5017,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" t="b">
         <f>FALSE</f>
@@ -5013,10 +5033,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="b">
         <f>FALSE</f>
@@ -5029,10 +5049,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" t="b">
         <f>FALSE</f>
@@ -5045,10 +5065,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" t="b">
         <f>FALSE</f>
@@ -5061,10 +5081,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="b">
         <f>FALSE</f>
@@ -5077,10 +5097,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="b">
         <f>FALSE</f>
@@ -5093,10 +5113,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
         <v>103</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
       </c>
       <c r="C29" t="b">
         <f>TRUE</f>
@@ -5109,7 +5129,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -5125,7 +5145,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -5141,7 +5161,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -5157,10 +5177,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
         <v>107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
       </c>
       <c r="C33" t="b">
         <f>TRUE</f>
@@ -5173,10 +5193,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" t="b">
         <f>FALSE</f>
@@ -5189,10 +5209,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="b">
         <f>FALSE</f>
@@ -5205,10 +5225,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" t="b">
         <f>FALSE</f>
@@ -5221,10 +5241,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" t="b">
         <f>FALSE</f>
@@ -5237,10 +5257,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" t="b">
         <f>FALSE</f>
@@ -5253,10 +5273,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" t="b">
         <f>FALSE</f>
@@ -5269,10 +5289,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" t="b">
         <f>FALSE</f>
@@ -5285,10 +5305,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" t="b">
         <f>FALSE</f>
@@ -5301,10 +5321,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" t="b">
         <f>FALSE</f>
@@ -5317,10 +5337,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C43" t="b">
         <f>TRUE</f>
@@ -5333,10 +5353,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44" t="b">
         <f>TRUE</f>
@@ -5349,10 +5369,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" t="b">
         <f>TRUE</f>
@@ -5365,10 +5385,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C46" t="b">
         <f>TRUE</f>
@@ -5381,10 +5401,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" t="b">
         <f>FALSE</f>
@@ -5397,10 +5417,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" t="b">
         <f>FALSE</f>
@@ -5413,10 +5433,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" t="b">
         <f>FALSE</f>
@@ -5429,10 +5449,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" t="b">
         <f>FALSE</f>
@@ -5445,10 +5465,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" t="b">
         <f>FALSE</f>
@@ -5461,10 +5481,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" t="b">
         <f>FALSE</f>
@@ -5477,10 +5497,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" t="b">
         <f>FALSE</f>
@@ -5493,10 +5513,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" t="b">
         <f>FALSE</f>
@@ -5509,10 +5529,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" t="b">
         <f>FALSE</f>
@@ -5525,10 +5545,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" t="b">
         <f>FALSE</f>
@@ -5541,10 +5561,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" t="b">
         <f>FALSE</f>
@@ -5557,10 +5577,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" t="b">
         <f>FALSE</f>
@@ -5573,10 +5593,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" t="b">
         <f>FALSE</f>
@@ -5589,10 +5609,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" t="b">
         <f>FALSE</f>
@@ -5605,10 +5625,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" t="b">
         <f>FALSE</f>
@@ -5621,10 +5641,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" t="b">
         <f>FALSE</f>
@@ -5637,10 +5657,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" t="b">
         <f>TRUE</f>
@@ -5653,10 +5673,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" t="b">
         <f>TRUE</f>
@@ -5669,10 +5689,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" t="b">
         <f>TRUE</f>
@@ -5685,10 +5705,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" t="b">
         <f>TRUE</f>
@@ -5701,10 +5721,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" t="b">
         <f>TRUE</f>
@@ -5717,10 +5737,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" t="b">
         <f>TRUE</f>
@@ -5733,10 +5753,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" t="b">
         <f>TRUE</f>
@@ -5749,10 +5769,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="C70" t="b">
         <f>TRUE</f>
@@ -5765,7 +5785,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>15</v>
@@ -5781,7 +5801,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>1</v>
@@ -5797,7 +5817,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>16</v>
@@ -5813,10 +5833,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" t="b">
         <f>TRUE</f>
@@ -5829,10 +5849,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" t="b">
         <f>FALSE</f>
@@ -5845,10 +5865,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" t="b">
         <f>FALSE</f>
@@ -5861,10 +5881,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" t="b">
         <f>FALSE</f>
@@ -5877,10 +5897,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" t="b">
         <f>FALSE</f>
@@ -5893,10 +5913,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" t="b">
         <f>FALSE</f>
@@ -5909,10 +5929,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" t="b">
         <f>FALSE</f>
@@ -5925,10 +5945,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" t="b">
         <f>TRUE</f>
@@ -5941,10 +5961,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" t="b">
         <f>FALSE</f>
@@ -5957,10 +5977,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" t="b">
         <f>FALSE</f>
@@ -5973,10 +5993,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" t="b">
         <f>FALSE</f>
@@ -5989,10 +6009,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" t="b">
         <f>FALSE</f>
@@ -6005,10 +6025,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" t="b">
         <f>FALSE</f>
@@ -6021,10 +6041,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" t="b">
         <f>FALSE</f>
@@ -6037,10 +6057,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" t="b">
         <f>FALSE</f>
@@ -6053,10 +6073,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" t="b">
         <f>FALSE</f>
@@ -6069,10 +6089,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" t="s">
         <v>157</v>
-      </c>
-      <c r="B90" t="s">
-        <v>158</v>
       </c>
       <c r="C90" t="b">
         <f>TRUE</f>
@@ -6085,10 +6105,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" t="b">
         <f>FALSE</f>
@@ -6101,10 +6121,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" t="b">
         <f>FALSE</f>
@@ -6117,10 +6137,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" t="b">
         <f>FALSE</f>
@@ -6133,10 +6153,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" t="b">
         <f>FALSE</f>
@@ -6149,10 +6169,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95" t="b">
         <f>FALSE</f>
@@ -6165,10 +6185,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" t="b">
         <f>FALSE</f>
@@ -6181,10 +6201,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" t="b">
         <f>FALSE</f>
@@ -6197,10 +6217,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" t="b">
         <f>FALSE</f>
@@ -6213,7 +6233,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>1</v>
@@ -6229,10 +6249,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" t="b">
         <f>FALSE</f>
@@ -6245,10 +6265,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" t="b">
         <f>FALSE</f>
@@ -6261,10 +6281,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" t="b">
         <f>FALSE</f>
@@ -6277,10 +6297,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" t="b">
         <f>FALSE</f>
@@ -6293,10 +6313,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" t="b">
         <f>FALSE</f>
@@ -6309,10 +6329,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" t="b">
         <f>FALSE</f>
@@ -6325,10 +6345,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C106" t="b">
         <f>FALSE</f>
@@ -6341,10 +6361,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" t="b">
         <f>FALSE</f>
@@ -6357,10 +6377,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C108" t="b">
         <f>FALSE</f>
@@ -6373,10 +6393,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C109" t="b">
         <f>FALSE</f>
@@ -6389,10 +6409,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" t="b">
         <f>FALSE</f>
@@ -6405,10 +6425,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C111" t="b">
         <f>FALSE</f>
@@ -6421,10 +6441,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C112" t="b">
         <f>FALSE</f>
@@ -6437,10 +6457,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" t="b">
         <f>FALSE</f>
@@ -6453,10 +6473,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" t="b">
         <f>FALSE</f>
@@ -6469,10 +6489,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" t="b">
         <f>FALSE</f>
@@ -6485,10 +6505,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C116" t="b">
         <f>FALSE</f>
@@ -6501,10 +6521,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C117" t="b">
         <f>TRUE</f>
@@ -6517,10 +6537,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C118" t="b">
         <f>TRUE</f>
@@ -6533,10 +6553,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C119" t="b">
         <f>TRUE</f>
@@ -6549,10 +6569,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C120" t="b">
         <f>TRUE</f>
@@ -6565,10 +6585,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C121" t="b">
         <f>TRUE</f>
@@ -6581,10 +6601,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C122" t="b">
         <f>TRUE</f>
@@ -6597,10 +6617,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C123" t="b">
         <f>FALSE</f>
@@ -6613,10 +6633,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C124" t="b">
         <f>FALSE</f>
@@ -6629,7 +6649,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
@@ -6645,10 +6665,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C126" t="b">
         <f>FALSE</f>
@@ -6661,10 +6681,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C127" t="b">
         <f>FALSE</f>
@@ -6677,10 +6697,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C128" t="b">
         <f>FALSE</f>
@@ -6693,10 +6713,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C129" t="b">
         <f>FALSE</f>
@@ -6709,10 +6729,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C130" t="b">
         <f>FALSE</f>
@@ -6725,10 +6745,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C131" t="b">
         <f>FALSE</f>
@@ -6741,10 +6761,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C132" t="b">
         <f>FALSE</f>
@@ -6757,10 +6777,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C133" t="b">
         <f>FALSE</f>
@@ -6773,10 +6793,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C134" t="b">
         <f>FALSE</f>
@@ -6789,10 +6809,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" t="s">
         <v>174</v>
-      </c>
-      <c r="B135" t="s">
-        <v>175</v>
       </c>
       <c r="C135" t="b">
         <f>FALSE</f>
@@ -6805,10 +6825,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C136" t="b">
         <f>TRUE</f>
@@ -6821,7 +6841,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137" t="s">
         <v>1</v>
@@ -6837,10 +6857,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C138" t="b">
         <f>FALSE</f>
@@ -6853,10 +6873,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>179</v>
+      </c>
+      <c r="B139" t="s">
         <v>180</v>
-      </c>
-      <c r="B139" t="s">
-        <v>181</v>
       </c>
       <c r="C139" t="b">
         <f>TRUE</f>
@@ -6869,10 +6889,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C140" t="b">
         <f>FALSE</f>
@@ -6885,10 +6905,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" t="s">
         <v>185</v>
-      </c>
-      <c r="B141" t="s">
-        <v>186</v>
       </c>
       <c r="C141" t="b">
         <f>TRUE</f>
@@ -6901,10 +6921,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C142" t="b">
         <f>TRUE</f>
@@ -6917,10 +6937,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C143" t="b">
         <f>TRUE</f>
@@ -6933,10 +6953,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C144" t="b">
         <f>TRUE</f>
@@ -6949,10 +6969,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C145" t="b">
         <f>FALSE</f>
@@ -6965,10 +6985,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B146" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C146" t="b">
         <f>FALSE</f>
@@ -6981,10 +7001,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C147" t="b">
         <f>FALSE</f>
@@ -6997,10 +7017,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B148" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C148" t="b">
         <f>FALSE</f>
@@ -7013,10 +7033,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B149" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C149" t="b">
         <f>FALSE</f>
@@ -7029,10 +7049,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B150" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C150" t="b">
         <f>FALSE</f>
@@ -7045,10 +7065,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C151" t="b">
         <f>FALSE</f>
@@ -7061,10 +7081,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C152" t="b">
         <f>FALSE</f>
@@ -7077,10 +7097,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B153" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C153" t="b">
         <f>FALSE</f>
@@ -7093,10 +7113,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C154" t="b">
         <f>FALSE</f>
@@ -7109,10 +7129,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C155" t="b">
         <f>TRUE</f>
@@ -7125,10 +7145,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C156" t="b">
         <f>TRUE</f>
@@ -7141,10 +7161,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C157" t="b">
         <f>TRUE</f>
@@ -7157,10 +7177,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" t="s">
         <v>201</v>
-      </c>
-      <c r="B158" t="s">
-        <v>202</v>
       </c>
       <c r="C158" t="b">
         <f>TRUE</f>
@@ -7173,10 +7193,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C159" t="b">
         <f>TRUE</f>
@@ -7189,10 +7209,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C160" t="b">
         <f>TRUE</f>
@@ -7205,10 +7225,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C161" t="b">
         <f>TRUE</f>
@@ -7221,10 +7241,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C162" t="b">
         <f>TRUE</f>
@@ -7237,10 +7257,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C163" t="b">
         <f>TRUE</f>
@@ -7253,10 +7273,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C164" t="b">
         <f>TRUE</f>
@@ -7269,10 +7289,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C165" t="b">
         <f>TRUE</f>
@@ -7285,10 +7305,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C166" t="b">
         <f>TRUE</f>
@@ -7301,10 +7321,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" t="b">
         <f>FALSE</f>
@@ -7317,10 +7337,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B168" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" t="b">
         <f>FALSE</f>
@@ -7333,7 +7353,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s">
         <v>1</v>
@@ -7349,10 +7369,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C170" t="b">
         <f>TRUE</f>
@@ -7365,10 +7385,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C171" t="b">
         <f>FALSE</f>
@@ -7381,10 +7401,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B172" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C172" t="b">
         <f>FALSE</f>
@@ -7397,10 +7417,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>212</v>
+      </c>
+      <c r="B173" t="s">
         <v>213</v>
-      </c>
-      <c r="B173" t="s">
-        <v>214</v>
       </c>
       <c r="C173" t="b">
         <f>TRUE</f>
@@ -7413,10 +7433,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B174" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C174" t="b">
         <f>FALSE</f>
@@ -7429,10 +7449,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C175" t="b">
         <f>TRUE</f>
@@ -7445,10 +7465,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C176" t="b">
         <f>TRUE</f>
@@ -7461,10 +7481,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B177" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C177" t="b">
         <f>TRUE</f>
@@ -7477,10 +7497,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B178" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C178" t="b">
         <f>TRUE</f>
@@ -7493,10 +7513,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B179" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C179" t="b">
         <f>TRUE</f>
@@ -7509,10 +7529,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B180" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C180" t="b">
         <f>TRUE</f>
@@ -7525,10 +7545,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B181" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C181" t="b">
         <f>TRUE</f>
@@ -7541,10 +7561,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B182" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C182" t="b">
         <f>TRUE</f>
@@ -7557,10 +7577,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B183" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C183" t="b">
         <f>TRUE</f>
@@ -7573,10 +7593,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B184" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C184" t="b">
         <f>TRUE</f>
@@ -7589,10 +7609,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B185" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C185" t="b">
         <f>TRUE</f>
@@ -7605,10 +7625,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B186" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C186" t="b">
         <f>TRUE</f>
@@ -7621,10 +7641,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B187" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C187" t="b">
         <f>TRUE</f>
@@ -7637,10 +7657,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B188" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C188" t="b">
         <f>TRUE</f>
@@ -7653,10 +7673,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B189" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C189" t="b">
         <f>TRUE</f>
@@ -7669,10 +7689,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B190" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C190" t="b">
         <f>TRUE</f>
@@ -7685,10 +7705,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B191" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C191" t="b">
         <f>TRUE</f>
@@ -7701,10 +7721,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C192" t="b">
         <f>TRUE</f>
@@ -7717,10 +7737,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B193" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C193" t="b">
         <f>TRUE</f>
@@ -7733,10 +7753,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B194" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C194" t="b">
         <f>TRUE</f>
@@ -7749,10 +7769,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B195" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C195" t="b">
         <f>TRUE</f>
@@ -7765,10 +7785,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B196" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C196" t="b">
         <f>TRUE</f>
@@ -7781,10 +7801,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B197" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C197" t="b">
         <f>TRUE</f>
@@ -7797,10 +7817,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B198" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C198" t="b">
         <f>TRUE</f>
@@ -7813,10 +7833,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C199" t="b">
         <f>TRUE</f>
@@ -7829,10 +7849,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C200" t="b">
         <f>TRUE</f>
@@ -7845,10 +7865,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B201" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C201" t="b">
         <f>TRUE</f>
@@ -7861,10 +7881,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B202" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C202" t="b">
         <f>TRUE</f>
@@ -7877,10 +7897,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B203" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C203" t="b">
         <f>TRUE</f>
@@ -7893,10 +7913,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>256</v>
+      </c>
+      <c r="B204" t="s">
         <v>257</v>
-      </c>
-      <c r="B204" t="s">
-        <v>258</v>
       </c>
       <c r="C204" t="b">
         <f>TRUE</f>
@@ -7909,10 +7929,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B205" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C205" t="b">
         <f>TRUE</f>
@@ -7925,10 +7945,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B206" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C206" t="b">
         <f>FALSE</f>
@@ -7941,10 +7961,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B207" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C207" t="b">
         <f>FALSE</f>
@@ -7957,10 +7977,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B208" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C208" t="b">
         <f>FALSE</f>
@@ -7973,10 +7993,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B209" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C209" t="b">
         <f>FALSE</f>
@@ -7989,10 +8009,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C210" t="b">
         <f>TRUE</f>
@@ -8005,10 +8025,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B211" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C211" t="b">
         <f>TRUE</f>
@@ -8021,10 +8041,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B212" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C212" t="b">
         <f>TRUE</f>
@@ -8037,10 +8057,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B213" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C213" t="b">
         <f>TRUE</f>
@@ -8053,10 +8073,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B214" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C214" t="b">
         <f>TRUE</f>
@@ -8069,10 +8089,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B215" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C215" t="b">
         <f>TRUE</f>
@@ -8106,15 +8126,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="b">
         <f>TRUE</f>
@@ -8123,7 +8143,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="b">
         <f>TRUE</f>
@@ -8132,7 +8152,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="b">
         <f>FALSE</f>
@@ -8141,7 +8161,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="b">
         <f>FALSE</f>
@@ -8150,7 +8170,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="b">
         <f>FALSE</f>
@@ -8159,7 +8179,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="b">
         <f>TRUE</f>
@@ -8168,7 +8188,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="b">
         <f>FALSE</f>
@@ -8177,7 +8197,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" t="b">
         <f>FALSE</f>
@@ -8186,7 +8206,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="b">
         <f>FALSE</f>
@@ -8195,7 +8215,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" t="b">
         <f>FALSE</f>
@@ -8204,7 +8224,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" t="b">
         <f>FALSE</f>
@@ -8213,7 +8233,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" t="b">
         <f>FALSE</f>
@@ -8222,7 +8242,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="b">
         <f>TRUE</f>
@@ -8231,7 +8251,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="b">
         <f>FALSE</f>
@@ -8240,7 +8260,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" t="b">
         <f>FALSE</f>
@@ -8249,7 +8269,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" t="b">
         <f>FALSE</f>
@@ -8258,7 +8278,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" t="b">
         <f>FALSE</f>
@@ -8267,7 +8287,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" t="b">
         <f>FALSE</f>
@@ -8276,7 +8296,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="b">
         <f>FALSE</f>
@@ -8285,7 +8305,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="b">
         <f>FALSE</f>
@@ -8294,7 +8314,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="b">
         <f>FALSE</f>
@@ -8303,7 +8323,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" t="b">
         <f>FALSE</f>
@@ -8312,7 +8332,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B24" t="b">
         <f>FALSE</f>
@@ -8342,585 +8362,585 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
         <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="str">
         <f>"NumeroMultas_"&amp;C24</f>
         <v>NumeroMultas_Lei1</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
         <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
         <v>149</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
         <v>154</v>
-      </c>
-      <c r="B45" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
         <v>161</v>
-      </c>
-      <c r="B49" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
         <v>170</v>
-      </c>
-      <c r="B52" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
         <v>192</v>
-      </c>
-      <c r="B62" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
         <v>197</v>
-      </c>
-      <c r="B64" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
         <v>209</v>
-      </c>
-      <c r="B66" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" t="s">
         <v>265</v>
-      </c>
-      <c r="B72" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="HistoricoFAP" sheetId="14" r:id="rId4"/>
     <sheet name="Cenarios" sheetId="9" r:id="rId5"/>
     <sheet name="Parametros" sheetId="4" r:id="rId6"/>
-    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId7"/>
-    <sheet name="Módulos" sheetId="15" r:id="rId8"/>
+    <sheet name="Módulos" sheetId="15" r:id="rId7"/>
+    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId8"/>
     <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId9"/>
     <sheet name="Distribuições" sheetId="10" r:id="rId10"/>
     <sheet name="Categorias" sheetId="13" r:id="rId11"/>
@@ -23,9 +23,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Custos!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Funcoes_Inputs!$A$1:$D$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Funcoes_Inputs!$A$1:$E$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Módulos!$A$1:$B$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$54</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="304">
   <si>
     <t>Ano</t>
   </si>
@@ -899,6 +899,60 @@
   </si>
   <si>
     <t>ASIS</t>
+  </si>
+  <si>
+    <t>Funcao que Calcula</t>
+  </si>
+  <si>
+    <t>Funcao_Copiada</t>
+  </si>
+  <si>
+    <t>calcular_fap</t>
+  </si>
+  <si>
+    <t>EventosFrequenciaFAP</t>
+  </si>
+  <si>
+    <t>FolhaSalarialMediaFAP</t>
+  </si>
+  <si>
+    <t>FuncionariosMedioFAP</t>
+  </si>
+  <si>
+    <t>TurnoverGeralMedioFAP</t>
+  </si>
+  <si>
+    <t>CustoBeneficiosFAP_Ultimos2Anos</t>
+  </si>
+  <si>
+    <t>IndiceFrequenciaFAP</t>
+  </si>
+  <si>
+    <t>PercentilFrequenciaFAP</t>
+  </si>
+  <si>
+    <t>IndiceGravidadeFAP</t>
+  </si>
+  <si>
+    <t>IndiceCustoFAP</t>
+  </si>
+  <si>
+    <t>PercentilCustoFAP</t>
+  </si>
+  <si>
+    <t>Depende dos Módulos</t>
+  </si>
+  <si>
+    <t>eventos</t>
+  </si>
+  <si>
+    <t>eventos, faltas</t>
+  </si>
+  <si>
+    <t>eventos, beneficios_inss</t>
+  </si>
+  <si>
+    <t>eventos, faltas, indices_ampliados</t>
   </si>
 </sst>
 </file>
@@ -1745,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,12 +4704,285 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A637D1-2310-439A-BD02-4B96D1435E85}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B24" xr:uid="{955D7034-6C13-437D-9C30-BB0846CAC95B}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4663,9 +4990,10 @@
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>78</v>
       </c>
@@ -4678,8 +5006,11 @@
       <c r="D1" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4694,8 +5025,12 @@
         <f>VLOOKUP(A2,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>IF(C2,"Nenhuma",VLOOKUP(B2,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -4710,8 +5045,12 @@
         <f>VLOOKUP(A3,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>IF(C3,"Nenhuma",VLOOKUP(B3,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -4726,8 +5065,12 @@
         <f>VLOOKUP(A4,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f>IF(C4,"Nenhuma",VLOOKUP(B4,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -4742,8 +5085,12 @@
         <f>VLOOKUP(A5,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f>IF(C5,"Nenhuma",VLOOKUP(B5,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -4758,8 +5105,12 @@
         <f>VLOOKUP(A6,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f>IF(C6,"Nenhuma",VLOOKUP(B6,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -4774,8 +5125,12 @@
         <f>VLOOKUP(A7,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f>IF(C7,"Nenhuma",VLOOKUP(B7,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -4790,8 +5145,12 @@
         <f>VLOOKUP(A8,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f>IF(C8,"Nenhuma",VLOOKUP(B8,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -4806,8 +5165,12 @@
         <f>VLOOKUP(A9,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f>IF(C9,"Nenhuma",VLOOKUP(B9,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -4822,8 +5185,12 @@
         <f>VLOOKUP(A10,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f>IF(C10,"Nenhuma",VLOOKUP(B10,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -4838,8 +5205,12 @@
         <f>VLOOKUP(A11,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f>IF(C11,"Nenhuma",VLOOKUP(B11,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -4854,8 +5225,12 @@
         <f>VLOOKUP(A12,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f>IF(C12,"Nenhuma",VLOOKUP(B12,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -4870,8 +5245,12 @@
         <f>VLOOKUP(A13,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>IF(C13,"Nenhuma",VLOOKUP(B13,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -4886,8 +5265,12 @@
         <f>VLOOKUP(A14,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f>IF(C14,"Nenhuma",VLOOKUP(B14,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -4902,8 +5285,12 @@
         <f>VLOOKUP(A15,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f>IF(C15,"Nenhuma",VLOOKUP(B15,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -4918,8 +5305,12 @@
         <f>VLOOKUP(A16,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>IF(C16,"Nenhuma",VLOOKUP(B16,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -4934,8 +5325,12 @@
         <f>VLOOKUP(A17,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f>IF(C17,"Nenhuma",VLOOKUP(B17,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -4950,8 +5345,12 @@
         <f>VLOOKUP(A18,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f>IF(C18,"Nenhuma",VLOOKUP(B18,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -4966,8 +5365,12 @@
         <f>VLOOKUP(A19,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>IF(C19,"Nenhuma",VLOOKUP(B19,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -4982,8 +5385,12 @@
         <f>VLOOKUP(A20,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f>IF(C20,"Nenhuma",VLOOKUP(B20,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -4998,8 +5405,12 @@
         <f>VLOOKUP(A21,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f>IF(C21,"Nenhuma",VLOOKUP(B21,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -5014,8 +5425,12 @@
         <f>VLOOKUP(A22,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f>IF(C22,"Nenhuma",VLOOKUP(B22,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -5030,8 +5445,12 @@
         <f>VLOOKUP(A23,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f>IF(C23,"Nenhuma",VLOOKUP(B23,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -5046,8 +5465,12 @@
         <f>VLOOKUP(A24,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f>IF(C24,"Nenhuma",VLOOKUP(B24,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -5062,8 +5485,12 @@
         <f>VLOOKUP(A25,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f>IF(C25,"Nenhuma",VLOOKUP(B25,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -5078,8 +5505,12 @@
         <f>VLOOKUP(A26,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f>IF(C26,"Nenhuma",VLOOKUP(B26,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -5094,8 +5525,12 @@
         <f>VLOOKUP(A27,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f>IF(C27,"Nenhuma",VLOOKUP(B27,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -5110,8 +5545,12 @@
         <f>VLOOKUP(A28,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f>IF(C28,"Nenhuma",VLOOKUP(B28,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -5126,8 +5565,12 @@
         <f>VLOOKUP(A29,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f>IF(C29,"Nenhuma",VLOOKUP(B29,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -5135,15 +5578,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <f>VLOOKUP(A30,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f>IF(C30,"Nenhuma",VLOOKUP(B30,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -5151,15 +5598,19 @@
         <v>15</v>
       </c>
       <c r="C31" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <f>VLOOKUP(A31,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f>IF(C31,"Nenhuma",VLOOKUP(B31,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -5167,15 +5618,19 @@
         <v>16</v>
       </c>
       <c r="C32" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <f>VLOOKUP(A32,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f>IF(C32,"Nenhuma",VLOOKUP(B32,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -5190,8 +5645,12 @@
         <f>VLOOKUP(A33,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f>IF(C33,"Nenhuma",VLOOKUP(B33,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -5206,8 +5665,12 @@
         <f>VLOOKUP(A34,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f>IF(C34,"Nenhuma",VLOOKUP(B34,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_faltas</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -5222,8 +5685,12 @@
         <f>VLOOKUP(A35,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f>IF(C35,"Nenhuma",VLOOKUP(B35,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -5238,8 +5705,12 @@
         <f>VLOOKUP(A36,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f>IF(C36,"Nenhuma",VLOOKUP(B36,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -5254,8 +5725,12 @@
         <f>VLOOKUP(A37,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f>IF(C37,"Nenhuma",VLOOKUP(B37,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -5270,8 +5745,12 @@
         <f>VLOOKUP(A38,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f>IF(C38,"Nenhuma",VLOOKUP(B38,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -5286,8 +5765,12 @@
         <f>VLOOKUP(A39,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <f>IF(C39,"Nenhuma",VLOOKUP(B39,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -5302,8 +5785,12 @@
         <f>VLOOKUP(A40,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f>IF(C40,"Nenhuma",VLOOKUP(B40,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -5318,8 +5805,12 @@
         <f>VLOOKUP(A41,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f>IF(C41,"Nenhuma",VLOOKUP(B41,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -5334,8 +5825,12 @@
         <f>VLOOKUP(A42,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f>IF(C42,"Nenhuma",VLOOKUP(B42,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -5350,8 +5845,12 @@
         <f>VLOOKUP(A43,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f>IF(C43,"Nenhuma",VLOOKUP(B43,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -5366,8 +5865,12 @@
         <f>VLOOKUP(A44,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f>IF(C44,"Nenhuma",VLOOKUP(B44,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -5382,8 +5885,12 @@
         <f>VLOOKUP(A45,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f>IF(C45,"Nenhuma",VLOOKUP(B45,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -5398,8 +5905,12 @@
         <f>VLOOKUP(A46,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f>IF(C46,"Nenhuma",VLOOKUP(B46,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -5414,8 +5925,12 @@
         <f>VLOOKUP(A47,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f>IF(C47,"Nenhuma",VLOOKUP(B47,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -5430,8 +5945,12 @@
         <f>VLOOKUP(A48,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f>IF(C48,"Nenhuma",VLOOKUP(B48,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -5446,8 +5965,12 @@
         <f>VLOOKUP(A49,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f>IF(C49,"Nenhuma",VLOOKUP(B49,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>125</v>
       </c>
@@ -5462,8 +5985,12 @@
         <f>VLOOKUP(A50,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f>IF(C50,"Nenhuma",VLOOKUP(B50,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -5478,8 +6005,12 @@
         <f>VLOOKUP(A51,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f>IF(C51,"Nenhuma",VLOOKUP(B51,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -5494,8 +6025,12 @@
         <f>VLOOKUP(A52,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f>IF(C52,"Nenhuma",VLOOKUP(B52,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -5510,8 +6045,12 @@
         <f>VLOOKUP(A53,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f>IF(C53,"Nenhuma",VLOOKUP(B53,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -5526,8 +6065,12 @@
         <f>VLOOKUP(A54,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f>IF(C54,"Nenhuma",VLOOKUP(B54,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -5542,8 +6085,12 @@
         <f>VLOOKUP(A55,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f>IF(C55,"Nenhuma",VLOOKUP(B55,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -5558,8 +6105,12 @@
         <f>VLOOKUP(A56,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f>IF(C56,"Nenhuma",VLOOKUP(B56,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -5574,8 +6125,12 @@
         <f>VLOOKUP(A57,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f>IF(C57,"Nenhuma",VLOOKUP(B57,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -5590,8 +6145,12 @@
         <f>VLOOKUP(A58,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f>IF(C58,"Nenhuma",VLOOKUP(B58,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -5606,8 +6165,12 @@
         <f>VLOOKUP(A59,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f>IF(C59,"Nenhuma",VLOOKUP(B59,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -5622,8 +6185,12 @@
         <f>VLOOKUP(A60,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f>IF(C60,"Nenhuma",VLOOKUP(B60,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -5638,8 +6205,12 @@
         <f>VLOOKUP(A61,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f>IF(C61,"Nenhuma",VLOOKUP(B61,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -5654,12 +6225,16 @@
         <f>VLOOKUP(A62,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f>IF(C62,"Nenhuma",VLOOKUP(B62,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C63" t="b">
@@ -5670,12 +6245,16 @@
         <f>VLOOKUP(A63,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f>IF(C63,"Nenhuma",VLOOKUP(B63,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C64" t="b">
@@ -5686,12 +6265,16 @@
         <f>VLOOKUP(A64,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f>IF(C64,"Nenhuma",VLOOKUP(B64,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="17" t="s">
         <v>134</v>
       </c>
       <c r="C65" t="b">
@@ -5702,12 +6285,16 @@
         <f>VLOOKUP(A65,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f>IF(C65,"Nenhuma",VLOOKUP(B65,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="17" t="s">
         <v>135</v>
       </c>
       <c r="C66" t="b">
@@ -5718,12 +6305,16 @@
         <f>VLOOKUP(A66,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f>IF(C66,"Nenhuma",VLOOKUP(B66,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>125</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C67" t="b">
@@ -5734,12 +6325,16 @@
         <f>VLOOKUP(A67,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f>IF(C67,"Nenhuma",VLOOKUP(B67,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="17" t="s">
         <v>137</v>
       </c>
       <c r="C68" t="b">
@@ -5750,12 +6345,16 @@
         <f>VLOOKUP(A68,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f>IF(C68,"Nenhuma",VLOOKUP(B68,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>125</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C69" t="b">
@@ -5766,12 +6365,16 @@
         <f>VLOOKUP(A69,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f>IF(C69,"Nenhuma",VLOOKUP(B69,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C70" t="b">
@@ -5782,12 +6385,16 @@
         <f>VLOOKUP(A70,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <f>IF(C70,"Nenhuma",VLOOKUP(B70,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="b">
@@ -5798,12 +6405,16 @@
         <f>VLOOKUP(A71,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <f>IF(C71,"Nenhuma",VLOOKUP(B71,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="b">
@@ -5814,12 +6425,16 @@
         <f>VLOOKUP(A72,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="str">
+        <f>IF(C72,"Nenhuma",VLOOKUP(B72,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="b">
@@ -5830,12 +6445,16 @@
         <f>VLOOKUP(A73,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <f>IF(C73,"Nenhuma",VLOOKUP(B73,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="17" t="s">
         <v>150</v>
       </c>
       <c r="C74" t="b">
@@ -5846,12 +6465,16 @@
         <f>VLOOKUP(A74,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <f>IF(C74,"Nenhuma",VLOOKUP(B74,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C75" t="b">
@@ -5862,12 +6485,16 @@
         <f>VLOOKUP(A75,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <f>IF(C75,"Nenhuma",VLOOKUP(B75,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C76" t="b">
@@ -5878,12 +6505,16 @@
         <f>VLOOKUP(A76,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <f>IF(C76,"Nenhuma",VLOOKUP(B76,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>148</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C77" t="b">
@@ -5894,8 +6525,12 @@
         <f>VLOOKUP(A77,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <f>IF(C77,"Nenhuma",VLOOKUP(B77,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -5910,8 +6545,12 @@
         <f>VLOOKUP(A78,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="str">
+        <f>IF(C78,"Nenhuma",VLOOKUP(B78,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -5926,8 +6565,12 @@
         <f>VLOOKUP(A79,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <f>IF(C79,"Nenhuma",VLOOKUP(B79,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -5942,8 +6585,12 @@
         <f>VLOOKUP(A80,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <f>IF(C80,"Nenhuma",VLOOKUP(B80,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -5958,8 +6605,12 @@
         <f>VLOOKUP(A81,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <f>IF(C81,"Nenhuma",VLOOKUP(B81,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -5974,8 +6625,12 @@
         <f>VLOOKUP(A82,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <f>IF(C82,"Nenhuma",VLOOKUP(B82,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -5990,8 +6645,12 @@
         <f>VLOOKUP(A83,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <f>IF(C83,"Nenhuma",VLOOKUP(B83,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -6006,8 +6665,12 @@
         <f>VLOOKUP(A84,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <f>IF(C84,"Nenhuma",VLOOKUP(B84,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6022,8 +6685,12 @@
         <f>VLOOKUP(A85,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <f>IF(C85,"Nenhuma",VLOOKUP(B85,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -6038,8 +6705,12 @@
         <f>VLOOKUP(A86,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="str">
+        <f>IF(C86,"Nenhuma",VLOOKUP(B86,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -6054,8 +6725,12 @@
         <f>VLOOKUP(A87,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="str">
+        <f>IF(C87,"Nenhuma",VLOOKUP(B87,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -6070,8 +6745,12 @@
         <f>VLOOKUP(A88,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="str">
+        <f>IF(C88,"Nenhuma",VLOOKUP(B88,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -6086,8 +6765,12 @@
         <f>VLOOKUP(A89,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="str">
+        <f>IF(C89,"Nenhuma",VLOOKUP(B89,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -6102,8 +6785,12 @@
         <f>VLOOKUP(A90,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="str">
+        <f>IF(C90,"Nenhuma",VLOOKUP(B90,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -6118,8 +6805,12 @@
         <f>VLOOKUP(A91,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="str">
+        <f>IF(C91,"Nenhuma",VLOOKUP(B91,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -6134,8 +6825,12 @@
         <f>VLOOKUP(A92,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="str">
+        <f>IF(C92,"Nenhuma",VLOOKUP(B92,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -6150,8 +6845,12 @@
         <f>VLOOKUP(A93,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="str">
+        <f>IF(C93,"Nenhuma",VLOOKUP(B93,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -6166,8 +6865,12 @@
         <f>VLOOKUP(A94,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="str">
+        <f>IF(C94,"Nenhuma",VLOOKUP(B94,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -6182,8 +6885,12 @@
         <f>VLOOKUP(A95,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="str">
+        <f>IF(C95,"Nenhuma",VLOOKUP(B95,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -6198,8 +6905,12 @@
         <f>VLOOKUP(A96,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="str">
+        <f>IF(C96,"Nenhuma",VLOOKUP(B96,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>156</v>
       </c>
@@ -6214,8 +6925,12 @@
         <f>VLOOKUP(A97,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="str">
+        <f>IF(C97,"Nenhuma",VLOOKUP(B97,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>156</v>
       </c>
@@ -6230,12 +6945,16 @@
         <f>VLOOKUP(A98,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="str">
+        <f>IF(C98,"Nenhuma",VLOOKUP(B98,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C99" t="b">
@@ -6246,8 +6965,12 @@
         <f>VLOOKUP(A99,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="str">
+        <f>IF(C99,"Nenhuma",VLOOKUP(B99,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -6262,8 +6985,12 @@
         <f>VLOOKUP(A100,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="str">
+        <f>IF(C100,"Nenhuma",VLOOKUP(B100,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -6278,8 +7005,12 @@
         <f>VLOOKUP(A101,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="str">
+        <f>IF(C101,"Nenhuma",VLOOKUP(B101,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>160</v>
       </c>
@@ -6294,8 +7025,12 @@
         <f>VLOOKUP(A102,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="str">
+        <f>IF(C102,"Nenhuma",VLOOKUP(B102,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>160</v>
       </c>
@@ -6310,8 +7045,12 @@
         <f>VLOOKUP(A103,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="str">
+        <f>IF(C103,"Nenhuma",VLOOKUP(B103,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>160</v>
       </c>
@@ -6326,8 +7065,12 @@
         <f>VLOOKUP(A104,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="str">
+        <f>IF(C104,"Nenhuma",VLOOKUP(B104,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>160</v>
       </c>
@@ -6342,8 +7085,12 @@
         <f>VLOOKUP(A105,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="str">
+        <f>IF(C105,"Nenhuma",VLOOKUP(B105,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>160</v>
       </c>
@@ -6358,8 +7105,12 @@
         <f>VLOOKUP(A106,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="str">
+        <f>IF(C106,"Nenhuma",VLOOKUP(B106,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -6374,8 +7125,12 @@
         <f>VLOOKUP(A107,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="str">
+        <f>IF(C107,"Nenhuma",VLOOKUP(B107,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>160</v>
       </c>
@@ -6390,8 +7145,12 @@
         <f>VLOOKUP(A108,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="str">
+        <f>IF(C108,"Nenhuma",VLOOKUP(B108,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>160</v>
       </c>
@@ -6406,8 +7165,12 @@
         <f>VLOOKUP(A109,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="str">
+        <f>IF(C109,"Nenhuma",VLOOKUP(B109,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>160</v>
       </c>
@@ -6422,8 +7185,12 @@
         <f>VLOOKUP(A110,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="str">
+        <f>IF(C110,"Nenhuma",VLOOKUP(B110,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>160</v>
       </c>
@@ -6438,8 +7205,12 @@
         <f>VLOOKUP(A111,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="str">
+        <f>IF(C111,"Nenhuma",VLOOKUP(B111,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>160</v>
       </c>
@@ -6454,8 +7225,12 @@
         <f>VLOOKUP(A112,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="str">
+        <f>IF(C112,"Nenhuma",VLOOKUP(B112,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>160</v>
       </c>
@@ -6470,8 +7245,12 @@
         <f>VLOOKUP(A113,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="str">
+        <f>IF(C113,"Nenhuma",VLOOKUP(B113,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>160</v>
       </c>
@@ -6486,8 +7265,12 @@
         <f>VLOOKUP(A114,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="str">
+        <f>IF(C114,"Nenhuma",VLOOKUP(B114,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -6502,8 +7285,12 @@
         <f>VLOOKUP(A115,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="str">
+        <f>IF(C115,"Nenhuma",VLOOKUP(B115,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>160</v>
       </c>
@@ -6518,8 +7305,12 @@
         <f>VLOOKUP(A116,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="str">
+        <f>IF(C116,"Nenhuma",VLOOKUP(B116,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_faltas</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>169</v>
       </c>
@@ -6534,8 +7325,12 @@
         <f>VLOOKUP(A117,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="str">
+        <f>IF(C117,"Nenhuma",VLOOKUP(B117,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>169</v>
       </c>
@@ -6550,8 +7345,12 @@
         <f>VLOOKUP(A118,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="str">
+        <f>IF(C118,"Nenhuma",VLOOKUP(B118,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>169</v>
       </c>
@@ -6566,8 +7365,12 @@
         <f>VLOOKUP(A119,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="str">
+        <f>IF(C119,"Nenhuma",VLOOKUP(B119,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -6582,8 +7385,12 @@
         <f>VLOOKUP(A120,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="str">
+        <f>IF(C120,"Nenhuma",VLOOKUP(B120,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>169</v>
       </c>
@@ -6598,8 +7405,12 @@
         <f>VLOOKUP(A121,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="str">
+        <f>IF(C121,"Nenhuma",VLOOKUP(B121,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>169</v>
       </c>
@@ -6614,8 +7425,12 @@
         <f>VLOOKUP(A122,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="str">
+        <f>IF(C122,"Nenhuma",VLOOKUP(B122,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>169</v>
       </c>
@@ -6630,8 +7445,12 @@
         <f>VLOOKUP(A123,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="str">
+        <f>IF(C123,"Nenhuma",VLOOKUP(B123,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>169</v>
       </c>
@@ -6646,8 +7465,12 @@
         <f>VLOOKUP(A124,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="str">
+        <f>IF(C124,"Nenhuma",VLOOKUP(B124,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -6662,8 +7485,12 @@
         <f>VLOOKUP(A125,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="str">
+        <f>IF(C125,"Nenhuma",VLOOKUP(B125,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>173</v>
       </c>
@@ -6678,8 +7505,12 @@
         <f>VLOOKUP(A126,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="str">
+        <f>IF(C126,"Nenhuma",VLOOKUP(B126,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -6694,8 +7525,12 @@
         <f>VLOOKUP(A127,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="str">
+        <f>IF(C127,"Nenhuma",VLOOKUP(B127,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -6710,8 +7545,12 @@
         <f>VLOOKUP(A128,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="str">
+        <f>IF(C128,"Nenhuma",VLOOKUP(B128,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>173</v>
       </c>
@@ -6726,8 +7565,12 @@
         <f>VLOOKUP(A129,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="str">
+        <f>IF(C129,"Nenhuma",VLOOKUP(B129,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -6742,8 +7585,12 @@
         <f>VLOOKUP(A130,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="str">
+        <f>IF(C130,"Nenhuma",VLOOKUP(B130,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>173</v>
       </c>
@@ -6758,8 +7605,12 @@
         <f>VLOOKUP(A131,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="str">
+        <f>IF(C131,"Nenhuma",VLOOKUP(B131,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>173</v>
       </c>
@@ -6774,8 +7625,12 @@
         <f>VLOOKUP(A132,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="str">
+        <f>IF(C132,"Nenhuma",VLOOKUP(B132,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>173</v>
       </c>
@@ -6790,8 +7645,12 @@
         <f>VLOOKUP(A133,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="str">
+        <f>IF(C133,"Nenhuma",VLOOKUP(B133,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -6806,8 +7665,12 @@
         <f>VLOOKUP(A134,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="str">
+        <f>IF(C134,"Nenhuma",VLOOKUP(B134,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_engajamento</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>173</v>
       </c>
@@ -6815,15 +7678,19 @@
         <v>174</v>
       </c>
       <c r="C135" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D135" t="b">
         <f>VLOOKUP(A135,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="str">
+        <f>IF(C135,"Nenhuma",VLOOKUP(B135,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -6838,8 +7705,12 @@
         <f>VLOOKUP(A136,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="str">
+        <f>IF(C136,"Nenhuma",VLOOKUP(B136,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -6854,8 +7725,12 @@
         <f>VLOOKUP(A137,Módulos!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="str">
+        <f>IF(C137,"Nenhuma",VLOOKUP(B137,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>179</v>
       </c>
@@ -6870,8 +7745,12 @@
         <f>VLOOKUP(A138,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="str">
+        <f>IF(C138,"Nenhuma",VLOOKUP(B138,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_turnovergeral</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>179</v>
       </c>
@@ -6886,8 +7765,12 @@
         <f>VLOOKUP(A139,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="str">
+        <f>IF(C139,"Nenhuma",VLOOKUP(B139,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>179</v>
       </c>
@@ -6895,15 +7778,19 @@
         <v>181</v>
       </c>
       <c r="C140" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D140" t="b">
         <f>VLOOKUP(A140,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="str">
+        <f>IF(C140,"Nenhuma",VLOOKUP(B140,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -6918,8 +7805,12 @@
         <f>VLOOKUP(A141,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="str">
+        <f>IF(C141,"Nenhuma",VLOOKUP(B141,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -6934,8 +7825,12 @@
         <f>VLOOKUP(A142,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="str">
+        <f>IF(C142,"Nenhuma",VLOOKUP(B142,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>184</v>
       </c>
@@ -6950,8 +7845,12 @@
         <f>VLOOKUP(A143,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="str">
+        <f>IF(C143,"Nenhuma",VLOOKUP(B143,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>184</v>
       </c>
@@ -6966,8 +7865,12 @@
         <f>VLOOKUP(A144,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="str">
+        <f>IF(C144,"Nenhuma",VLOOKUP(B144,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -6982,8 +7885,12 @@
         <f>VLOOKUP(A145,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="str">
+        <f>IF(C145,"Nenhuma",VLOOKUP(B145,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -6998,8 +7905,12 @@
         <f>VLOOKUP(A146,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="str">
+        <f>IF(C146,"Nenhuma",VLOOKUP(B146,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>191</v>
       </c>
@@ -7014,8 +7925,12 @@
         <f>VLOOKUP(A147,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="str">
+        <f>IF(C147,"Nenhuma",VLOOKUP(B147,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>191</v>
       </c>
@@ -7030,8 +7945,12 @@
         <f>VLOOKUP(A148,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="str">
+        <f>IF(C148,"Nenhuma",VLOOKUP(B148,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>191</v>
       </c>
@@ -7046,8 +7965,12 @@
         <f>VLOOKUP(A149,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="str">
+        <f>IF(C149,"Nenhuma",VLOOKUP(B149,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>191</v>
       </c>
@@ -7062,8 +7985,12 @@
         <f>VLOOKUP(A150,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="str">
+        <f>IF(C150,"Nenhuma",VLOOKUP(B150,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>191</v>
       </c>
@@ -7078,8 +8005,12 @@
         <f>VLOOKUP(A151,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="str">
+        <f>IF(C151,"Nenhuma",VLOOKUP(B151,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>191</v>
       </c>
@@ -7094,8 +8025,12 @@
         <f>VLOOKUP(A152,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="str">
+        <f>IF(C152,"Nenhuma",VLOOKUP(B152,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -7110,8 +8045,12 @@
         <f>VLOOKUP(A153,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="str">
+        <f>IF(C153,"Nenhuma",VLOOKUP(B153,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>191</v>
       </c>
@@ -7126,8 +8065,12 @@
         <f>VLOOKUP(A154,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="str">
+        <f>IF(C154,"Nenhuma",VLOOKUP(B154,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -7142,8 +8085,12 @@
         <f>VLOOKUP(A155,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="str">
+        <f>IF(C155,"Nenhuma",VLOOKUP(B155,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>196</v>
       </c>
@@ -7158,8 +8105,12 @@
         <f>VLOOKUP(A156,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="str">
+        <f>IF(C156,"Nenhuma",VLOOKUP(B156,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>196</v>
       </c>
@@ -7174,8 +8125,12 @@
         <f>VLOOKUP(A157,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="str">
+        <f>IF(C157,"Nenhuma",VLOOKUP(B157,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>200</v>
       </c>
@@ -7190,8 +8145,12 @@
         <f>VLOOKUP(A158,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="str">
+        <f>IF(C158,"Nenhuma",VLOOKUP(B158,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>200</v>
       </c>
@@ -7206,8 +8165,12 @@
         <f>VLOOKUP(A159,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="str">
+        <f>IF(C159,"Nenhuma",VLOOKUP(B159,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>200</v>
       </c>
@@ -7222,8 +8185,12 @@
         <f>VLOOKUP(A160,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="str">
+        <f>IF(C160,"Nenhuma",VLOOKUP(B160,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>208</v>
       </c>
@@ -7238,8 +8205,12 @@
         <f>VLOOKUP(A161,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="str">
+        <f>IF(C161,"Nenhuma",VLOOKUP(B161,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>208</v>
       </c>
@@ -7254,8 +8225,12 @@
         <f>VLOOKUP(A162,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="str">
+        <f>IF(C162,"Nenhuma",VLOOKUP(B162,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>208</v>
       </c>
@@ -7270,8 +8245,12 @@
         <f>VLOOKUP(A163,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="str">
+        <f>IF(C163,"Nenhuma",VLOOKUP(B163,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>208</v>
       </c>
@@ -7286,8 +8265,12 @@
         <f>VLOOKUP(A164,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="str">
+        <f>IF(C164,"Nenhuma",VLOOKUP(B164,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>208</v>
       </c>
@@ -7302,8 +8285,12 @@
         <f>VLOOKUP(A165,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="str">
+        <f>IF(C165,"Nenhuma",VLOOKUP(B165,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>208</v>
       </c>
@@ -7318,8 +8305,12 @@
         <f>VLOOKUP(A166,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="str">
+        <f>IF(C166,"Nenhuma",VLOOKUP(B166,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>208</v>
       </c>
@@ -7334,8 +8325,12 @@
         <f>VLOOKUP(A167,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="str">
+        <f>IF(C167,"Nenhuma",VLOOKUP(B167,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>208</v>
       </c>
@@ -7350,8 +8345,12 @@
         <f>VLOOKUP(A168,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="str">
+        <f>IF(C168,"Nenhuma",VLOOKUP(B168,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
@@ -7366,8 +8365,12 @@
         <f>VLOOKUP(A169,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="str">
+        <f>IF(C169,"Nenhuma",VLOOKUP(B169,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>208</v>
       </c>
@@ -7382,8 +8385,12 @@
         <f>VLOOKUP(A170,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="str">
+        <f>IF(C170,"Nenhuma",VLOOKUP(B170,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>208</v>
       </c>
@@ -7398,8 +8405,12 @@
         <f>VLOOKUP(A171,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="str">
+        <f>IF(C171,"Nenhuma",VLOOKUP(B171,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_turnovergeral</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>212</v>
       </c>
@@ -7414,8 +8425,12 @@
         <f>VLOOKUP(A172,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="str">
+        <f>IF(C172,"Nenhuma",VLOOKUP(B172,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -7430,8 +8445,12 @@
         <f>VLOOKUP(A173,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="str">
+        <f>IF(C173,"Nenhuma",VLOOKUP(B173,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>212</v>
       </c>
@@ -7446,8 +8465,12 @@
         <f>VLOOKUP(A174,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="str">
+        <f>IF(C174,"Nenhuma",VLOOKUP(B174,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>212</v>
       </c>
@@ -7462,8 +8485,12 @@
         <f>VLOOKUP(A175,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="str">
+        <f>IF(C175,"Nenhuma",VLOOKUP(B175,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>212</v>
       </c>
@@ -7478,8 +8505,12 @@
         <f>VLOOKUP(A176,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="str">
+        <f>IF(C176,"Nenhuma",VLOOKUP(B176,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>110</v>
       </c>
@@ -7494,8 +8525,12 @@
         <f>VLOOKUP(A177,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="str">
+        <f>IF(C177,"Nenhuma",VLOOKUP(B177,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>110</v>
       </c>
@@ -7510,8 +8545,12 @@
         <f>VLOOKUP(A178,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="str">
+        <f>IF(C178,"Nenhuma",VLOOKUP(B178,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>110</v>
       </c>
@@ -7526,8 +8565,12 @@
         <f>VLOOKUP(A179,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="str">
+        <f>IF(C179,"Nenhuma",VLOOKUP(B179,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>110</v>
       </c>
@@ -7542,8 +8585,12 @@
         <f>VLOOKUP(A180,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="str">
+        <f>IF(C180,"Nenhuma",VLOOKUP(B180,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>110</v>
       </c>
@@ -7558,8 +8605,12 @@
         <f>VLOOKUP(A181,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="str">
+        <f>IF(C181,"Nenhuma",VLOOKUP(B181,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>110</v>
       </c>
@@ -7574,8 +8625,12 @@
         <f>VLOOKUP(A182,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="str">
+        <f>IF(C182,"Nenhuma",VLOOKUP(B182,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>110</v>
       </c>
@@ -7590,8 +8645,12 @@
         <f>VLOOKUP(A183,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="str">
+        <f>IF(C183,"Nenhuma",VLOOKUP(B183,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>110</v>
       </c>
@@ -7606,8 +8665,12 @@
         <f>VLOOKUP(A184,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="str">
+        <f>IF(C184,"Nenhuma",VLOOKUP(B184,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>110</v>
       </c>
@@ -7622,8 +8685,12 @@
         <f>VLOOKUP(A185,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="str">
+        <f>IF(C185,"Nenhuma",VLOOKUP(B185,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>110</v>
       </c>
@@ -7638,8 +8705,12 @@
         <f>VLOOKUP(A186,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="str">
+        <f>IF(C186,"Nenhuma",VLOOKUP(B186,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>110</v>
       </c>
@@ -7654,8 +8725,12 @@
         <f>VLOOKUP(A187,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="str">
+        <f>IF(C187,"Nenhuma",VLOOKUP(B187,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>110</v>
       </c>
@@ -7670,8 +8745,12 @@
         <f>VLOOKUP(A188,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="str">
+        <f>IF(C188,"Nenhuma",VLOOKUP(B188,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>110</v>
       </c>
@@ -7686,8 +8765,12 @@
         <f>VLOOKUP(A189,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="str">
+        <f>IF(C189,"Nenhuma",VLOOKUP(B189,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>110</v>
       </c>
@@ -7702,8 +8785,12 @@
         <f>VLOOKUP(A190,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="str">
+        <f>IF(C190,"Nenhuma",VLOOKUP(B190,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>110</v>
       </c>
@@ -7718,8 +8805,12 @@
         <f>VLOOKUP(A191,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="str">
+        <f>IF(C191,"Nenhuma",VLOOKUP(B191,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>110</v>
       </c>
@@ -7734,8 +8825,12 @@
         <f>VLOOKUP(A192,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="str">
+        <f>IF(C192,"Nenhuma",VLOOKUP(B192,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>110</v>
       </c>
@@ -7750,8 +8845,12 @@
         <f>VLOOKUP(A193,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="str">
+        <f>IF(C193,"Nenhuma",VLOOKUP(B193,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>110</v>
       </c>
@@ -7766,8 +8865,12 @@
         <f>VLOOKUP(A194,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="str">
+        <f>IF(C194,"Nenhuma",VLOOKUP(B194,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>110</v>
       </c>
@@ -7782,8 +8885,12 @@
         <f>VLOOKUP(A195,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="str">
+        <f>IF(C195,"Nenhuma",VLOOKUP(B195,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>110</v>
       </c>
@@ -7798,8 +8905,12 @@
         <f>VLOOKUP(A196,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="str">
+        <f>IF(C196,"Nenhuma",VLOOKUP(B196,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>110</v>
       </c>
@@ -7814,8 +8925,12 @@
         <f>VLOOKUP(A197,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="str">
+        <f>IF(C197,"Nenhuma",VLOOKUP(B197,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>110</v>
       </c>
@@ -7830,8 +8945,12 @@
         <f>VLOOKUP(A198,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="str">
+        <f>IF(C198,"Nenhuma",VLOOKUP(B198,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>110</v>
       </c>
@@ -7846,8 +8965,12 @@
         <f>VLOOKUP(A199,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="str">
+        <f>IF(C199,"Nenhuma",VLOOKUP(B199,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>110</v>
       </c>
@@ -7862,8 +8985,12 @@
         <f>VLOOKUP(A200,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="str">
+        <f>IF(C200,"Nenhuma",VLOOKUP(B200,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>110</v>
       </c>
@@ -7878,8 +9005,12 @@
         <f>VLOOKUP(A201,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="str">
+        <f>IF(C201,"Nenhuma",VLOOKUP(B201,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>110</v>
       </c>
@@ -7894,8 +9025,12 @@
         <f>VLOOKUP(A202,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="str">
+        <f>IF(C202,"Nenhuma",VLOOKUP(B202,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>110</v>
       </c>
@@ -7903,52 +9038,63 @@
         <v>240</v>
       </c>
       <c r="C203" t="b">
-        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D203" t="b">
         <f>VLOOKUP(A203,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="str">
+        <f>IF(C203,"Nenhuma",VLOOKUP(B203,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B204" t="s">
-        <v>257</v>
+        <v>87</v>
       </c>
       <c r="C204" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D204" t="b">
         <f>VLOOKUP(A204,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="str">
+        <f>IF(C204,"Nenhuma",VLOOKUP(B204,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B205" t="s">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="C205" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D205" t="b">
         <f>VLOOKUP(A205,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="str">
+        <f>IF(C205,"Nenhuma",VLOOKUP(B205,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B206" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C206" t="b">
         <f>FALSE</f>
@@ -7958,13 +9104,17 @@
         <f>VLOOKUP(A206,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="str">
+        <f>IF(C206,"Nenhuma",VLOOKUP(B206,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B207" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C207" t="b">
         <f>FALSE</f>
@@ -7974,10 +9124,14 @@
         <f>VLOOKUP(A207,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="str">
+        <f>IF(C207,"Nenhuma",VLOOKUP(B207,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B208" t="s">
         <v>85</v>
@@ -7990,13 +9144,17 @@
         <f>VLOOKUP(A208,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="str">
+        <f>IF(C208,"Nenhuma",VLOOKUP(B208,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B209" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C209" t="b">
         <f>FALSE</f>
@@ -8006,45 +9164,57 @@
         <f>VLOOKUP(A209,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="str">
+        <f>IF(C209,"Nenhuma",VLOOKUP(B209,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B210" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="C210" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D210" t="b">
         <f>VLOOKUP(A210,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="str">
+        <f>IF(C210,"Nenhuma",VLOOKUP(B210,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="B211" t="s">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="C211" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D211" t="b">
         <f>VLOOKUP(A211,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="str">
+        <f>IF(C211,"Nenhuma",VLOOKUP(B211,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B212" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C212" t="b">
         <f>TRUE</f>
@@ -8054,13 +9224,17 @@
         <f>VLOOKUP(A212,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="str">
+        <f>IF(C212,"Nenhuma",VLOOKUP(B212,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B213" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C213" t="b">
         <f>TRUE</f>
@@ -8070,484 +9244,729 @@
         <f>VLOOKUP(A213,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="str">
+        <f>IF(C213,"Nenhuma",VLOOKUP(B213,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B214" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C214" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D214" t="b">
         <f>VLOOKUP(A214,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="str">
+        <f>IF(C214,"Nenhuma",VLOOKUP(B214,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B215" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C215" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D215" t="b">
         <f>VLOOKUP(A215,Módulos!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="E215" t="str">
+        <f>IF(C215,"Nenhuma",VLOOKUP(B215,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>256</v>
+      </c>
+      <c r="B216" t="s">
+        <v>85</v>
+      </c>
+      <c r="C216" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D216" t="b">
+        <f>VLOOKUP(A216,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E216" t="str">
+        <f>IF(C216,"Nenhuma",VLOOKUP(B216,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>256</v>
+      </c>
+      <c r="B217" t="s">
+        <v>86</v>
+      </c>
+      <c r="C217" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D217" t="b">
+        <f>VLOOKUP(A217,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <f>IF(C217,"Nenhuma",VLOOKUP(B217,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>256</v>
+      </c>
+      <c r="B218" t="s">
+        <v>259</v>
+      </c>
+      <c r="C218" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D218" t="b">
+        <f>VLOOKUP(A218,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E218" t="str">
+        <f>IF(C218,"Nenhuma",VLOOKUP(B218,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>264</v>
+      </c>
+      <c r="B219" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D219" t="b">
+        <f>VLOOKUP(A219,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <f>IF(C219,"Nenhuma",VLOOKUP(B219,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>264</v>
+      </c>
+      <c r="B220" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D220" t="b">
+        <f>VLOOKUP(A220,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E220" t="str">
+        <f>IF(C220,"Nenhuma",VLOOKUP(B220,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>264</v>
+      </c>
+      <c r="B221" t="s">
+        <v>259</v>
+      </c>
+      <c r="C221" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D221" t="b">
+        <f>VLOOKUP(A221,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E221" t="str">
+        <f>IF(C221,"Nenhuma",VLOOKUP(B221,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>264</v>
+      </c>
+      <c r="B222" t="s">
+        <v>117</v>
+      </c>
+      <c r="C222" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D222" t="b">
+        <f>VLOOKUP(A222,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E222" t="str">
+        <f>IF(C222,"Nenhuma",VLOOKUP(B222,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>264</v>
+      </c>
+      <c r="B223" t="s">
+        <v>118</v>
+      </c>
+      <c r="C223" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D223" t="b">
+        <f>VLOOKUP(A223,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E223" t="str">
+        <f>IF(C223,"Nenhuma",VLOOKUP(B223,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>288</v>
+      </c>
+      <c r="B224" t="s">
+        <v>126</v>
+      </c>
+      <c r="C224" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D224" t="b">
+        <f>VLOOKUP(A224,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E224" t="str">
+        <f>IF(C224,"Nenhuma",VLOOKUP(B224,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>288</v>
+      </c>
+      <c r="B225" t="s">
+        <v>127</v>
+      </c>
+      <c r="C225" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D225" t="b">
+        <f>VLOOKUP(A225,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <f>IF(C225,"Nenhuma",VLOOKUP(B225,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>288</v>
+      </c>
+      <c r="B226" t="s">
+        <v>128</v>
+      </c>
+      <c r="C226" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D226" t="b">
+        <f>VLOOKUP(A226,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E226" t="str">
+        <f>IF(C226,"Nenhuma",VLOOKUP(B226,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>288</v>
+      </c>
+      <c r="B227" t="s">
+        <v>129</v>
+      </c>
+      <c r="C227" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D227" t="b">
+        <f>VLOOKUP(A227,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E227" t="str">
+        <f>IF(C227,"Nenhuma",VLOOKUP(B227,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>288</v>
+      </c>
+      <c r="B228" t="s">
+        <v>242</v>
+      </c>
+      <c r="C228" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D228" t="b">
+        <f>VLOOKUP(A228,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E228" t="str">
+        <f>IF(C228,"Nenhuma",VLOOKUP(B228,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>288</v>
+      </c>
+      <c r="B229" t="s">
+        <v>243</v>
+      </c>
+      <c r="C229" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D229" t="b">
+        <f>VLOOKUP(A229,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E229" t="str">
+        <f>IF(C229,"Nenhuma",VLOOKUP(B229,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>288</v>
+      </c>
+      <c r="B230" t="s">
+        <v>244</v>
+      </c>
+      <c r="C230" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D230" t="b">
+        <f>VLOOKUP(A230,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E230" t="str">
+        <f>IF(C230,"Nenhuma",VLOOKUP(B230,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>288</v>
+      </c>
+      <c r="B231" t="s">
+        <v>245</v>
+      </c>
+      <c r="C231" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D231" t="b">
+        <f>VLOOKUP(A231,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E231" t="str">
+        <f>IF(C231,"Nenhuma",VLOOKUP(B231,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>288</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D232" t="b">
+        <f>VLOOKUP(A232,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E232" t="str">
+        <f>IF(C232,"Nenhuma",VLOOKUP(B232,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>288</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D233" t="b">
+        <f>VLOOKUP(A233,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E233" t="str">
+        <f>IF(C233,"Nenhuma",VLOOKUP(B233,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>288</v>
+      </c>
+      <c r="B234" t="s">
+        <v>176</v>
+      </c>
+      <c r="C234" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D234" t="b">
+        <f>VLOOKUP(A234,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E234" t="str">
+        <f>IF(C234,"Nenhuma",VLOOKUP(B234,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>calcular_turnovergeral</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D215" xr:uid="{0A5D5554-6CAA-46ED-B4AB-68D7DD4DD734}"/>
+  <autoFilter ref="A1:E223" xr:uid="{D8C2AD8A-D29B-4ECE-B686-2DDAE10A4D17}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A637D1-2310-439A-BD02-4B96D1435E85}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B24" xr:uid="{955D7034-6C13-437D-9C30-BB0846CAC95B}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>A2</f>
+        <v>calcular_faltas</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">A3</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnover</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnover</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_absenteismo</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_absenteismo</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_multas</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -8558,392 +9977,733 @@
       <c r="C24" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_multas</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_acoes_regressivas_inss</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>120</v>
       </c>
       <c r="B26" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_acoes_regressivas_inss</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
       <c r="B27" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_acoes_regressivas_inss</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>120</v>
       </c>
       <c r="B28" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_acoes_regressivas_inss</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>125</v>
       </c>
       <c r="B32" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>125</v>
       </c>
       <c r="B34" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>125</v>
       </c>
       <c r="B36" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>125</v>
       </c>
       <c r="B38" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>125</v>
       </c>
       <c r="B39" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>125</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>144</v>
       </c>
       <c r="B41" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_presenteismo</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>144</v>
       </c>
       <c r="B42" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_presenteismo</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
       <c r="B43" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_despesasmedicas</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>148</v>
       </c>
       <c r="B44" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_despesasmedicas</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>153</v>
       </c>
       <c r="B45" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_refugo_retrabalho</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_refugo_retrabalho</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>156</v>
       </c>
       <c r="B47" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_mp_insumos</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>156</v>
       </c>
       <c r="B48" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_mp_insumos</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>160</v>
       </c>
       <c r="B49" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>160</v>
       </c>
       <c r="B50" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
       <c r="B51" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>169</v>
       </c>
       <c r="B52" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_engajamento</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>169</v>
       </c>
       <c r="B53" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_engajamento</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>169</v>
       </c>
       <c r="B54" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_engajamento</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>173</v>
       </c>
       <c r="B55" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnovergeral</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>173</v>
       </c>
       <c r="B56" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnovergeral</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnovergeral</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>179</v>
       </c>
       <c r="B58" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reclamatorias</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>179</v>
       </c>
       <c r="B59" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reclamatorias</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
       <c r="B60" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reajustes_plano</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>184</v>
       </c>
       <c r="B61" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reajustes_plano</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>191</v>
       </c>
       <c r="B62" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reabilitacao</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>191</v>
       </c>
       <c r="B63" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reabilitacao</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>196</v>
       </c>
       <c r="B64" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_produtividade</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>200</v>
       </c>
       <c r="B65" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_qualidade</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>208</v>
       </c>
       <c r="B66" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_imagem_contracacao</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>208</v>
       </c>
       <c r="B67" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D84" si="1">A67</f>
+        <v>calcular_imagem_contracacao</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>212</v>
       </c>
       <c r="B68" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_imagem_receita</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>212</v>
       </c>
       <c r="B69" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_imagem_receita</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>256</v>
       </c>
       <c r="B70" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_interrupcao_acidentes</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>256</v>
       </c>
       <c r="B71" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_interrupcao_acidentes</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>264</v>
       </c>
       <c r="B72" t="s">
         <v>265</v>
       </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_interdicao_fiscalizacao</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>288</v>
+      </c>
+      <c r="B73" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>288</v>
+      </c>
+      <c r="B75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B77" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>288</v>
+      </c>
+      <c r="B82" t="s">
+        <v>297</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="304">
   <si>
     <t>Ano</t>
   </si>
@@ -2735,9 +2735,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4480,7 +4482,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96:D107" si="17">C96*0.01</f>
+        <f t="shared" ref="D96:D108" si="17">C96*0.01</f>
         <v>2.5000000000000002E-6</v>
       </c>
       <c r="G96" t="s">
@@ -4694,6 +4696,78 @@
       </c>
       <c r="G107" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108">
+        <v>1000</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109">
+        <v>1000</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ref="D109:D110" si="18">C109*0.01</f>
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <f t="shared" ref="D111" si="19">C111*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A637D1-2310-439A-BD02-4B96D1435E85}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -13,19 +13,20 @@
     <sheet name="HistoricoFAP" sheetId="14" r:id="rId4"/>
     <sheet name="Cenarios" sheetId="9" r:id="rId5"/>
     <sheet name="Parametros" sheetId="4" r:id="rId6"/>
-    <sheet name="Módulos" sheetId="15" r:id="rId7"/>
-    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId8"/>
-    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId9"/>
-    <sheet name="Distribuições" sheetId="10" r:id="rId10"/>
-    <sheet name="Categorias" sheetId="13" r:id="rId11"/>
-    <sheet name="Custos" sheetId="8" r:id="rId12"/>
-    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId13"/>
+    <sheet name="ParametrosSemSeedFixa" sheetId="16" r:id="rId7"/>
+    <sheet name="Módulos" sheetId="15" r:id="rId8"/>
+    <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId9"/>
+    <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId10"/>
+    <sheet name="Distribuições" sheetId="10" r:id="rId11"/>
+    <sheet name="Categorias" sheetId="13" r:id="rId12"/>
+    <sheet name="Custos" sheetId="8" r:id="rId13"/>
+    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Custos!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Funcoes_Inputs!$A$1:$E$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Custos!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funcoes_Inputs!$A$1:$E$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Módulos!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$54</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="305">
   <si>
     <t>Ano</t>
   </si>
@@ -953,6 +954,9 @@
   </si>
   <si>
     <t>eventos, faltas, indices_ampliados</t>
+  </si>
+  <si>
+    <t>SeedFixa</t>
   </si>
 </sst>
 </file>
@@ -1462,6 +1466,1038 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2</f>
+        <v>calcular_faltas</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">A3</f>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_eventos</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnover</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnover</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_absenteismo</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_absenteismo</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_multas</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"NumeroMultas_"&amp;C24</f>
+        <v>NumeroMultas_Lei1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_multas</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_acoes_regressivas_inss</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_acoes_regressivas_inss</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_acoes_regressivas_inss</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_acoes_regressivas_inss</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_beneficios_inss</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_presenteismo</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_presenteismo</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_despesasmedicas</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_despesasmedicas</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_refugo_retrabalho</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_refugo_retrabalho</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_mp_insumos</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_mp_insumos</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_indices_ampliados</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_engajamento</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_engajamento</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_engajamento</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnovergeral</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnovergeral</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_turnovergeral</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reclamatorias</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reclamatorias</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reajustes_plano</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reajustes_plano</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reabilitacao</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_reabilitacao</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_produtividade</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_qualidade</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>calcular_imagem_contracacao</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D84" si="1">A67</f>
+        <v>calcular_imagem_contracacao</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_imagem_receita</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_imagem_receita</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_interrupcao_acidentes</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_interrupcao_acidentes</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_interdicao_fiscalizacao</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>288</v>
+      </c>
+      <c r="B73" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>288</v>
+      </c>
+      <c r="B75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B77" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>288</v>
+      </c>
+      <c r="B82" t="s">
+        <v>297</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>calcular_fap</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1535,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1570,7 +2606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1662,7 +2698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2735,11 +3771,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2749,9 +3783,10 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -2773,8 +3808,11 @@
       <c r="G1" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -2791,8 +3829,12 @@
       <c r="G2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A2)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -2809,8 +3851,12 @@
       <c r="G3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A3)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -2827,8 +3873,12 @@
       <c r="G4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A4)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -2845,8 +3895,12 @@
       <c r="G5" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A5)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2863,8 +3917,12 @@
       <c r="G6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A6)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>145</v>
       </c>
@@ -2881,8 +3939,12 @@
       <c r="G7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A7)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>150</v>
       </c>
@@ -2899,8 +3961,12 @@
       <c r="G8" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A8)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>152</v>
       </c>
@@ -2917,8 +3983,12 @@
       <c r="G9" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A9)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -2935,8 +4005,12 @@
       <c r="G10" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A10)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -2953,8 +4027,12 @@
       <c r="G11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A11)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>181</v>
       </c>
@@ -2971,8 +4049,12 @@
       <c r="G12" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A12)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -2989,8 +4071,12 @@
       <c r="G13" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A13)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>195</v>
       </c>
@@ -3007,8 +4093,12 @@
       <c r="G14" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A14)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -3025,8 +4115,12 @@
       <c r="G15" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A15)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>201</v>
       </c>
@@ -3043,8 +4137,12 @@
       <c r="G16" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A16)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -3061,8 +4159,12 @@
       <c r="G17" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A17)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -3079,8 +4181,12 @@
       <c r="G18" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A18)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -3097,8 +4203,12 @@
       <c r="G19" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A19)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>227</v>
       </c>
@@ -3115,8 +4225,12 @@
       <c r="G20" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A20)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -3133,8 +4247,12 @@
       <c r="G21" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A21)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>229</v>
       </c>
@@ -3151,8 +4269,12 @@
       <c r="G22" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A22)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>230</v>
       </c>
@@ -3169,8 +4291,12 @@
       <c r="G23" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A23)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>218</v>
       </c>
@@ -3187,8 +4313,12 @@
       <c r="G24" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A24)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -3205,8 +4335,12 @@
       <c r="G25" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A25)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -3223,8 +4357,12 @@
       <c r="G26" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A26)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -3241,8 +4379,12 @@
       <c r="G27" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A27)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -3259,8 +4401,12 @@
       <c r="G28" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A28)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -3277,8 +4423,12 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A29)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>219</v>
       </c>
@@ -3295,8 +4445,12 @@
       <c r="G30" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A30)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -3313,8 +4467,12 @@
       <c r="G31" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A31)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>221</v>
       </c>
@@ -3331,8 +4489,12 @@
       <c r="G32" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A32)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -3349,8 +4511,12 @@
       <c r="G33" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A33)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>257</v>
       </c>
@@ -3367,8 +4533,12 @@
       <c r="G34" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A34)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>258</v>
       </c>
@@ -3385,8 +4555,12 @@
       <c r="G35" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A35)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>259</v>
       </c>
@@ -3403,8 +4577,12 @@
       <c r="G36" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A36)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>262</v>
       </c>
@@ -3421,8 +4599,12 @@
       <c r="G37" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A37)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>263</v>
       </c>
@@ -3439,8 +4621,12 @@
       <c r="G38" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A38)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>269</v>
       </c>
@@ -3457,8 +4643,12 @@
       <c r="G39" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A39)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>270</v>
       </c>
@@ -3475,8 +4665,12 @@
       <c r="G40" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A40)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>271</v>
       </c>
@@ -3493,8 +4687,12 @@
       <c r="G41" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A41)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>272</v>
       </c>
@@ -3511,8 +4709,12 @@
       <c r="G42" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A42)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>273</v>
       </c>
@@ -3529,8 +4731,12 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A43)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -3547,8 +4753,12 @@
       <c r="G44" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A44)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -3565,8 +4775,12 @@
       <c r="G45" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A45)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>276</v>
       </c>
@@ -3583,8 +4797,12 @@
       <c r="G46" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A46)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>277</v>
       </c>
@@ -3601,8 +4819,12 @@
       <c r="G47" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A47)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>278</v>
       </c>
@@ -3619,8 +4841,12 @@
       <c r="G48" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A48)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -3637,8 +4863,12 @@
       <c r="G49" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A49)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>280</v>
       </c>
@@ -3655,8 +4885,12 @@
       <c r="G50" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A50)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>281</v>
       </c>
@@ -3673,8 +4907,12 @@
       <c r="G51" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A51)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>282</v>
       </c>
@@ -3691,8 +4929,12 @@
       <c r="G52" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A52)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>283</v>
       </c>
@@ -3709,8 +4951,12 @@
       <c r="G53" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A53)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>284</v>
       </c>
@@ -3727,8 +4973,12 @@
       <c r="G54" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A54)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -3745,8 +4995,12 @@
       <c r="G55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A55)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -3763,8 +5017,12 @@
       <c r="G56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A56)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -3781,8 +5039,12 @@
       <c r="G57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A57)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -3799,8 +5061,12 @@
       <c r="G58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A58)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -3817,8 +5083,12 @@
       <c r="G59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A59)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>145</v>
       </c>
@@ -3835,8 +5105,12 @@
       <c r="G60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A60)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>150</v>
       </c>
@@ -3853,8 +5127,12 @@
       <c r="G61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A61)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>152</v>
       </c>
@@ -3871,8 +5149,12 @@
       <c r="G62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A62)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -3889,8 +5171,12 @@
       <c r="G63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A63)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>180</v>
       </c>
@@ -3907,8 +5193,12 @@
       <c r="G64" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A64)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>181</v>
       </c>
@@ -3925,8 +5215,12 @@
       <c r="G65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A65)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -3943,8 +5237,12 @@
       <c r="G66" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A66)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -3961,8 +5259,12 @@
       <c r="G67" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A67)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -3979,8 +5281,12 @@
       <c r="G68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A68)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>201</v>
       </c>
@@ -3997,8 +5303,12 @@
       <c r="G69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A69)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -4015,8 +5325,12 @@
       <c r="G70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A70)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -4033,8 +5347,12 @@
       <c r="G71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A71)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -4051,8 +5369,12 @@
       <c r="G72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A72)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>227</v>
       </c>
@@ -4069,8 +5391,12 @@
       <c r="G73" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A73)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>228</v>
       </c>
@@ -4087,8 +5413,12 @@
       <c r="G74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A74)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -4105,8 +5435,12 @@
       <c r="G75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A75)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -4123,8 +5457,12 @@
       <c r="G76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A76)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -4141,8 +5479,12 @@
       <c r="G77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A77)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -4159,8 +5501,12 @@
       <c r="G78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A78)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>224</v>
       </c>
@@ -4177,8 +5523,12 @@
       <c r="G79" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A79)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>225</v>
       </c>
@@ -4195,8 +5545,12 @@
       <c r="G80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A80)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>226</v>
       </c>
@@ -4213,8 +5567,12 @@
       <c r="G81" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A81)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -4231,8 +5589,12 @@
       <c r="G82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A82)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -4249,8 +5611,12 @@
       <c r="G83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A83)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>220</v>
       </c>
@@ -4267,8 +5633,12 @@
       <c r="G84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A84)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>221</v>
       </c>
@@ -4285,8 +5655,12 @@
       <c r="G85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A85)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>222</v>
       </c>
@@ -4303,8 +5677,12 @@
       <c r="G86" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A86)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -4321,8 +5699,12 @@
       <c r="G87" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A87)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>258</v>
       </c>
@@ -4339,8 +5721,12 @@
       <c r="G88" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A88)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>259</v>
       </c>
@@ -4357,8 +5743,12 @@
       <c r="G89" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A89)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -4375,8 +5765,12 @@
       <c r="G90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A90)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>263</v>
       </c>
@@ -4393,8 +5787,12 @@
       <c r="G91" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A91)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>269</v>
       </c>
@@ -4412,8 +5810,12 @@
       <c r="G92" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A92)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>270</v>
       </c>
@@ -4431,8 +5833,12 @@
       <c r="G93" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A93)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>271</v>
       </c>
@@ -4450,8 +5856,12 @@
       <c r="G94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A94)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>272</v>
       </c>
@@ -4469,8 +5879,12 @@
       <c r="G95" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A95)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>273</v>
       </c>
@@ -4488,8 +5902,12 @@
       <c r="G96" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A96)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>274</v>
       </c>
@@ -4507,8 +5925,12 @@
       <c r="G97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A97)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>275</v>
       </c>
@@ -4526,8 +5948,12 @@
       <c r="G98" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A98)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>276</v>
       </c>
@@ -4545,8 +5971,12 @@
       <c r="G99" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A99)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>277</v>
       </c>
@@ -4564,8 +5994,12 @@
       <c r="G100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A100)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>278</v>
       </c>
@@ -4583,8 +6017,12 @@
       <c r="G101" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A101)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>279</v>
       </c>
@@ -4602,8 +6040,12 @@
       <c r="G102" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A102)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>280</v>
       </c>
@@ -4621,8 +6063,12 @@
       <c r="G103" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A103)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>281</v>
       </c>
@@ -4640,8 +6086,12 @@
       <c r="G104" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A104)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>282</v>
       </c>
@@ -4659,8 +6109,12 @@
       <c r="G105" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A105)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>283</v>
       </c>
@@ -4678,8 +6132,12 @@
       <c r="G106" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A106)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>284</v>
       </c>
@@ -4697,8 +6155,12 @@
       <c r="G107" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A107)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>266</v>
       </c>
@@ -4715,8 +6177,12 @@
       <c r="G108" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A108)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>197</v>
       </c>
@@ -4733,8 +6199,12 @@
       <c r="G109" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A109)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>266</v>
       </c>
@@ -4751,8 +6221,12 @@
       <c r="G110" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A110)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>197</v>
       </c>
@@ -4768,6 +6242,10 @@
       </c>
       <c r="G111" t="s">
         <v>285</v>
+      </c>
+      <c r="H111" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A111)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4778,6 +6256,119 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F263D21-849C-4981-9018-7D5DEDD7D968}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A637D1-2310-439A-BD02-4B96D1435E85}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -5052,7 +6643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E234"/>
   <sheetViews>
@@ -9748,1036 +11339,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="str">
-        <f>A2</f>
-        <v>calcular_faltas</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">A3</f>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_eventos</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_turnover</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_turnover</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_absenteismo</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_absenteismo</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_multas</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="str">
-        <f>"NumeroMultas_"&amp;C24</f>
-        <v>NumeroMultas_Lei1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_multas</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_acoes_regressivas_inss</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_acoes_regressivas_inss</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_acoes_regressivas_inss</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_acoes_regressivas_inss</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_beneficios_inss</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_presenteismo</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_presenteismo</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_despesasmedicas</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_despesasmedicas</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_refugo_retrabalho</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_refugo_retrabalho</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_mp_insumos</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_mp_insumos</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_indices_ampliados</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_indices_ampliados</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_indices_ampliados</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_engajamento</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_engajamento</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_engajamento</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_turnovergeral</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_turnovergeral</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_turnovergeral</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_reclamatorias</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_reclamatorias</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_reajustes_plano</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_reajustes_plano</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_reabilitacao</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_reabilitacao</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_produtividade</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_qualidade</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>calcular_imagem_contracacao</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>208</v>
-      </c>
-      <c r="B67" t="s">
-        <v>210</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D84" si="1">A67</f>
-        <v>calcular_imagem_contracacao</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>212</v>
-      </c>
-      <c r="B68" t="s">
-        <v>216</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_imagem_receita</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_imagem_receita</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>256</v>
-      </c>
-      <c r="B70" t="s">
-        <v>260</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_interrupcao_acidentes</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>256</v>
-      </c>
-      <c r="B71" t="s">
-        <v>261</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_interrupcao_acidentes</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>264</v>
-      </c>
-      <c r="B72" t="s">
-        <v>265</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_interdicao_fiscalizacao</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>288</v>
-      </c>
-      <c r="B73" t="s">
-        <v>241</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>288</v>
-      </c>
-      <c r="B74" t="s">
-        <v>289</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>288</v>
-      </c>
-      <c r="B75" t="s">
-        <v>290</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>288</v>
-      </c>
-      <c r="B76" t="s">
-        <v>291</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>288</v>
-      </c>
-      <c r="B77" t="s">
-        <v>292</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>288</v>
-      </c>
-      <c r="B78" t="s">
-        <v>293</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" t="s">
-        <v>294</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>288</v>
-      </c>
-      <c r="B80" t="s">
-        <v>295</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>288</v>
-      </c>
-      <c r="B81" t="s">
-        <v>296</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>288</v>
-      </c>
-      <c r="B82" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>288</v>
-      </c>
-      <c r="B83" t="s">
-        <v>298</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>288</v>
-      </c>
-      <c r="B84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -3773,7 +3773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6260,7 +6262,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -2502,7 +2502,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,6 +2568,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2794,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="D2" s="1">
         <v>2017</v>
@@ -2835,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,7 +3053,7 @@
       </c>
       <c r="D2">
         <f>CategoriaSAT</f>
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="E2" s="11">
         <v>8</v>
@@ -3219,7 +3220,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3" si="2">CategoriaSAT</f>
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="11">
         <v>8</v>
@@ -3582,7 +3583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3773,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Custos!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funcoes_Inputs!$A$1:$E$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funcoes_Inputs!$A$1:$E$222</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$54</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="303">
   <si>
     <t>Ano</t>
   </si>
@@ -569,16 +569,10 @@
     <t>DesligamentosInvoluntarios</t>
   </si>
   <si>
-    <t>FuncDesligadosInicial</t>
-  </si>
-  <si>
     <t>TurnoverGeral</t>
   </si>
   <si>
     <t>FuncionariosDesligados</t>
-  </si>
-  <si>
-    <t>FuncionariosDesligadosAcumulado</t>
   </si>
   <si>
     <t>calcular_reclamatorias</t>
@@ -1467,9 +1461,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1488,7 +1484,7 @@
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,7 +1507,7 @@
         <v>85</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">A3</f>
+        <f t="shared" ref="D3:D65" si="0">A3</f>
         <v>calcular_eventos</v>
       </c>
     </row>
@@ -1800,7 +1796,7 @@
         <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1812,7 +1808,7 @@
         <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2136,7 +2132,7 @@
         <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -2148,7 +2144,7 @@
         <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2157,22 +2153,22 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v>calcular_turnovergeral</v>
+        <v>calcular_reclamatorias</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -2181,22 +2177,22 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
-        <v>calcular_reclamatorias</v>
+        <v>calcular_reajustes_plano</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -2205,22 +2201,22 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s">
         <v>190</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
-        <v>calcular_reajustes_plano</v>
+        <v>calcular_reabilitacao</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s">
         <v>191</v>
-      </c>
-      <c r="B62" t="s">
-        <v>192</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2229,70 +2225,70 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v>calcular_reabilitacao</v>
+        <v>calcular_produtividade</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>calcular_produtividade</v>
+        <v>calcular_qualidade</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>calcular_qualidade</v>
+        <v>calcular_imagem_contracacao</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" t="s">
         <v>208</v>
       </c>
-      <c r="B66" t="s">
-        <v>209</v>
-      </c>
       <c r="D66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D66:D83" si="1">A66</f>
         <v>calcular_imagem_contracacao</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D84" si="1">A67</f>
-        <v>calcular_imagem_contracacao</v>
+        <f t="shared" si="1"/>
+        <v>calcular_imagem_receita</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -2301,22 +2297,22 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
-        <v>calcular_imagem_receita</v>
+        <v>calcular_interrupcao_acidentes</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -2325,34 +2321,34 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
-        <v>calcular_interrupcao_acidentes</v>
+        <v>calcular_interdicao_fiscalizacao</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
-        <v>calcular_interdicao_fiscalizacao</v>
+        <v>calcular_fap</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -2361,10 +2357,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" t="s">
         <v>288</v>
-      </c>
-      <c r="B74" t="s">
-        <v>289</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -2373,10 +2369,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -2385,10 +2381,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -2397,10 +2393,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -2409,10 +2405,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -2421,10 +2417,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -2433,10 +2429,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -2445,10 +2441,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -2457,10 +2453,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -2469,24 +2465,12 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>calcular_fap</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>288</v>
-      </c>
-      <c r="B84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" t="str">
         <f t="shared" si="1"/>
         <v>calcular_fap</v>
       </c>
@@ -2667,7 +2651,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -2681,7 +2665,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -2715,7 +2699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2795,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>0.03</v>
@@ -2834,11 +2820,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BB11"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2854,28 +2838,27 @@
     <col min="16" max="17" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" customWidth="1"/>
-    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="44" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="48" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" customWidth="1"/>
+    <col min="33" max="33" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -2937,109 +2920,106 @@
         <v>174</v>
       </c>
       <c r="U1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="V1" t="s">
+        <v>184</v>
+      </c>
+      <c r="W1" t="s">
         <v>185</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>186</v>
       </c>
-      <c r="X1" t="s">
-        <v>187</v>
-      </c>
       <c r="Y1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Z1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB1" t="s">
         <v>202</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>203</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>204</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>205</v>
       </c>
-      <c r="AE1" t="s">
-        <v>206</v>
-      </c>
       <c r="AF1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AG1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="AI1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>231</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>232</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>233</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>234</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>235</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>236</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>237</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>238</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>239</v>
       </c>
       <c r="AR1" t="s">
         <v>240</v>
       </c>
       <c r="AS1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT1" t="s">
         <v>242</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>243</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>244</v>
       </c>
       <c r="AV1" t="s">
         <v>245</v>
       </c>
       <c r="AW1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AX1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AY1" t="s">
         <v>246</v>
       </c>
       <c r="AZ1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA1" t="s">
         <v>248</v>
       </c>
-      <c r="BA1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -3104,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="V2">
-        <v>10000</v>
+        <v>1E-4</v>
       </c>
       <c r="W2">
         <v>1E-4</v>
@@ -3116,13 +3096,13 @@
         <v>1E-4</v>
       </c>
       <c r="Y2">
-        <v>1E-4</v>
+        <v>10000</v>
       </c>
       <c r="Z2">
-        <v>10000</v>
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -3137,13 +3117,13 @@
         <v>1</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AG2">
         <v>10</v>
       </c>
       <c r="AH2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -3173,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AS2">
         <v>50000</v>
@@ -3185,7 +3165,7 @@
         <v>50000</v>
       </c>
       <c r="AV2">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AW2">
         <v>1</v>
@@ -3202,11 +3182,8 @@
       <c r="BA2">
         <v>1</v>
       </c>
-      <c r="BB2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
@@ -3277,10 +3254,10 @@
         <v>10</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="V3">
-        <v>10000</v>
+        <v>1E-4</v>
       </c>
       <c r="W3">
         <v>1E-4</v>
@@ -3289,13 +3266,13 @@
         <v>1E-4</v>
       </c>
       <c r="Y3">
-        <v>1E-4</v>
+        <v>10040</v>
       </c>
       <c r="Z3">
-        <v>10040</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -3310,13 +3287,13 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AG3">
         <v>10</v>
       </c>
       <c r="AH3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -3346,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AS3">
         <v>50000</v>
@@ -3358,7 +3335,7 @@
         <v>50000</v>
       </c>
       <c r="AV3">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AW3">
         <v>1</v>
@@ -3375,38 +3352,35 @@
       <c r="BA3">
         <v>1</v>
       </c>
-      <c r="BB3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C5" s="6"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C6" s="6"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
     </row>
   </sheetData>
@@ -3456,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I1" t="str">
         <f>"CustoMedio_"&amp;B1</f>
@@ -3475,10 +3449,10 @@
         <v>CustoMedio_NB_94</v>
       </c>
       <c r="M1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3583,7 +3557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3607,7 +3581,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B2" t="b">
         <f>TRUE</f>
@@ -3812,7 +3786,7 @@
         <v>62</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3830,7 +3804,7 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H2" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A2)&gt;0,FALSE,TRUE)</f>
@@ -3852,7 +3826,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H3" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A3)&gt;0,FALSE,TRUE)</f>
@@ -3874,7 +3848,7 @@
         <v>0.05</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H4" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A4)&gt;0,FALSE,TRUE)</f>
@@ -3896,7 +3870,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H5" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A5)&gt;0,FALSE,TRUE)</f>
@@ -3918,7 +3892,7 @@
         <v>1E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H6" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A6)&gt;0,FALSE,TRUE)</f>
@@ -3940,7 +3914,7 @@
         <v>1E-4</v>
       </c>
       <c r="G7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H7" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A7)&gt;0,FALSE,TRUE)</f>
@@ -3962,7 +3936,7 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H8" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A8)&gt;0,FALSE,TRUE)</f>
@@ -3984,7 +3958,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H9" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A9)&gt;0,FALSE,TRUE)</f>
@@ -4006,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H10" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A10)&gt;0,FALSE,TRUE)</f>
@@ -4015,7 +3989,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -4028,7 +4002,7 @@
         <v>1E-3</v>
       </c>
       <c r="G11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H11" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A11)&gt;0,FALSE,TRUE)</f>
@@ -4037,7 +4011,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -4050,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H12" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A12)&gt;0,FALSE,TRUE)</f>
@@ -4059,7 +4033,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -4072,7 +4046,7 @@
         <v>1E-3</v>
       </c>
       <c r="G13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H13" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A13)&gt;0,FALSE,TRUE)</f>
@@ -4081,7 +4055,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -4094,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H14" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A14)&gt;0,FALSE,TRUE)</f>
@@ -4103,7 +4077,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -4116,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H15" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A15)&gt;0,FALSE,TRUE)</f>
@@ -4125,7 +4099,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -4138,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A16)&gt;0,FALSE,TRUE)</f>
@@ -4147,7 +4121,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -4160,7 +4134,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H17" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A17)&gt;0,FALSE,TRUE)</f>
@@ -4169,7 +4143,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -4182,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H18" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A18)&gt;0,FALSE,TRUE)</f>
@@ -4204,7 +4178,7 @@
         <v>0.02</v>
       </c>
       <c r="G19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A19)&gt;0,FALSE,TRUE)</f>
@@ -4213,7 +4187,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -4226,7 +4200,7 @@
         <v>0.02</v>
       </c>
       <c r="G20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A20)&gt;0,FALSE,TRUE)</f>
@@ -4235,7 +4209,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -4248,7 +4222,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H21" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A21)&gt;0,FALSE,TRUE)</f>
@@ -4257,7 +4231,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -4270,7 +4244,7 @@
         <v>0.02</v>
       </c>
       <c r="G22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H22" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A22)&gt;0,FALSE,TRUE)</f>
@@ -4279,7 +4253,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -4292,7 +4266,7 @@
         <v>0.02</v>
       </c>
       <c r="G23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H23" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A23)&gt;0,FALSE,TRUE)</f>
@@ -4301,7 +4275,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -4314,7 +4288,7 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H24" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A24)&gt;0,FALSE,TRUE)</f>
@@ -4323,7 +4297,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -4336,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H25" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A25)&gt;0,FALSE,TRUE)</f>
@@ -4345,7 +4319,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -4358,7 +4332,7 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H26" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A26)&gt;0,FALSE,TRUE)</f>
@@ -4367,7 +4341,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -4380,7 +4354,7 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H27" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A27)&gt;0,FALSE,TRUE)</f>
@@ -4389,7 +4363,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -4402,7 +4376,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H28" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A28)&gt;0,FALSE,TRUE)</f>
@@ -4424,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H29" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A29)&gt;0,FALSE,TRUE)</f>
@@ -4433,7 +4407,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
@@ -4446,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H30" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A30)&gt;0,FALSE,TRUE)</f>
@@ -4455,7 +4429,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -4468,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H31" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A31)&gt;0,FALSE,TRUE)</f>
@@ -4477,7 +4451,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -4490,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H32" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A32)&gt;0,FALSE,TRUE)</f>
@@ -4499,7 +4473,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -4512,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H33" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A33)&gt;0,FALSE,TRUE)</f>
@@ -4521,7 +4495,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -4534,7 +4508,7 @@
         <v>0.1</v>
       </c>
       <c r="G34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H34" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A34)&gt;0,FALSE,TRUE)</f>
@@ -4543,7 +4517,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
@@ -4556,7 +4530,7 @@
         <v>0.01</v>
       </c>
       <c r="G35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H35" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A35)&gt;0,FALSE,TRUE)</f>
@@ -4565,7 +4539,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
@@ -4578,7 +4552,7 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H36" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A36)&gt;0,FALSE,TRUE)</f>
@@ -4587,7 +4561,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
@@ -4600,7 +4574,7 @@
         <v>0.02</v>
       </c>
       <c r="G37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H37" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A37)&gt;0,FALSE,TRUE)</f>
@@ -4609,7 +4583,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
@@ -4622,7 +4596,7 @@
         <v>0.1</v>
       </c>
       <c r="G38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H38" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A38)&gt;0,FALSE,TRUE)</f>
@@ -4631,7 +4605,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
@@ -4644,7 +4618,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H39" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A39)&gt;0,FALSE,TRUE)</f>
@@ -4653,7 +4627,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
@@ -4666,7 +4640,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H40" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A40)&gt;0,FALSE,TRUE)</f>
@@ -4675,7 +4649,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
@@ -4688,7 +4662,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H41" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A41)&gt;0,FALSE,TRUE)</f>
@@ -4697,7 +4671,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
@@ -4710,7 +4684,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H42" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A42)&gt;0,FALSE,TRUE)</f>
@@ -4719,7 +4693,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
@@ -4732,7 +4706,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H43" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A43)&gt;0,FALSE,TRUE)</f>
@@ -4741,7 +4715,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
@@ -4754,7 +4728,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H44" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A44)&gt;0,FALSE,TRUE)</f>
@@ -4763,7 +4737,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
@@ -4776,7 +4750,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H45" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A45)&gt;0,FALSE,TRUE)</f>
@@ -4785,7 +4759,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
@@ -4798,7 +4772,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H46" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A46)&gt;0,FALSE,TRUE)</f>
@@ -4807,7 +4781,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -4820,7 +4794,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H47" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A47)&gt;0,FALSE,TRUE)</f>
@@ -4829,7 +4803,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
@@ -4842,7 +4816,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H48" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A48)&gt;0,FALSE,TRUE)</f>
@@ -4851,7 +4825,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
         <v>65</v>
@@ -4864,7 +4838,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H49" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A49)&gt;0,FALSE,TRUE)</f>
@@ -4873,7 +4847,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
@@ -4886,7 +4860,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G50" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H50" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A50)&gt;0,FALSE,TRUE)</f>
@@ -4895,7 +4869,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -4908,7 +4882,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H51" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A51)&gt;0,FALSE,TRUE)</f>
@@ -4917,7 +4891,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -4930,7 +4904,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H52" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A52)&gt;0,FALSE,TRUE)</f>
@@ -4939,7 +4913,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
@@ -4952,7 +4926,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H53" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A53)&gt;0,FALSE,TRUE)</f>
@@ -4961,7 +4935,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
@@ -4974,7 +4948,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="G54" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H54" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A54)&gt;0,FALSE,TRUE)</f>
@@ -5181,7 +5155,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -5203,7 +5177,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
@@ -5225,7 +5199,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -5247,7 +5221,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -5269,7 +5243,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
@@ -5291,7 +5265,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
@@ -5313,7 +5287,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
@@ -5335,7 +5309,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
@@ -5379,7 +5353,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
@@ -5401,7 +5375,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s">
         <v>65</v>
@@ -5423,7 +5397,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B75" t="s">
         <v>65</v>
@@ -5445,7 +5419,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
@@ -5467,7 +5441,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B77" t="s">
         <v>65</v>
@@ -5489,7 +5463,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
         <v>65</v>
@@ -5511,7 +5485,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
@@ -5533,7 +5507,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
@@ -5555,7 +5529,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
@@ -5599,7 +5573,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B83" t="s">
         <v>65</v>
@@ -5621,7 +5595,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B84" t="s">
         <v>65</v>
@@ -5643,7 +5617,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B85" t="s">
         <v>65</v>
@@ -5665,7 +5639,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
@@ -5687,7 +5661,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
@@ -5709,7 +5683,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
@@ -5731,7 +5705,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
         <v>65</v>
@@ -5753,7 +5727,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
         <v>65</v>
@@ -5775,7 +5749,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B91" t="s">
         <v>65</v>
@@ -5797,7 +5771,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B92" t="s">
         <v>65</v>
@@ -5820,7 +5794,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B93" t="s">
         <v>65</v>
@@ -5843,7 +5817,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
@@ -5866,7 +5840,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B95" t="s">
         <v>65</v>
@@ -5889,7 +5863,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B96" t="s">
         <v>65</v>
@@ -5912,7 +5886,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B97" t="s">
         <v>65</v>
@@ -5935,7 +5909,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
         <v>65</v>
@@ -5958,7 +5932,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
@@ -5981,7 +5955,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s">
         <v>65</v>
@@ -6004,7 +5978,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B101" t="s">
         <v>65</v>
@@ -6027,7 +6001,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B102" t="s">
         <v>65</v>
@@ -6050,7 +6024,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B103" t="s">
         <v>65</v>
@@ -6073,7 +6047,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
@@ -6096,7 +6070,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B105" t="s">
         <v>65</v>
@@ -6119,7 +6093,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B106" t="s">
         <v>65</v>
@@ -6142,7 +6116,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B107" t="s">
         <v>65</v>
@@ -6165,7 +6139,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B108" t="s">
         <v>65</v>
@@ -6187,7 +6161,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B109" t="s">
         <v>65</v>
@@ -6209,7 +6183,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -6222,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H110" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A110)&gt;0,FALSE,TRUE)</f>
@@ -6231,7 +6205,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
@@ -6244,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H111" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A111)&gt;0,FALSE,TRUE)</f>
@@ -6283,87 +6257,87 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6388,13 +6362,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6424,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6436,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6448,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6460,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6481,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6493,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6505,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6517,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6543,7 +6517,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" t="b">
         <f>FALSE</f>
@@ -6552,7 +6526,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" t="b">
         <f>FALSE</f>
@@ -6561,7 +6535,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" t="b">
         <f>FALSE</f>
@@ -6570,7 +6544,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" t="b">
         <f>FALSE</f>
@@ -6579,7 +6553,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19" t="b">
         <f>FALSE</f>
@@ -6588,7 +6562,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" t="b">
         <f>FALSE</f>
@@ -6597,7 +6571,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" t="b">
         <f>FALSE</f>
@@ -6615,7 +6589,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B23" t="b">
         <f>FALSE</f>
@@ -6624,7 +6598,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B24" t="b">
         <f>FALSE</f>
@@ -6633,7 +6607,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B25" t="b">
         <f>FALSE</f>
@@ -6648,9 +6622,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6672,10 +6648,10 @@
         <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6723,7 +6699,7 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C4" t="b">
         <f>TRUE</f>
@@ -6743,7 +6719,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE</f>
@@ -6763,7 +6739,7 @@
         <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" t="b">
         <f>TRUE</f>
@@ -6783,7 +6759,7 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C7" t="b">
         <f>TRUE</f>
@@ -6803,7 +6779,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -6823,7 +6799,7 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -6843,7 +6819,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -6863,7 +6839,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -6883,7 +6859,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C12" t="b">
         <f>TRUE</f>
@@ -6903,7 +6879,7 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13" t="b">
         <f>TRUE</f>
@@ -6923,7 +6899,7 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C14" t="b">
         <f>TRUE</f>
@@ -6943,7 +6919,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C15" t="b">
         <f>TRUE</f>
@@ -6963,7 +6939,7 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C16" t="b">
         <f>TRUE</f>
@@ -6983,7 +6959,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C17" t="b">
         <f>TRUE</f>
@@ -7003,7 +6979,7 @@
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C18" t="b">
         <f>TRUE</f>
@@ -7023,7 +6999,7 @@
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C19" t="b">
         <f>TRUE</f>
@@ -7503,7 +7479,7 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C43" t="b">
         <f>TRUE</f>
@@ -7523,7 +7499,7 @@
         <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C44" t="b">
         <f>TRUE</f>
@@ -7543,7 +7519,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C45" t="b">
         <f>TRUE</f>
@@ -7563,7 +7539,7 @@
         <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C46" t="b">
         <f>TRUE</f>
@@ -9363,7 +9339,7 @@
         <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="C136" t="b">
         <f>TRUE</f>
@@ -9380,34 +9356,34 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C137" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D137" t="b">
         <f>VLOOKUP(A137,Módulos!A:B,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="str">
         <f>IF(C137,"Nenhuma",VLOOKUP(B137,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_turnovergeral</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
         <v>178</v>
       </c>
       <c r="C138" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D138" t="b">
         <f>VLOOKUP(A138,Módulos!A:B,2,FALSE)</f>
@@ -9415,15 +9391,15 @@
       </c>
       <c r="E138" t="str">
         <f>IF(C138,"Nenhuma",VLOOKUP(B138,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_turnovergeral</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" t="s">
         <v>179</v>
-      </c>
-      <c r="B139" t="s">
-        <v>180</v>
       </c>
       <c r="C139" t="b">
         <f>TRUE</f>
@@ -9440,10 +9416,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C140" t="b">
         <f>TRUE</f>
@@ -9460,10 +9436,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>182</v>
+      </c>
+      <c r="B141" t="s">
         <v>184</v>
-      </c>
-      <c r="B141" t="s">
-        <v>185</v>
       </c>
       <c r="C141" t="b">
         <f>TRUE</f>
@@ -9480,10 +9456,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C142" t="b">
         <f>TRUE</f>
@@ -9500,10 +9476,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C143" t="b">
         <f>TRUE</f>
@@ -9520,14 +9496,14 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C144" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D144" t="b">
         <f>VLOOKUP(A144,Módulos!A:B,2,FALSE)</f>
@@ -9535,15 +9511,15 @@
       </c>
       <c r="E144" t="str">
         <f>IF(C144,"Nenhuma",VLOOKUP(B144,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_indices_ampliados</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C145" t="b">
         <f>FALSE</f>
@@ -9560,10 +9536,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="C146" t="b">
         <f>FALSE</f>
@@ -9575,15 +9551,15 @@
       </c>
       <c r="E146" t="str">
         <f>IF(C146,"Nenhuma",VLOOKUP(B146,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_indices_ampliados</v>
+        <v>calcular_eventos</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B147" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C147" t="b">
         <f>FALSE</f>
@@ -9600,10 +9576,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B148" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C148" t="b">
         <f>FALSE</f>
@@ -9620,10 +9596,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B149" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C149" t="b">
         <f>FALSE</f>
@@ -9640,10 +9616,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B150" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C150" t="b">
         <f>FALSE</f>
@@ -9660,10 +9636,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C151" t="b">
         <f>FALSE</f>
@@ -9680,10 +9656,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B152" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C152" t="b">
         <f>FALSE</f>
@@ -9700,10 +9676,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C153" t="b">
         <f>FALSE</f>
@@ -9720,14 +9696,14 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="C154" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D154" t="b">
         <f>VLOOKUP(A154,Módulos!A:B,2,FALSE)</f>
@@ -9735,15 +9711,15 @@
       </c>
       <c r="E154" t="str">
         <f>IF(C154,"Nenhuma",VLOOKUP(B154,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_eventos</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B155" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C155" t="b">
         <f>TRUE</f>
@@ -9760,10 +9736,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B156" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C156" t="b">
         <f>TRUE</f>
@@ -9780,7 +9756,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B157" t="s">
         <v>199</v>
@@ -9800,10 +9776,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" t="s">
         <v>200</v>
-      </c>
-      <c r="B158" t="s">
-        <v>201</v>
       </c>
       <c r="C158" t="b">
         <f>TRUE</f>
@@ -9820,10 +9796,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B159" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C159" t="b">
         <f>TRUE</f>
@@ -9840,10 +9816,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B160" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C160" t="b">
         <f>TRUE</f>
@@ -9860,10 +9836,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B161" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C161" t="b">
         <f>TRUE</f>
@@ -9880,10 +9856,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C162" t="b">
         <f>TRUE</f>
@@ -9900,10 +9876,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B163" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C163" t="b">
         <f>TRUE</f>
@@ -9920,10 +9896,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C164" t="b">
         <f>TRUE</f>
@@ -9940,10 +9916,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B165" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="C165" t="b">
         <f>TRUE</f>
@@ -9960,14 +9936,14 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C166" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D166" t="b">
         <f>VLOOKUP(A166,Módulos!A:B,2,FALSE)</f>
@@ -9975,15 +9951,15 @@
       </c>
       <c r="E166" t="str">
         <f>IF(C166,"Nenhuma",VLOOKUP(B166,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_indices_ampliados</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B167" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C167" t="b">
         <f>FALSE</f>
@@ -10000,14 +9976,14 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="C168" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D168" t="b">
         <f>VLOOKUP(A168,Módulos!A:B,2,FALSE)</f>
@@ -10015,15 +9991,15 @@
       </c>
       <c r="E168" t="str">
         <f>IF(C168,"Nenhuma",VLOOKUP(B168,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_indices_ampliados</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="C169" t="b">
         <f>TRUE</f>
@@ -10040,14 +10016,14 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B170" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="C170" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D170" t="b">
         <f>VLOOKUP(A170,Módulos!A:B,2,FALSE)</f>
@@ -10055,15 +10031,15 @@
       </c>
       <c r="E170" t="str">
         <f>IF(C170,"Nenhuma",VLOOKUP(B170,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_turnovergeral</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C171" t="b">
         <f>FALSE</f>
@@ -10075,19 +10051,19 @@
       </c>
       <c r="E171" t="str">
         <f>IF(C171,"Nenhuma",VLOOKUP(B171,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_turnovergeral</v>
+        <v>calcular_indices_ampliados</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="C172" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D172" t="b">
         <f>VLOOKUP(A172,Módulos!A:B,2,FALSE)</f>
@@ -10095,19 +10071,19 @@
       </c>
       <c r="E172" t="str">
         <f>IF(C172,"Nenhuma",VLOOKUP(B172,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_indices_ampliados</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B173" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="C173" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D173" t="b">
         <f>VLOOKUP(A173,Módulos!A:B,2,FALSE)</f>
@@ -10115,19 +10091,19 @@
       </c>
       <c r="E173" t="str">
         <f>IF(C173,"Nenhuma",VLOOKUP(B173,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_indices_ampliados</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B174" t="s">
         <v>212</v>
       </c>
-      <c r="B174" t="s">
-        <v>163</v>
-      </c>
       <c r="C174" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D174" t="b">
         <f>VLOOKUP(A174,Módulos!A:B,2,FALSE)</f>
@@ -10135,15 +10111,15 @@
       </c>
       <c r="E174" t="str">
         <f>IF(C174,"Nenhuma",VLOOKUP(B174,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_indices_ampliados</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B175" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C175" t="b">
         <f>TRUE</f>
@@ -10160,10 +10136,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="B176" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="C176" t="b">
         <f>TRUE</f>
@@ -10183,7 +10159,7 @@
         <v>110</v>
       </c>
       <c r="B177" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="C177" t="b">
         <f>TRUE</f>
@@ -10203,7 +10179,7 @@
         <v>110</v>
       </c>
       <c r="B178" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C178" t="b">
         <f>TRUE</f>
@@ -10223,7 +10199,7 @@
         <v>110</v>
       </c>
       <c r="B179" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C179" t="b">
         <f>TRUE</f>
@@ -10243,7 +10219,7 @@
         <v>110</v>
       </c>
       <c r="B180" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C180" t="b">
         <f>TRUE</f>
@@ -10263,7 +10239,7 @@
         <v>110</v>
       </c>
       <c r="B181" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C181" t="b">
         <f>TRUE</f>
@@ -10283,7 +10259,7 @@
         <v>110</v>
       </c>
       <c r="B182" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C182" t="b">
         <f>TRUE</f>
@@ -10303,7 +10279,7 @@
         <v>110</v>
       </c>
       <c r="B183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C183" t="b">
         <f>TRUE</f>
@@ -10323,7 +10299,7 @@
         <v>110</v>
       </c>
       <c r="B184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C184" t="b">
         <f>TRUE</f>
@@ -10343,7 +10319,7 @@
         <v>110</v>
       </c>
       <c r="B185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C185" t="b">
         <f>TRUE</f>
@@ -10363,7 +10339,7 @@
         <v>110</v>
       </c>
       <c r="B186" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="C186" t="b">
         <f>TRUE</f>
@@ -10383,7 +10359,7 @@
         <v>110</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="C187" t="b">
         <f>TRUE</f>
@@ -10403,7 +10379,7 @@
         <v>110</v>
       </c>
       <c r="B188" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C188" t="b">
         <f>TRUE</f>
@@ -10423,7 +10399,7 @@
         <v>110</v>
       </c>
       <c r="B189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C189" t="b">
         <f>TRUE</f>
@@ -10443,7 +10419,7 @@
         <v>110</v>
       </c>
       <c r="B190" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C190" t="b">
         <f>TRUE</f>
@@ -10463,7 +10439,7 @@
         <v>110</v>
       </c>
       <c r="B191" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="C191" t="b">
         <f>TRUE</f>
@@ -10483,7 +10459,7 @@
         <v>110</v>
       </c>
       <c r="B192" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C192" t="b">
         <f>TRUE</f>
@@ -10503,7 +10479,7 @@
         <v>110</v>
       </c>
       <c r="B193" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="C193" t="b">
         <f>TRUE</f>
@@ -10523,7 +10499,7 @@
         <v>110</v>
       </c>
       <c r="B194" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C194" t="b">
         <f>TRUE</f>
@@ -10543,7 +10519,7 @@
         <v>110</v>
       </c>
       <c r="B195" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C195" t="b">
         <f>TRUE</f>
@@ -10563,7 +10539,7 @@
         <v>110</v>
       </c>
       <c r="B196" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C196" t="b">
         <f>TRUE</f>
@@ -10583,7 +10559,7 @@
         <v>110</v>
       </c>
       <c r="B197" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C197" t="b">
         <f>TRUE</f>
@@ -10603,7 +10579,7 @@
         <v>110</v>
       </c>
       <c r="B198" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C198" t="b">
         <f>TRUE</f>
@@ -10623,7 +10599,7 @@
         <v>110</v>
       </c>
       <c r="B199" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C199" t="b">
         <f>TRUE</f>
@@ -10643,7 +10619,7 @@
         <v>110</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C200" t="b">
         <f>TRUE</f>
@@ -10663,7 +10639,7 @@
         <v>110</v>
       </c>
       <c r="B201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C201" t="b">
         <f>TRUE</f>
@@ -10683,10 +10659,9 @@
         <v>110</v>
       </c>
       <c r="B202" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C202" t="b">
-        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D202" t="b">
@@ -10703,10 +10678,11 @@
         <v>110</v>
       </c>
       <c r="B203" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="C203" t="b">
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D203" t="b">
         <f>VLOOKUP(A203,Módulos!A:B,2,FALSE)</f>
@@ -10714,7 +10690,7 @@
       </c>
       <c r="E203" t="str">
         <f>IF(C203,"Nenhuma",VLOOKUP(B203,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_eventos</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -10722,7 +10698,7 @@
         <v>110</v>
       </c>
       <c r="B204" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C204" t="b">
         <f>FALSE</f>
@@ -10742,7 +10718,7 @@
         <v>110</v>
       </c>
       <c r="B205" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C205" t="b">
         <f>FALSE</f>
@@ -10762,7 +10738,7 @@
         <v>110</v>
       </c>
       <c r="B206" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C206" t="b">
         <f>FALSE</f>
@@ -10782,7 +10758,7 @@
         <v>110</v>
       </c>
       <c r="B207" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C207" t="b">
         <f>FALSE</f>
@@ -10802,7 +10778,7 @@
         <v>110</v>
       </c>
       <c r="B208" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C208" t="b">
         <f>FALSE</f>
@@ -10822,7 +10798,7 @@
         <v>110</v>
       </c>
       <c r="B209" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C209" t="b">
         <f>FALSE</f>
@@ -10842,7 +10818,7 @@
         <v>110</v>
       </c>
       <c r="B210" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C210" t="b">
         <f>FALSE</f>
@@ -10859,14 +10835,14 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B211" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="C211" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D211" t="b">
         <f>VLOOKUP(A211,Módulos!A:B,2,FALSE)</f>
@@ -10874,15 +10850,15 @@
       </c>
       <c r="E211" t="str">
         <f>IF(C211,"Nenhuma",VLOOKUP(B211,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_eventos</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>254</v>
+      </c>
+      <c r="B212" t="s">
         <v>256</v>
-      </c>
-      <c r="B212" t="s">
-        <v>257</v>
       </c>
       <c r="C212" t="b">
         <f>TRUE</f>
@@ -10899,14 +10875,14 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B213" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="C213" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D213" t="b">
         <f>VLOOKUP(A213,Módulos!A:B,2,FALSE)</f>
@@ -10914,15 +10890,15 @@
       </c>
       <c r="E213" t="str">
         <f>IF(C213,"Nenhuma",VLOOKUP(B213,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_eventos</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B214" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C214" t="b">
         <f>FALSE</f>
@@ -10939,10 +10915,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C215" t="b">
         <f>FALSE</f>
@@ -10959,10 +10935,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B216" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C216" t="b">
         <f>FALSE</f>
@@ -10979,14 +10955,14 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B217" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="C217" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D217" t="b">
         <f>VLOOKUP(A217,Módulos!A:B,2,FALSE)</f>
@@ -10994,15 +10970,15 @@
       </c>
       <c r="E217" t="str">
         <f>IF(C217,"Nenhuma",VLOOKUP(B217,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_eventos</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B218" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C218" t="b">
         <f>TRUE</f>
@@ -11019,10 +10995,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B219" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C219" t="b">
         <f>TRUE</f>
@@ -11039,10 +11015,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B220" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C220" t="b">
         <f>TRUE</f>
@@ -11059,10 +11035,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B221" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="C221" t="b">
         <f>TRUE</f>
@@ -11079,10 +11055,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B222" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C222" t="b">
         <f>TRUE</f>
@@ -11099,14 +11075,14 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C223" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D223" t="b">
         <f>VLOOKUP(A223,Módulos!A:B,2,FALSE)</f>
@@ -11114,15 +11090,15 @@
       </c>
       <c r="E223" t="str">
         <f>IF(C223,"Nenhuma",VLOOKUP(B223,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_beneficios_inss</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C224" t="b">
         <f>FALSE</f>
@@ -11139,10 +11115,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C225" t="b">
         <f>FALSE</f>
@@ -11159,10 +11135,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C226" t="b">
         <f>FALSE</f>
@@ -11179,14 +11155,14 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="C227" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D227" t="b">
         <f>VLOOKUP(A227,Módulos!A:B,2,FALSE)</f>
@@ -11194,15 +11170,15 @@
       </c>
       <c r="E227" t="str">
         <f>IF(C227,"Nenhuma",VLOOKUP(B227,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_beneficios_inss</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C228" t="b">
         <f>TRUE</f>
@@ -11219,10 +11195,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C229" t="b">
         <f>TRUE</f>
@@ -11239,10 +11215,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C230" t="b">
         <f>TRUE</f>
@@ -11259,10 +11235,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="C231" t="b">
         <f>TRUE</f>
@@ -11279,10 +11255,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" t="b">
         <f>TRUE</f>
@@ -11299,14 +11275,14 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="C233" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D233" t="b">
         <f>VLOOKUP(A233,Módulos!A:B,2,FALSE)</f>
@@ -11314,31 +11290,11 @@
       </c>
       <c r="E233" t="str">
         <f>IF(C233,"Nenhuma",VLOOKUP(B233,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>288</v>
-      </c>
-      <c r="B234" t="s">
-        <v>176</v>
-      </c>
-      <c r="C234" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="D234" t="b">
-        <f>VLOOKUP(A234,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E234" t="str">
-        <f>IF(C234,"Nenhuma",VLOOKUP(B234,Funcoes_Outputs!B:D,3,FALSE))</f>
         <v>calcular_turnovergeral</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E223" xr:uid="{D8C2AD8A-D29B-4ECE-B686-2DDAE10A4D17}"/>
+  <autoFilter ref="A1:E222" xr:uid="{D8C2AD8A-D29B-4ECE-B686-2DDAE10A4D17}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Custos!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funcoes_Inputs!$A$1:$E$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funcoes_Inputs!$A$1:$E$219</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$54</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="303">
   <si>
     <t>Ano</t>
   </si>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6622,10 +6622,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155:B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9719,7 +9719,7 @@
         <v>194</v>
       </c>
       <c r="B155" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C155" t="b">
         <f>TRUE</f>
@@ -9736,10 +9736,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="C156" t="b">
         <f>TRUE</f>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C157" t="b">
         <f>TRUE</f>
@@ -9776,10 +9776,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B158" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C158" t="b">
         <f>TRUE</f>
@@ -9796,10 +9796,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B159" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C159" t="b">
         <f>TRUE</f>
@@ -9819,7 +9819,7 @@
         <v>206</v>
       </c>
       <c r="B160" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C160" t="b">
         <f>TRUE</f>
@@ -9839,7 +9839,7 @@
         <v>206</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C161" t="b">
         <f>TRUE</f>
@@ -9859,7 +9859,7 @@
         <v>206</v>
       </c>
       <c r="B162" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C162" t="b">
         <f>TRUE</f>
@@ -9879,11 +9879,11 @@
         <v>206</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C163" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D163" t="b">
         <f>VLOOKUP(A163,Módulos!A:B,2,FALSE)</f>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E163" t="str">
         <f>IF(C163,"Nenhuma",VLOOKUP(B163,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_indices_ampliados</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -9899,11 +9899,11 @@
         <v>206</v>
       </c>
       <c r="B164" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="C164" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D164" t="b">
         <f>VLOOKUP(A164,Módulos!A:B,2,FALSE)</f>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="E164" t="str">
         <f>IF(C164,"Nenhuma",VLOOKUP(B164,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_indices_ampliados</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -9919,7 +9919,7 @@
         <v>206</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="C165" t="b">
         <f>TRUE</f>
@@ -9939,11 +9939,11 @@
         <v>206</v>
       </c>
       <c r="B166" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="C166" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D166" t="b">
         <f>VLOOKUP(A166,Módulos!A:B,2,FALSE)</f>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="E166" t="str">
         <f>IF(C166,"Nenhuma",VLOOKUP(B166,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_indices_ampliados</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -9959,7 +9959,7 @@
         <v>206</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C167" t="b">
         <f>FALSE</f>
@@ -9971,19 +9971,19 @@
       </c>
       <c r="E167" t="str">
         <f>IF(C167,"Nenhuma",VLOOKUP(B167,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_indices_ampliados</v>
+        <v>calcular_turnovergeral</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B168" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="C168" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D168" t="b">
         <f>VLOOKUP(A168,Módulos!A:B,2,FALSE)</f>
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E168" t="str">
         <f>IF(C168,"Nenhuma",VLOOKUP(B168,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_indices_ampliados</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B169" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C169" t="b">
         <f>TRUE</f>
@@ -10016,10 +10016,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B170" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C170" t="b">
         <f>FALSE</f>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="E170" t="str">
         <f>IF(C170,"Nenhuma",VLOOKUP(B170,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_turnovergeral</v>
+        <v>calcular_indices_ampliados</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10039,11 +10039,11 @@
         <v>210</v>
       </c>
       <c r="B171" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="C171" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D171" t="b">
         <f>VLOOKUP(A171,Módulos!A:B,2,FALSE)</f>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="E171" t="str">
         <f>IF(C171,"Nenhuma",VLOOKUP(B171,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_indices_ampliados</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10059,7 +10059,7 @@
         <v>210</v>
       </c>
       <c r="B172" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C172" t="b">
         <f>TRUE</f>
@@ -10076,14 +10076,14 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="C173" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D173" t="b">
         <f>VLOOKUP(A173,Módulos!A:B,2,FALSE)</f>
@@ -10091,15 +10091,15 @@
       </c>
       <c r="E173" t="str">
         <f>IF(C173,"Nenhuma",VLOOKUP(B173,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_indices_ampliados</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="B174" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C174" t="b">
         <f>TRUE</f>
@@ -10116,10 +10116,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="B175" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C175" t="b">
         <f>TRUE</f>
@@ -10139,7 +10139,7 @@
         <v>110</v>
       </c>
       <c r="B176" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="C176" t="b">
         <f>TRUE</f>
@@ -10159,7 +10159,7 @@
         <v>110</v>
       </c>
       <c r="B177" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C177" t="b">
         <f>TRUE</f>
@@ -10179,7 +10179,7 @@
         <v>110</v>
       </c>
       <c r="B178" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C178" t="b">
         <f>TRUE</f>
@@ -10199,7 +10199,7 @@
         <v>110</v>
       </c>
       <c r="B179" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C179" t="b">
         <f>TRUE</f>
@@ -10219,7 +10219,7 @@
         <v>110</v>
       </c>
       <c r="B180" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C180" t="b">
         <f>TRUE</f>
@@ -10239,7 +10239,7 @@
         <v>110</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C181" t="b">
         <f>TRUE</f>
@@ -10259,7 +10259,7 @@
         <v>110</v>
       </c>
       <c r="B182" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C182" t="b">
         <f>TRUE</f>
@@ -10279,7 +10279,7 @@
         <v>110</v>
       </c>
       <c r="B183" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="C183" t="b">
         <f>TRUE</f>
@@ -10299,7 +10299,7 @@
         <v>110</v>
       </c>
       <c r="B184" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C184" t="b">
         <f>TRUE</f>
@@ -10319,7 +10319,7 @@
         <v>110</v>
       </c>
       <c r="B185" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C185" t="b">
         <f>TRUE</f>
@@ -10339,7 +10339,7 @@
         <v>110</v>
       </c>
       <c r="B186" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="C186" t="b">
         <f>TRUE</f>
@@ -10359,7 +10359,7 @@
         <v>110</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C187" t="b">
         <f>TRUE</f>
@@ -10379,7 +10379,7 @@
         <v>110</v>
       </c>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="C188" t="b">
         <f>TRUE</f>
@@ -10399,7 +10399,7 @@
         <v>110</v>
       </c>
       <c r="B189" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="C189" t="b">
         <f>TRUE</f>
@@ -10419,7 +10419,7 @@
         <v>110</v>
       </c>
       <c r="B190" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C190" t="b">
         <f>TRUE</f>
@@ -10439,7 +10439,7 @@
         <v>110</v>
       </c>
       <c r="B191" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="C191" t="b">
         <f>TRUE</f>
@@ -10459,7 +10459,7 @@
         <v>110</v>
       </c>
       <c r="B192" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="C192" t="b">
         <f>TRUE</f>
@@ -10479,7 +10479,7 @@
         <v>110</v>
       </c>
       <c r="B193" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C193" t="b">
         <f>TRUE</f>
@@ -10499,7 +10499,7 @@
         <v>110</v>
       </c>
       <c r="B194" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C194" t="b">
         <f>TRUE</f>
@@ -10519,7 +10519,7 @@
         <v>110</v>
       </c>
       <c r="B195" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C195" t="b">
         <f>TRUE</f>
@@ -10539,7 +10539,7 @@
         <v>110</v>
       </c>
       <c r="B196" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C196" t="b">
         <f>TRUE</f>
@@ -10559,7 +10559,7 @@
         <v>110</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C197" t="b">
         <f>TRUE</f>
@@ -10579,7 +10579,7 @@
         <v>110</v>
       </c>
       <c r="B198" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C198" t="b">
         <f>TRUE</f>
@@ -10599,10 +10599,9 @@
         <v>110</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C199" t="b">
-        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D199" t="b">
@@ -10619,11 +10618,11 @@
         <v>110</v>
       </c>
       <c r="B200" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="C200" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D200" t="b">
         <f>VLOOKUP(A200,Módulos!A:B,2,FALSE)</f>
@@ -10631,7 +10630,7 @@
       </c>
       <c r="E200" t="str">
         <f>IF(C200,"Nenhuma",VLOOKUP(B200,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_eventos</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -10639,11 +10638,11 @@
         <v>110</v>
       </c>
       <c r="B201" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="C201" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D201" t="b">
         <f>VLOOKUP(A201,Módulos!A:B,2,FALSE)</f>
@@ -10651,7 +10650,7 @@
       </c>
       <c r="E201" t="str">
         <f>IF(C201,"Nenhuma",VLOOKUP(B201,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_eventos</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -10659,10 +10658,11 @@
         <v>110</v>
       </c>
       <c r="B202" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="C202" t="b">
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D202" t="b">
         <f>VLOOKUP(A202,Módulos!A:B,2,FALSE)</f>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="E202" t="str">
         <f>IF(C202,"Nenhuma",VLOOKUP(B202,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_eventos</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -10678,7 +10678,7 @@
         <v>110</v>
       </c>
       <c r="B203" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C203" t="b">
         <f>FALSE</f>
@@ -10698,7 +10698,7 @@
         <v>110</v>
       </c>
       <c r="B204" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C204" t="b">
         <f>FALSE</f>
@@ -10718,7 +10718,7 @@
         <v>110</v>
       </c>
       <c r="B205" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C205" t="b">
         <f>FALSE</f>
@@ -10738,7 +10738,7 @@
         <v>110</v>
       </c>
       <c r="B206" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C206" t="b">
         <f>FALSE</f>
@@ -10758,7 +10758,7 @@
         <v>110</v>
       </c>
       <c r="B207" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C207" t="b">
         <f>FALSE</f>
@@ -10775,14 +10775,14 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B208" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="C208" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D208" t="b">
         <f>VLOOKUP(A208,Módulos!A:B,2,FALSE)</f>
@@ -10790,19 +10790,19 @@
       </c>
       <c r="E208" t="str">
         <f>IF(C208,"Nenhuma",VLOOKUP(B208,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_eventos</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B209" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="C209" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D209" t="b">
         <f>VLOOKUP(A209,Módulos!A:B,2,FALSE)</f>
@@ -10810,15 +10810,15 @@
       </c>
       <c r="E209" t="str">
         <f>IF(C209,"Nenhuma",VLOOKUP(B209,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_eventos</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B210" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C210" t="b">
         <f>FALSE</f>
@@ -10838,11 +10838,11 @@
         <v>254</v>
       </c>
       <c r="B211" t="s">
-        <v>255</v>
+        <v>88</v>
       </c>
       <c r="C211" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D211" t="b">
         <f>VLOOKUP(A211,Módulos!A:B,2,FALSE)</f>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="E211" t="str">
         <f>IF(C211,"Nenhuma",VLOOKUP(B211,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_eventos</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -10858,11 +10858,11 @@
         <v>254</v>
       </c>
       <c r="B212" t="s">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="C212" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D212" t="b">
         <f>VLOOKUP(A212,Módulos!A:B,2,FALSE)</f>
@@ -10870,7 +10870,7 @@
       </c>
       <c r="E212" t="str">
         <f>IF(C212,"Nenhuma",VLOOKUP(B212,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_eventos</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -10878,7 +10878,7 @@
         <v>254</v>
       </c>
       <c r="B213" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C213" t="b">
         <f>FALSE</f>
@@ -10898,11 +10898,11 @@
         <v>254</v>
       </c>
       <c r="B214" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="C214" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D214" t="b">
         <f>VLOOKUP(A214,Módulos!A:B,2,FALSE)</f>
@@ -10910,19 +10910,19 @@
       </c>
       <c r="E214" t="str">
         <f>IF(C214,"Nenhuma",VLOOKUP(B214,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_eventos</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B215" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="C215" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D215" t="b">
         <f>VLOOKUP(A215,Módulos!A:B,2,FALSE)</f>
@@ -10930,19 +10930,19 @@
       </c>
       <c r="E215" t="str">
         <f>IF(C215,"Nenhuma",VLOOKUP(B215,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_eventos</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B216" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C216" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D216" t="b">
         <f>VLOOKUP(A216,Módulos!A:B,2,FALSE)</f>
@@ -10950,12 +10950,12 @@
       </c>
       <c r="E216" t="str">
         <f>IF(C216,"Nenhuma",VLOOKUP(B216,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_eventos</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B217" t="s">
         <v>257</v>
@@ -10978,7 +10978,7 @@
         <v>262</v>
       </c>
       <c r="B218" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="C218" t="b">
         <f>TRUE</f>
@@ -10998,7 +10998,7 @@
         <v>262</v>
       </c>
       <c r="B219" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="C219" t="b">
         <f>TRUE</f>
@@ -11015,14 +11015,14 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="C220" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D220" t="b">
         <f>VLOOKUP(A220,Módulos!A:B,2,FALSE)</f>
@@ -11030,19 +11030,19 @@
       </c>
       <c r="E220" t="str">
         <f>IF(C220,"Nenhuma",VLOOKUP(B220,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_beneficios_inss</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C221" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D221" t="b">
         <f>VLOOKUP(A221,Módulos!A:B,2,FALSE)</f>
@@ -11050,19 +11050,19 @@
       </c>
       <c r="E221" t="str">
         <f>IF(C221,"Nenhuma",VLOOKUP(B221,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_beneficios_inss</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C222" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D222" t="b">
         <f>VLOOKUP(A222,Módulos!A:B,2,FALSE)</f>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="E222" t="str">
         <f>IF(C222,"Nenhuma",VLOOKUP(B222,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_beneficios_inss</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -11078,7 +11078,7 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C223" t="b">
         <f>FALSE</f>
@@ -11098,11 +11098,11 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="C224" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D224" t="b">
         <f>VLOOKUP(A224,Módulos!A:B,2,FALSE)</f>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="E224" t="str">
         <f>IF(C224,"Nenhuma",VLOOKUP(B224,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_beneficios_inss</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -11118,11 +11118,11 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="C225" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D225" t="b">
         <f>VLOOKUP(A225,Módulos!A:B,2,FALSE)</f>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="E225" t="str">
         <f>IF(C225,"Nenhuma",VLOOKUP(B225,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_beneficios_inss</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -11138,11 +11138,11 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="C226" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D226" t="b">
         <f>VLOOKUP(A226,Módulos!A:B,2,FALSE)</f>
@@ -11150,7 +11150,7 @@
       </c>
       <c r="E226" t="str">
         <f>IF(C226,"Nenhuma",VLOOKUP(B226,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_beneficios_inss</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -11158,7 +11158,7 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C227" t="b">
         <f>TRUE</f>
@@ -11178,7 +11178,7 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>241</v>
+        <v>2</v>
       </c>
       <c r="C228" t="b">
         <f>TRUE</f>
@@ -11198,7 +11198,7 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="C229" t="b">
         <f>TRUE</f>
@@ -11218,11 +11218,11 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="C230" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D230" t="b">
         <f>VLOOKUP(A230,Módulos!A:B,2,FALSE)</f>
@@ -11230,71 +11230,11 @@
       </c>
       <c r="E230" t="str">
         <f>IF(C230,"Nenhuma",VLOOKUP(B230,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>286</v>
-      </c>
-      <c r="B231" t="s">
-        <v>2</v>
-      </c>
-      <c r="C231" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D231" t="b">
-        <f>VLOOKUP(A231,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E231" t="str">
-        <f>IF(C231,"Nenhuma",VLOOKUP(B231,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>286</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D232" t="b">
-        <f>VLOOKUP(A232,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E232" t="str">
-        <f>IF(C232,"Nenhuma",VLOOKUP(B232,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>286</v>
-      </c>
-      <c r="B233" t="s">
-        <v>175</v>
-      </c>
-      <c r="C233" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="D233" t="b">
-        <f>VLOOKUP(A233,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E233" t="str">
-        <f>IF(C233,"Nenhuma",VLOOKUP(B233,Funcoes_Outputs!B:D,3,FALSE))</f>
         <v>calcular_turnovergeral</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E222" xr:uid="{D8C2AD8A-D29B-4ECE-B686-2DDAE10A4D17}"/>
+  <autoFilter ref="A1:E219" xr:uid="{D8C2AD8A-D29B-4ECE-B686-2DDAE10A4D17}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -24,10 +24,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Custos!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funcoes_Inputs!$A$1:$E$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funcoes_Inputs!$A$1:$E$217</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$53</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
     <definedName name="CategoriaSAT">Configs!$C$2:$C$2</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="306">
   <si>
     <t>Ano</t>
   </si>
@@ -815,9 +815,6 @@
     <t>DiasInterrupcaoAcidenteOutros</t>
   </si>
   <si>
-    <t>LucroCessanteDiario</t>
-  </si>
-  <si>
     <t>DiasTotaisInterrupcaoAcidente</t>
   </si>
   <si>
@@ -951,6 +948,18 @@
   </si>
   <si>
     <t>SeedFixa</t>
+  </si>
+  <si>
+    <t>LucroCessanteAcidenteObito</t>
+  </si>
+  <si>
+    <t>LucroCessanteAcidenteOutros</t>
+  </si>
+  <si>
+    <t>LucroCessanteInterdicaoFiscalizacao</t>
+  </si>
+  <si>
+    <t>normaltruncada</t>
   </si>
 </sst>
 </file>
@@ -963,7 +972,22 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,7 +1034,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,6 +1067,8 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1484,7 +1510,7 @@
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,7 +2266,7 @@
         <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -2300,7 +2326,7 @@
         <v>254</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -2312,7 +2338,7 @@
         <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -2321,10 +2347,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71" t="s">
         <v>262</v>
-      </c>
-      <c r="B71" t="s">
-        <v>263</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -2333,7 +2359,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B72" t="s">
         <v>239</v>
@@ -2345,10 +2371,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" t="s">
         <v>286</v>
-      </c>
-      <c r="B73" t="s">
-        <v>287</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -2357,10 +2383,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -2369,10 +2395,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -2381,10 +2407,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -2393,10 +2419,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -2405,10 +2431,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -2417,10 +2443,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -2429,10 +2455,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -2441,10 +2467,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -2453,10 +2479,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -2465,7 +2491,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
@@ -2651,7 +2677,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -2665,7 +2691,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -3581,7 +3607,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" t="b">
         <f>TRUE</f>
@@ -3746,2487 +3772,2612 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>302</v>
+      <c r="H1" s="18" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="19">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="19">
         <f t="shared" ref="D2:D9" si="0">C2*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="G2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2" t="b">
+      <c r="G2" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A2)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="19">
         <v>1000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H3" t="b">
+      <c r="G3" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A3)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="19">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="19">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H4" t="b">
+      <c r="G4" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A4)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="19">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" t="b">
+      <c r="G5" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A5)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="19">
         <v>0.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="G6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" t="b">
+      <c r="G6" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A6)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="19">
         <v>0.01</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-      <c r="G7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" t="b">
+      <c r="G7" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A7)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="19">
         <v>2500</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H8" t="b">
+      <c r="G8" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A8)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="19">
         <v>2000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G9" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" t="b">
+      <c r="G9" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A9)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="19">
         <v>2000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="19">
         <f t="shared" ref="D10" si="1">C10*0.01</f>
         <v>20</v>
       </c>
-      <c r="G10" t="s">
-        <v>283</v>
-      </c>
-      <c r="H10" t="b">
+      <c r="G10" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A10)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="19">
         <v>0.1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="19">
         <f t="shared" ref="D11" si="2">C11*0.01</f>
         <v>1E-3</v>
       </c>
-      <c r="G11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H11" t="b">
+      <c r="G11" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A11)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="19">
         <v>1000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="19">
         <f t="shared" ref="D12" si="3">C12*0.01</f>
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" t="b">
+      <c r="G12" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A12)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="19">
         <v>0.1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="19">
         <f t="shared" ref="D13:D14" si="4">C13*0.01</f>
         <v>1E-3</v>
       </c>
-      <c r="G13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H13" t="b">
+      <c r="G13" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A13)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="19">
         <v>1000</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="19">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" t="b">
+      <c r="G14" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A14)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
         <f t="shared" ref="D15" si="5">C15*0.01</f>
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" t="b">
+      <c r="G15" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A15)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
         <f t="shared" ref="D16" si="6">C16*0.01</f>
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H16" t="b">
+      <c r="G16" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H16" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A16)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="19">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="19">
         <f t="shared" ref="D17" si="7">C17*0.01</f>
         <v>0.1</v>
       </c>
-      <c r="G17" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" t="b">
+      <c r="G17" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A17)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
         <f t="shared" ref="D18:D19" si="8">C18*0.01</f>
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>283</v>
-      </c>
-      <c r="H18" t="b">
+      <c r="G18" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A18)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="19">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="19">
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="G19" t="s">
-        <v>283</v>
-      </c>
-      <c r="H19" t="b">
+      <c r="G19" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A19)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="19">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="19">
         <f t="shared" ref="D20:D24" si="9">C20*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="G20" t="s">
-        <v>283</v>
-      </c>
-      <c r="H20" t="b">
+      <c r="G20" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A20)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="19">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="19">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="G21" t="s">
-        <v>283</v>
-      </c>
-      <c r="H21" t="b">
+      <c r="G21" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A21)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="19">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="19">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="G22" t="s">
-        <v>283</v>
-      </c>
-      <c r="H22" t="b">
+      <c r="G22" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A22)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="19">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="19">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="G23" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" t="b">
+      <c r="G23" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A23)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="19">
         <v>500</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="19">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="G24" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" t="b">
+      <c r="G24" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A24)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="19">
         <v>500</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="19">
         <f t="shared" ref="D25:D33" si="10">C25*0.01</f>
         <v>5</v>
       </c>
-      <c r="G25" t="s">
-        <v>283</v>
-      </c>
-      <c r="H25" t="b">
+      <c r="G25" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A25)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="19">
         <v>500</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="19">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G26" t="s">
-        <v>283</v>
-      </c>
-      <c r="H26" t="b">
+      <c r="G26" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A26)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="19">
         <v>500</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="19">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>283</v>
-      </c>
-      <c r="H27" t="b">
+      <c r="G27" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H27" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A27)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="19">
         <v>500</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="19">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G28" t="s">
-        <v>283</v>
-      </c>
-      <c r="H28" t="b">
+      <c r="G28" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A28)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>283</v>
-      </c>
-      <c r="H29" t="b">
+      <c r="G29" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A29)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="H30" t="b">
+      <c r="G30" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H30" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A30)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>283</v>
-      </c>
-      <c r="H31" t="b">
+      <c r="G31" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A31)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" t="b">
+      <c r="G32" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A32)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="19">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G33" t="s">
-        <v>283</v>
-      </c>
-      <c r="H33" t="b">
+      <c r="G33" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A33)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="19">
         <v>10</v>
       </c>
-      <c r="D34">
-        <f t="shared" ref="D34:D36" si="11">C34*0.01</f>
+      <c r="D34" s="19">
+        <f t="shared" ref="D34:D35" si="11">C34*0.01</f>
         <v>0.1</v>
       </c>
-      <c r="G34" t="s">
-        <v>283</v>
-      </c>
-      <c r="H34" t="b">
+      <c r="G34" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A34)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="19">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="G35" t="s">
-        <v>283</v>
-      </c>
-      <c r="H35" t="b">
+      <c r="G35" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H35" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A35)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>257</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C36">
-        <v>1000</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="11"/>
+      <c r="C36" s="19">
+        <v>2</v>
+      </c>
+      <c r="D36" s="19">
+        <f t="shared" ref="D36:D37" si="12">C36*0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A36)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="19">
         <v>10</v>
       </c>
-      <c r="G36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H36" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A36)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>260</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ref="D37:D38" si="12">C37*0.01</f>
-        <v>0.02</v>
-      </c>
-      <c r="G37" t="s">
-        <v>283</v>
-      </c>
-      <c r="H37" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A37)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>261</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38">
+      <c r="D37" s="19">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="G38" t="s">
-        <v>283</v>
-      </c>
-      <c r="H38" t="b">
+      <c r="G37" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A37)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D38" s="19">
+        <f t="shared" ref="D38" si="13">C38*0.01</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H38" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A38)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D39">
-        <f t="shared" ref="D39" si="13">C39*0.01</f>
+      <c r="D39" s="19">
+        <f t="shared" ref="D39:D41" si="14">C39*0.01</f>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G39" t="s">
-        <v>283</v>
-      </c>
-      <c r="H39" t="b">
+      <c r="G39" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A39)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D40">
-        <f t="shared" ref="D40:D42" si="14">C40*0.01</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="G40" t="s">
-        <v>283</v>
-      </c>
-      <c r="H40" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A40)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>269</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D41">
+      <c r="D40" s="19">
         <f t="shared" si="14"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G41" t="s">
-        <v>283</v>
-      </c>
-      <c r="H41" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A41)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>270</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="G40" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H40" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A40)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C42">
+      <c r="C41" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D42">
+      <c r="D41" s="19">
         <f t="shared" si="14"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G42" t="s">
-        <v>283</v>
-      </c>
-      <c r="H42" t="b">
+      <c r="G41" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A41)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D42" s="19">
+        <f t="shared" ref="D42:D93" si="15">C42*0.01</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H42" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A42)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D43">
-        <f t="shared" ref="D43:D95" si="15">C43*0.01</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>283</v>
-      </c>
-      <c r="H43" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A43)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D44">
+      <c r="D43" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G44" t="s">
-        <v>283</v>
-      </c>
-      <c r="H44" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A44)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>273</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="G43" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H43" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A43)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C45">
+      <c r="C44" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D45">
+      <c r="D44" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G45" t="s">
-        <v>283</v>
-      </c>
-      <c r="H45" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A45)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="G44" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H44" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A44)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C46">
+      <c r="C45" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D46">
+      <c r="D45" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G46" t="s">
-        <v>283</v>
-      </c>
-      <c r="H46" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A46)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>275</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="G45" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H45" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A45)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C47">
+      <c r="C46" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D47">
+      <c r="D46" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G47" t="s">
-        <v>283</v>
-      </c>
-      <c r="H47" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A47)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="G46" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H46" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A46)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C48">
+      <c r="C47" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D48">
+      <c r="D47" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G48" t="s">
-        <v>283</v>
-      </c>
-      <c r="H48" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A48)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>277</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="G47" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H47" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A47)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C49">
+      <c r="C48" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D49">
+      <c r="D48" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G49" t="s">
-        <v>283</v>
-      </c>
-      <c r="H49" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A49)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="G48" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H48" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A48)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C50">
+      <c r="C49" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D50">
+      <c r="D49" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G50" t="s">
-        <v>283</v>
-      </c>
-      <c r="H50" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A50)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>279</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="G49" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H49" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A49)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C51">
+      <c r="C50" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D51">
+      <c r="D50" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G51" t="s">
-        <v>283</v>
-      </c>
-      <c r="H51" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A51)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>280</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="G50" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A50)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C52">
+      <c r="C51" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D52">
+      <c r="D51" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G52" t="s">
-        <v>283</v>
-      </c>
-      <c r="H52" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A52)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>281</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="G51" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H51" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A51)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C53">
+      <c r="C52" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D53">
+      <c r="D52" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G53" t="s">
-        <v>283</v>
-      </c>
-      <c r="H53" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A53)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="G52" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B54" t="s">
+      <c r="H52" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A52)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C54">
+      <c r="C53" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D54">
+      <c r="D53" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G54" t="s">
-        <v>283</v>
-      </c>
-      <c r="H54" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A54)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="G53" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H53" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A53)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B54" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C55">
+      <c r="C54" s="19">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D54" s="19">
         <f t="shared" si="15"/>
         <v>0.03</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G54" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H55" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A55)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="H54" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A54)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B55" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C56">
+      <c r="C55" s="19">
         <v>800</v>
       </c>
-      <c r="D56">
+      <c r="D55" s="19">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G55" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H56" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A56)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="H55" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A55)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B56" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C57">
+      <c r="C56" s="19">
         <v>3</v>
       </c>
-      <c r="D57">
+      <c r="D56" s="19">
         <f t="shared" si="15"/>
         <v>0.03</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G56" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H57" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A57)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="H56" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A56)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B57" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C58">
+      <c r="C57" s="19">
         <v>0.2</v>
       </c>
-      <c r="D58">
+      <c r="D57" s="19">
         <f t="shared" si="15"/>
         <v>2E-3</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G57" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H58" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A58)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="H57" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A57)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B58" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C59">
+      <c r="C58" s="19">
         <v>0.05</v>
       </c>
-      <c r="D59">
+      <c r="D58" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G58" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H59" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A59)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
+      <c r="H58" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A58)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B59" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C60">
+      <c r="C59" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D60">
+      <c r="D59" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G59" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H60" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A60)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="H59" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A59)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B60" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C61">
+      <c r="C60" s="19">
         <v>1500</v>
       </c>
-      <c r="D61">
+      <c r="D60" s="19">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G60" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H61" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A61)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="H60" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A60)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B61" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C62">
+      <c r="C61" s="19">
         <v>1500</v>
       </c>
-      <c r="D62">
+      <c r="D61" s="19">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G61" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H62" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A62)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="H61" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A61)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B62" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C63">
+      <c r="C62" s="19">
         <v>1500</v>
       </c>
-      <c r="D63">
+      <c r="D62" s="19">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G62" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H63" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A63)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="H62" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A62)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B63" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C64">
+      <c r="C63" s="19">
         <v>0.01</v>
       </c>
-      <c r="D64">
+      <c r="D63" s="19">
         <f t="shared" si="15"/>
         <v>1E-4</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G63" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H64" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A64)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="H63" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A63)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B64" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C65">
+      <c r="C64" s="19">
         <v>800</v>
       </c>
-      <c r="D65">
+      <c r="D64" s="19">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G64" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H65" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A65)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="H64" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A64)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C66">
+      <c r="C65" s="19">
         <v>0.05</v>
       </c>
-      <c r="D66">
+      <c r="D65" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G65" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H66" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A66)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="H65" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A65)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B66" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C67">
+      <c r="C66" s="19">
         <v>800</v>
       </c>
-      <c r="D67">
+      <c r="D66" s="19">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G66" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H67" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A67)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="H66" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A66)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B67" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C68">
+      <c r="C67" s="19">
         <v>0.1</v>
       </c>
-      <c r="D68">
+      <c r="D67" s="19">
         <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G67" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H68" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A68)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="H67" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A67)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B68" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C69">
+      <c r="C68" s="19">
         <v>0.1</v>
       </c>
-      <c r="D69">
+      <c r="D68" s="19">
         <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G68" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H69" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A69)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="H68" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A68)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B69" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C70">
+      <c r="C69" s="19">
         <v>8</v>
       </c>
-      <c r="D70">
+      <c r="D69" s="19">
         <f t="shared" si="15"/>
         <v>0.08</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G69" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H70" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A70)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="H69" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A69)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B70" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C71">
+      <c r="C70" s="19">
         <v>10000</v>
       </c>
-      <c r="D71">
+      <c r="D70" s="19">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G70" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H71" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A71)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="H70" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A70)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B71" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
+      <c r="C71" s="19">
+        <v>1</v>
+      </c>
+      <c r="D71" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G71" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H72" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A72)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="H71" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A71)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B72" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
+      <c r="C72" s="19">
+        <v>1</v>
+      </c>
+      <c r="D72" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G72" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H73" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A73)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="H72" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A72)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B73" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
+      <c r="C73" s="19">
+        <v>1</v>
+      </c>
+      <c r="D73" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G73" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H74" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A74)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="H73" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A73)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B74" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
+      <c r="C74" s="19">
+        <v>1</v>
+      </c>
+      <c r="D74" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G74" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H75" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A75)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="H74" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A74)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B75" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
+      <c r="C75" s="19">
+        <v>1</v>
+      </c>
+      <c r="D75" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G75" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H76" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A76)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="H75" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A75)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B76" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C77">
+      <c r="C76" s="19">
         <v>300</v>
       </c>
-      <c r="D77">
+      <c r="D76" s="19">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G76" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H77" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A77)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="H76" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A76)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B77" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C78">
+      <c r="C77" s="19">
         <v>300</v>
       </c>
-      <c r="D78">
+      <c r="D77" s="19">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G77" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H78" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A78)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="H77" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A77)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B78" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C79">
+      <c r="C78" s="19">
         <v>300</v>
       </c>
-      <c r="D79">
+      <c r="D78" s="19">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G78" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H79" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A79)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="H78" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A78)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B79" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C80">
+      <c r="C79" s="19">
         <v>300</v>
       </c>
-      <c r="D80">
+      <c r="D79" s="19">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G79" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H80" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A80)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="H79" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A79)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B80" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C81">
+      <c r="C80" s="19">
         <v>300</v>
       </c>
-      <c r="D81">
+      <c r="D80" s="19">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G80" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H81" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A81)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="H80" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A80)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B81" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
+      <c r="C81" s="19">
+        <v>1</v>
+      </c>
+      <c r="D81" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G81" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H82" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A82)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="H81" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A81)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B82" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
+      <c r="C82" s="19">
+        <v>1</v>
+      </c>
+      <c r="D82" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G82" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H83" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A83)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="H82" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A82)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B83" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
+      <c r="C83" s="19">
+        <v>1</v>
+      </c>
+      <c r="D83" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G83" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H84" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A84)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="H83" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A83)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B84" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
+      <c r="C84" s="19">
+        <v>1</v>
+      </c>
+      <c r="D84" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G84" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H85" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A85)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="H84" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A84)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B85" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
+      <c r="C85" s="19">
+        <v>1</v>
+      </c>
+      <c r="D85" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G85" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H86" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A86)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="H85" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A85)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B86" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C87">
+      <c r="C86" s="19">
         <v>8</v>
       </c>
-      <c r="D87">
+      <c r="D86" s="19">
         <f t="shared" si="15"/>
         <v>0.08</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G86" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H87" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A87)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="H86" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A86)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B87" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C88">
+      <c r="C87" s="19">
         <v>0.5</v>
       </c>
-      <c r="D88">
+      <c r="D87" s="19">
         <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G87" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H88" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A88)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>257</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="H87" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A87)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C89">
-        <v>800</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A89)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
+      <c r="C88" s="19">
+        <v>1</v>
+      </c>
+      <c r="D88" s="19">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G88" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H90" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A90)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>261</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="H88" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A88)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C91">
+      <c r="C89" s="19">
         <v>7</v>
       </c>
-      <c r="D91">
+      <c r="D89" s="19">
         <f t="shared" si="15"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G89" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H91" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A91)&gt;0,FALSE,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>267</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="H89" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A89)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C92">
+      <c r="C90" s="19">
         <f>0.0005/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D92">
+      <c r="D90" s="19">
         <f t="shared" si="15"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G90" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H92" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A92)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>268</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="H90" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A90)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C93">
-        <f t="shared" ref="C93:C107" si="16">0.0005/2</f>
+      <c r="C91" s="19">
+        <f t="shared" ref="C91:C105" si="16">0.0005/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D93">
+      <c r="D91" s="19">
         <f t="shared" si="15"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G91" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H93" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A93)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>269</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="H91" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A91)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C94">
+      <c r="C92" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D94">
+      <c r="D92" s="19">
         <f t="shared" si="15"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G92" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H94" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A94)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>270</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="H92" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A92)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C95">
+      <c r="C93" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D95">
+      <c r="D93" s="19">
         <f t="shared" si="15"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H95" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A95)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>271</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="H93" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A93)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C96">
+      <c r="C94" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D96">
-        <f t="shared" ref="D96:D108" si="17">C96*0.01</f>
+      <c r="D94" s="19">
+        <f t="shared" ref="D94:D106" si="17">C94*0.01</f>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G94" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H96" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A96)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>272</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="H94" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A94)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C97">
+      <c r="C95" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D97">
+      <c r="D95" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G95" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H97" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A97)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>273</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="H95" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A95)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C98">
+      <c r="C96" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D98">
+      <c r="D96" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G96" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H98" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A98)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>274</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="H96" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A96)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C99">
+      <c r="C97" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D99">
+      <c r="D97" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G97" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H99" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A99)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>275</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="H97" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A97)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C100">
+      <c r="C98" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D100">
+      <c r="D98" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G98" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H100" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A100)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>276</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="H98" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A98)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C101">
+      <c r="C99" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D101">
+      <c r="D99" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G99" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H101" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A101)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>277</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="H99" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A99)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B100" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C102">
+      <c r="C100" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D102">
+      <c r="D100" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G100" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H102" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A102)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>278</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="H100" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A100)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C103">
+      <c r="C101" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D103">
+      <c r="D101" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G101" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H103" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A103)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>279</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="H101" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A101)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C104">
+      <c r="C102" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D104">
+      <c r="D102" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G102" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H104" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A104)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>280</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="H102" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A102)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C105">
+      <c r="C103" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D105">
+      <c r="D103" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G103" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H105" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A105)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>281</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="H103" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A103)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C106">
+      <c r="C104" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D106">
+      <c r="D104" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G104" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H106" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A106)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>282</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="H104" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A104)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C107">
+      <c r="C105" s="19">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D107">
+      <c r="D105" s="19">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G105" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H107" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A107)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>264</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="H105" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A105)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C108">
+      <c r="C106" s="19">
         <v>1000</v>
       </c>
-      <c r="D108">
+      <c r="D106" s="19">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G106" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H108" t="b">
+      <c r="H106" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A106)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D107" s="19">
+        <f t="shared" ref="D107:D108" si="18">C107*0.01</f>
+        <v>10</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A107)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="19">
+        <v>0</v>
+      </c>
+      <c r="D108" s="19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H108" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A108)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C109">
-        <v>1000</v>
-      </c>
-      <c r="D109">
-        <f t="shared" ref="D109:D110" si="18">C109*0.01</f>
-        <v>10</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="b">
+      <c r="C109" s="19">
+        <v>0</v>
+      </c>
+      <c r="D109" s="19">
+        <f t="shared" ref="D109:D110" si="19">C109*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H109" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A109)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>264</v>
-      </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>283</v>
-      </c>
-      <c r="H110" t="b">
+        <v>302</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C110" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D110" s="19">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="E110" s="19">
+        <v>0</v>
+      </c>
+      <c r="F110" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H110" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A110)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>195</v>
-      </c>
-      <c r="B111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <f t="shared" ref="D111" si="19">C111*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>283</v>
-      </c>
-      <c r="H111" t="b">
+        <v>303</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D111" s="19">
+        <f t="shared" ref="D111:D113" si="20">C111*0.01</f>
+        <v>10</v>
+      </c>
+      <c r="E111" s="19">
+        <v>0</v>
+      </c>
+      <c r="F111" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H111" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A111)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>304</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D112" s="19">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="E112" s="19">
+        <v>0</v>
+      </c>
+      <c r="F112" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H112" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A112)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>302</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D113" s="19">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="E113" s="19">
+        <v>0</v>
+      </c>
+      <c r="F113" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A113)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C114" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D114" s="19">
+        <f t="shared" ref="D114:D115" si="21">C114*0.01</f>
+        <v>10</v>
+      </c>
+      <c r="E114" s="19">
+        <v>0</v>
+      </c>
+      <c r="F114" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A114)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>304</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C115" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D115" s="19">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="E115" s="19">
+        <v>0</v>
+      </c>
+      <c r="F115" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A115)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G54" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G53" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6257,87 +6408,87 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6362,13 +6513,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6398,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6410,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6422,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6434,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6455,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6467,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6479,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6491,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6503,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6598,7 +6749,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" t="b">
         <f>FALSE</f>
@@ -6607,7 +6758,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25" t="b">
         <f>FALSE</f>
@@ -6622,10 +6773,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155:B156"/>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6648,10 +6799,10 @@
         <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6699,7 +6850,7 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" t="b">
         <f>TRUE</f>
@@ -6719,7 +6870,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE</f>
@@ -6739,7 +6890,7 @@
         <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" t="b">
         <f>TRUE</f>
@@ -6759,7 +6910,7 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" t="b">
         <f>TRUE</f>
@@ -6779,7 +6930,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -6799,7 +6950,7 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -6819,7 +6970,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -6839,7 +6990,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -6859,7 +7010,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" t="b">
         <f>TRUE</f>
@@ -6879,7 +7030,7 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" t="b">
         <f>TRUE</f>
@@ -6899,7 +7050,7 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" t="b">
         <f>TRUE</f>
@@ -6919,7 +7070,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" t="b">
         <f>TRUE</f>
@@ -6939,7 +7090,7 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" t="b">
         <f>TRUE</f>
@@ -6959,7 +7110,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" t="b">
         <f>TRUE</f>
@@ -6979,7 +7130,7 @@
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" t="b">
         <f>TRUE</f>
@@ -6999,7 +7150,7 @@
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" t="b">
         <f>TRUE</f>
@@ -9739,7 +9890,7 @@
         <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C156" t="b">
         <f>TRUE</f>
@@ -10778,7 +10929,7 @@
         <v>254</v>
       </c>
       <c r="B208" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="C208" t="b">
         <f>TRUE</f>
@@ -10798,7 +10949,7 @@
         <v>254</v>
       </c>
       <c r="B209" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="C209" t="b">
         <f>TRUE</f>
@@ -10895,10 +11046,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B214" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C214" t="b">
         <f>TRUE</f>
@@ -10915,10 +11066,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B215" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="C215" t="b">
         <f>TRUE</f>
@@ -10935,10 +11086,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B216" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="C216" t="b">
         <f>TRUE</f>
@@ -10955,10 +11106,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B217" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="C217" t="b">
         <f>TRUE</f>
@@ -10975,14 +11126,14 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="B218" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C218" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D218" t="b">
         <f>VLOOKUP(A218,Módulos!A:B,2,FALSE)</f>
@@ -10990,19 +11141,19 @@
       </c>
       <c r="E218" t="str">
         <f>IF(C218,"Nenhuma",VLOOKUP(B218,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_beneficios_inss</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="B219" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C219" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D219" t="b">
         <f>VLOOKUP(A219,Módulos!A:B,2,FALSE)</f>
@@ -11010,15 +11161,15 @@
       </c>
       <c r="E219" t="str">
         <f>IF(C219,"Nenhuma",VLOOKUP(B219,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
+        <v>calcular_beneficios_inss</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B220" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C220" t="b">
         <f>FALSE</f>
@@ -11035,10 +11186,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B221" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C221" t="b">
         <f>FALSE</f>
@@ -11055,14 +11206,14 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B222" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="C222" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D222" t="b">
         <f>VLOOKUP(A222,Módulos!A:B,2,FALSE)</f>
@@ -11070,19 +11221,19 @@
       </c>
       <c r="E222" t="str">
         <f>IF(C222,"Nenhuma",VLOOKUP(B222,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_beneficios_inss</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B223" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="C223" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D223" t="b">
         <f>VLOOKUP(A223,Módulos!A:B,2,FALSE)</f>
@@ -11090,15 +11241,15 @@
       </c>
       <c r="E223" t="str">
         <f>IF(C223,"Nenhuma",VLOOKUP(B223,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>calcular_beneficios_inss</v>
+        <v>Nenhuma</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B224" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C224" t="b">
         <f>TRUE</f>
@@ -11115,10 +11266,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C225" t="b">
         <f>TRUE</f>
@@ -11135,10 +11286,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>2</v>
       </c>
       <c r="C226" t="b">
         <f>TRUE</f>
@@ -11155,10 +11306,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B227" t="s">
-        <v>243</v>
+        <v>1</v>
       </c>
       <c r="C227" t="b">
         <f>TRUE</f>
@@ -11175,14 +11326,14 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="C228" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D228" t="b">
         <f>VLOOKUP(A228,Módulos!A:B,2,FALSE)</f>
@@ -11190,51 +11341,11 @@
       </c>
       <c r="E228" t="str">
         <f>IF(C228,"Nenhuma",VLOOKUP(B228,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>286</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1</v>
-      </c>
-      <c r="C229" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D229" t="b">
-        <f>VLOOKUP(A229,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E229" t="str">
-        <f>IF(C229,"Nenhuma",VLOOKUP(B229,Funcoes_Outputs!B:D,3,FALSE))</f>
-        <v>Nenhuma</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>286</v>
-      </c>
-      <c r="B230" t="s">
-        <v>175</v>
-      </c>
-      <c r="C230" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="D230" t="b">
-        <f>VLOOKUP(A230,Módulos!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E230" t="str">
-        <f>IF(C230,"Nenhuma",VLOOKUP(B230,Funcoes_Outputs!B:D,3,FALSE))</f>
         <v>calcular_turnovergeral</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E219" xr:uid="{D8C2AD8A-D29B-4ECE-B686-2DDAE10A4D17}"/>
+  <autoFilter ref="A1:E217" xr:uid="{D8C2AD8A-D29B-4ECE-B686-2DDAE10A4D17}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="308">
   <si>
     <t>Ano</t>
   </si>
@@ -960,6 +960,12 @@
   </si>
   <si>
     <t>normaltruncada</t>
+  </si>
+  <si>
+    <t>DespesasSeguroPatrimonial</t>
+  </si>
+  <si>
+    <t>calcular_seguro_patrimonial</t>
   </si>
 </sst>
 </file>
@@ -1487,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,6 +2505,14 @@
       <c r="D83" t="str">
         <f t="shared" si="1"/>
         <v>calcular_fap</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>307</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3772,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6331,7 +6345,7 @@
         <v>1000</v>
       </c>
       <c r="D114" s="19">
-        <f t="shared" ref="D114:D115" si="21">C114*0.01</f>
+        <f t="shared" ref="D114:D116" si="21">C114*0.01</f>
         <v>10</v>
       </c>
       <c r="E114" s="19">
@@ -6373,6 +6387,48 @@
       </c>
       <c r="H115" s="19" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A115)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D116" s="17">
+        <v>0</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H116" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A116)&gt;0,FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="17">
+        <v>800</v>
+      </c>
+      <c r="D117" s="19">
+        <v>0</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="19" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A117)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
@@ -6498,10 +6554,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A637D1-2310-439A-BD02-4B96D1435E85}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6765,6 +6821,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B24" xr:uid="{955D7034-6C13-437D-9C30-BB0846CAC95B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6773,10 +6838,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11344,6 +11409,26 @@
         <v>calcular_turnovergeral</v>
       </c>
     </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>307</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C229" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D229" t="b">
+        <f>VLOOKUP(A229,Módulos!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E229" t="str">
+        <f>IF(C229,"Nenhuma",VLOOKUP(B229,Funcoes_Outputs!B:D,3,FALSE))</f>
+        <v>Nenhuma</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E217" xr:uid="{D8C2AD8A-D29B-4ECE-B686-2DDAE10A4D17}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/tests/testthat/Dados.xlsx
+++ b/tests/testthat/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -28,9 +28,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Módulos!$A$1:$B$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametros!$A$1:$G$53</definedName>
-    <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
+    <definedName name="Ano_Inicial">Configs!$C$2:$C$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
-    <definedName name="CategoriaSAT">Configs!$C$2:$C$2</definedName>
+    <definedName name="CategoriaSAT">Configs!#REF!</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -41,8 +41,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D2E54795-313D-421F-AC4E-8B99B6003FDA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Número de funcionários médio do histórico considerado para o calculo da taxa de acidentes usada pela distribuição poisson.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="294">
   <si>
     <t>Ano</t>
   </si>
@@ -53,9 +87,6 @@
     <t>FolhadePagamento</t>
   </si>
   <si>
-    <t>CategoriaSAT</t>
-  </si>
-  <si>
     <t>AnoInicial</t>
   </si>
   <si>
@@ -77,9 +108,6 @@
     <t>Parametro4</t>
   </si>
   <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
     <t>Iniciativa1</t>
   </si>
   <si>
@@ -98,15 +126,6 @@
     <t>PercFalta</t>
   </si>
   <si>
-    <t>IniciativasTestadas</t>
-  </si>
-  <si>
-    <t>Vacina da Gripe</t>
-  </si>
-  <si>
-    <t>Novo Equipamento</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -158,36 +177,6 @@
     <t>Iniciativa2</t>
   </si>
   <si>
-    <t>NomeInicativa1</t>
-  </si>
-  <si>
-    <t>NomeIniciativa2</t>
-  </si>
-  <si>
-    <t>NomeIniciativa3</t>
-  </si>
-  <si>
-    <t>NomeIniciativa4</t>
-  </si>
-  <si>
-    <t>NomeIniciativa5</t>
-  </si>
-  <si>
-    <t>NomeIniciativa6</t>
-  </si>
-  <si>
-    <t>NomeIniciativa7</t>
-  </si>
-  <si>
-    <t>NomeIniciativa8</t>
-  </si>
-  <si>
-    <t>NomeIniciativa9</t>
-  </si>
-  <si>
-    <t>NomeIniciativa10</t>
-  </si>
-  <si>
     <t>Iniciativa3</t>
   </si>
   <si>
@@ -215,9 +204,6 @@
     <t>TodasIniciativas</t>
   </si>
   <si>
-    <t>TestarIniciativasEmConjunto?</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -966,6 +952,12 @@
   </si>
   <si>
     <t>calcular_seguro_patrimonial</t>
+  </si>
+  <si>
+    <t>FuncionariosBase</t>
+  </si>
+  <si>
+    <t>poisson</t>
   </si>
 </sst>
 </file>
@@ -978,7 +970,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,6 +980,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1016,6 +1015,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1040,7 +1052,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,6 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1410,78 +1423,78 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1509,22 +1522,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D2" t="str">
         <f>A2</f>
@@ -1533,10 +1546,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D65" si="0">A3</f>
@@ -1545,10 +1558,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1557,10 +1570,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1569,10 +1582,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1581,10 +1594,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -1593,10 +1606,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -1605,10 +1618,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -1617,10 +1630,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -1629,10 +1642,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -1641,10 +1654,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -1653,10 +1666,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1665,10 +1678,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1677,10 +1690,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -1689,10 +1702,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1701,10 +1714,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1713,10 +1726,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1725,10 +1738,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1737,10 +1750,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -1749,10 +1762,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -1761,10 +1774,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -1773,10 +1786,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1785,14 +1798,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B24" t="str">
         <f>"NumeroMultas_"&amp;C24</f>
         <v>NumeroMultas_Lei1</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -1801,10 +1814,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1813,10 +1826,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1825,10 +1838,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1837,10 +1850,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -1849,10 +1862,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -1861,10 +1874,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -1873,10 +1886,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -1885,10 +1898,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -1897,10 +1910,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -1909,10 +1922,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -1921,10 +1934,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -1933,10 +1946,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -1945,10 +1958,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -1957,10 +1970,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
         <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -1969,10 +1982,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -1981,10 +1994,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -1993,10 +2006,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -2005,10 +2018,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -2017,10 +2030,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -2029,10 +2042,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -2041,10 +2054,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -2053,10 +2066,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -2065,10 +2078,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -2077,10 +2090,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -2089,10 +2102,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -2101,10 +2114,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -2113,10 +2126,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -2125,10 +2138,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -2137,10 +2150,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -2149,10 +2162,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -2161,10 +2174,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -2173,10 +2186,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2185,10 +2198,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -2197,10 +2210,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -2209,10 +2222,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -2221,10 +2234,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -2233,10 +2246,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -2245,10 +2258,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2257,10 +2270,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -2269,10 +2282,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -2281,10 +2294,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -2293,10 +2306,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D83" si="1">A66</f>
@@ -2305,10 +2318,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
@@ -2317,10 +2330,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -2329,10 +2342,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B69" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -2341,10 +2354,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -2353,10 +2366,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -2365,10 +2378,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -2377,10 +2390,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -2389,10 +2402,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -2401,10 +2414,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -2413,10 +2426,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -2425,10 +2438,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -2437,10 +2450,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -2449,10 +2462,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -2461,10 +2474,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B80" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -2473,10 +2486,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -2485,10 +2498,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -2497,10 +2510,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -2509,10 +2522,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>306</v>
+        <v>291</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2539,55 +2552,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2608,22 +2621,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2649,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2649,24 +2662,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10">
         <v>2017</v>
@@ -2677,10 +2690,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C3" s="10">
         <v>2018</v>
@@ -2691,10 +2704,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10">
         <v>2017</v>
@@ -2705,10 +2718,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10">
         <v>2018</v>
@@ -2736,125 +2749,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>2017</v>
       </c>
+      <c r="D2">
+        <f>AVERAGE(Dados_Projetados!B1:B10)</f>
+        <v>3000</v>
+      </c>
       <c r="E2">
-        <v>123412321</v>
-      </c>
-      <c r="F2">
         <v>0.1</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2862,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2909,154 +2859,154 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="P1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="Q1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="R1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" t="s">
         <v>167</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>168</v>
       </c>
-      <c r="T1" t="s">
-        <v>174</v>
-      </c>
-      <c r="U1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>169</v>
+      </c>
+      <c r="X1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z1" t="s">
         <v>184</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>185</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>202</v>
-      </c>
       <c r="AC1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="AD1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AE1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="AF1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="AG1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="AH1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV1" t="s">
         <v>229</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AW1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY1" t="s">
         <v>230</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AZ1" t="s">
         <v>231</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BA1" t="s">
         <v>232</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
@@ -3072,7 +3022,6 @@
         <v>2550000</v>
       </c>
       <c r="D2">
-        <f>CategoriaSAT</f>
         <v>0.03</v>
       </c>
       <c r="E2" s="11">
@@ -3236,7 +3185,6 @@
         <v>2550000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3" si="2">CategoriaSAT</f>
         <v>0.03</v>
       </c>
       <c r="E3" s="11">
@@ -3256,23 +3204,23 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:N3" si="3">J2</f>
+        <f t="shared" ref="J3:N3" si="2">J2</f>
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O3" s="12">
@@ -3433,9 +3381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D0FF9-8990-44BE-BAF9-E556463C7042}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3452,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3470,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="I1" t="str">
         <f>"CustoMedio_"&amp;B1</f>
@@ -3489,10 +3435,10 @@
         <v>CustoMedio_NB_94</v>
       </c>
       <c r="M1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="N1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3513,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="11">
-        <v>213</v>
+        <v>3000</v>
       </c>
       <c r="G2">
         <v>12628104.869999999</v>
@@ -3559,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>213</v>
+        <v>3000</v>
       </c>
       <c r="G3">
         <v>12628104.869999999</v>
@@ -3610,18 +3556,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B2" t="b">
         <f>TRUE</f>
@@ -3634,7 +3580,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <f>TRUE</f>
@@ -3647,7 +3593,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" t="b">
         <f>FALSE</f>
@@ -3660,7 +3606,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B5" t="b">
         <f>FALSE</f>
@@ -3673,7 +3619,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B6" t="b">
         <f>FALSE</f>
@@ -3686,7 +3632,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B7" t="b">
         <f>FALSE</f>
@@ -3699,7 +3645,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B8" t="b">
         <f>FALSE</f>
@@ -3712,7 +3658,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B9" t="b">
         <f>FALSE</f>
@@ -3725,7 +3671,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B10" t="b">
         <f>FALSE</f>
@@ -3738,7 +3684,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B11" t="b">
         <f>FALSE</f>
@@ -3751,7 +3697,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B12" t="b">
         <f>FALSE</f>
@@ -3764,7 +3710,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B13" t="b">
         <f>FALSE</f>
@@ -3788,2646 +3734,2639 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="33.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="20" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>301</v>
+      <c r="G1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="A2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20">
         <v>5</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="20">
         <f t="shared" ref="D2:D9" si="0">C2*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H2" s="19" t="b">
+      <c r="G2" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A2)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="A3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="20">
         <v>1000</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H3" s="19" t="b">
+      <c r="G3" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A3)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="A4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="20">
         <v>5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" s="19" t="b">
+      <c r="G4" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A4)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="A5" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="20">
         <v>0.5</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="19" t="b">
+      <c r="G5" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A5)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="A6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="20">
         <v>0.1</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H6" s="19" t="b">
+      <c r="G6" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A6)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="A7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20">
         <v>0.01</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="20">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H7" s="19" t="b">
+      <c r="G7" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A7)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="A8" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="20">
         <v>2500</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8" s="19" t="b">
+      <c r="G8" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A8)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="A9" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="20">
         <v>2000</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H9" s="19" t="b">
+      <c r="G9" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A9)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="A10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="20">
         <v>2000</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="20">
         <f t="shared" ref="D10" si="1">C10*0.01</f>
         <v>20</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H10" s="19" t="b">
+      <c r="G10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A10)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="A11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="20">
         <v>0.1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <f t="shared" ref="D11" si="2">C11*0.01</f>
         <v>1E-3</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="19" t="b">
+      <c r="G11" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A11)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="A12" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="20">
         <v>1000</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="20">
         <f t="shared" ref="D12" si="3">C12*0.01</f>
         <v>10</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H12" s="19" t="b">
+      <c r="G12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A12)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="A13" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="20">
         <v>0.1</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="20">
         <f t="shared" ref="D13:D14" si="4">C13*0.01</f>
         <v>1E-3</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" s="19" t="b">
+      <c r="G13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A13)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="A14" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="20">
         <v>1000</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H14" s="19" t="b">
+      <c r="G14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A14)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="A15" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
         <f t="shared" ref="D15" si="5">C15*0.01</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H15" s="19" t="b">
+      <c r="G15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A15)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="A16" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20">
         <f t="shared" ref="D16" si="6">C16*0.01</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="19" t="b">
+      <c r="G16" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A16)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="19">
+      <c r="A17" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20">
         <v>10</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <f t="shared" ref="D17" si="7">C17*0.01</f>
         <v>0.1</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H17" s="19" t="b">
+      <c r="G17" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A17)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="19">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="A18" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
         <f t="shared" ref="D18:D19" si="8">C18*0.01</f>
         <v>0</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" s="19" t="b">
+      <c r="G18" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A18)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="19">
+      <c r="A19" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="20">
         <v>2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="20">
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="19" t="b">
+      <c r="G19" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A19)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="19">
+      <c r="A20" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="20">
         <v>2</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="20">
         <f t="shared" ref="D20:D24" si="9">C20*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H20" s="19" t="b">
+      <c r="G20" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A20)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="A21" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="20">
         <v>2</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H21" s="19" t="b">
+      <c r="G21" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A21)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="A22" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="20">
         <v>2</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="20">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H22" s="19" t="b">
+      <c r="G22" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A22)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="A23" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="20">
         <v>2</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="20">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H23" s="19" t="b">
+      <c r="G23" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A23)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="A24" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="20">
         <v>500</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="20">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H24" s="19" t="b">
+      <c r="G24" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A24)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="19">
+      <c r="A25" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="20">
         <v>500</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="20">
         <f t="shared" ref="D25:D33" si="10">C25*0.01</f>
         <v>5</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" s="19" t="b">
+      <c r="G25" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A25)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="19">
+      <c r="A26" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="20">
         <v>500</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="20">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H26" s="19" t="b">
+      <c r="G26" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A26)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="A27" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="20">
         <v>500</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="20">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H27" s="19" t="b">
+      <c r="G27" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A27)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="19">
+      <c r="A28" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="20">
         <v>500</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="20">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H28" s="19" t="b">
+      <c r="G28" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A28)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19">
+      <c r="A29" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H29" s="19" t="b">
+      <c r="G29" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A29)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="19">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19">
+      <c r="A30" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0</v>
+      </c>
+      <c r="D30" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H30" s="19" t="b">
+      <c r="G30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A30)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="19">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19">
+      <c r="A31" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+      <c r="D31" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H31" s="19" t="b">
+      <c r="G31" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A31)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19">
+      <c r="A32" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H32" s="19" t="b">
+      <c r="G32" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A32)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="19">
-        <v>0</v>
-      </c>
-      <c r="D33" s="19">
+      <c r="A33" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+      <c r="D33" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H33" s="19" t="b">
+      <c r="G33" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A33)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="A34" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="20">
         <v>10</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="20">
         <f t="shared" ref="D34:D35" si="11">C34*0.01</f>
         <v>0.1</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H34" s="19" t="b">
+      <c r="G34" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A34)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="19">
-        <v>1</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="A35" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H35" s="19" t="b">
+      <c r="G35" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A35)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="19">
+      <c r="A36" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="20">
         <v>2</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="20">
         <f t="shared" ref="D36:D37" si="12">C36*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H36" s="19" t="b">
+      <c r="G36" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A36)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="19">
+      <c r="A37" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="20">
         <v>10</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="20">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H37" s="19" t="b">
+      <c r="G37" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A37)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="19">
+      <c r="A38" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="20">
         <f t="shared" ref="D38" si="13">C38*0.01</f>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H38" s="19" t="b">
+      <c r="G38" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A38)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="19">
+      <c r="A39" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="20">
         <f t="shared" ref="D39:D41" si="14">C39*0.01</f>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H39" s="19" t="b">
+      <c r="G39" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A39)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="19">
+      <c r="A40" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="20">
         <f t="shared" si="14"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H40" s="19" t="b">
+      <c r="G40" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A40)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="19">
+      <c r="A41" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="20">
         <f t="shared" si="14"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H41" s="19" t="b">
+      <c r="G41" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A41)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="19">
+      <c r="A42" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" s="20">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A42)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D42" s="19">
-        <f t="shared" ref="D42:D93" si="15">C42*0.01</f>
+      <c r="D43" s="20">
+        <f t="shared" ref="D43:D93" si="15">C43*0.01</f>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H42" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A42)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="19">
+      <c r="G43" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A43)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D44" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G43" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H43" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A43)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="19">
+      <c r="G44" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A44)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D45" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G44" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A44)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="19">
+      <c r="G45" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A45)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D46" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G45" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H45" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A45)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="19">
+      <c r="G46" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A46)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D47" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G46" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H46" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A46)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="19">
+      <c r="G47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A47)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D48" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G47" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H47" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A47)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="19">
+      <c r="G48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A48)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D49" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G48" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H48" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A48)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="19">
+      <c r="G49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A49)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D50" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G49" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H49" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A49)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="19">
+      <c r="G50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A50)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D51" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G50" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H50" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A50)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="19">
+      <c r="G51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A51)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D52" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G51" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H51" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A51)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="19">
+      <c r="G52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A52)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D53" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G52" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H52" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A52)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="19">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D53" s="19">
-        <f t="shared" si="15"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="H53" s="19" t="b">
+      <c r="G53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A53)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="19">
+      <c r="A54" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="20">
         <v>3</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="20">
         <f t="shared" si="15"/>
         <v>0.03</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="19" t="b">
+      <c r="G54" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A54)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="19">
+      <c r="A55" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="20">
         <v>800</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="20">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="G55" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="19" t="b">
+      <c r="G55" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A55)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="19">
+      <c r="A56" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="20">
         <v>3</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="20">
         <f t="shared" si="15"/>
         <v>0.03</v>
       </c>
-      <c r="G56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="19" t="b">
+      <c r="G56" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A56)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="19">
+      <c r="A57" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="20">
         <v>0.2</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="20">
         <f t="shared" si="15"/>
         <v>2E-3</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="19" t="b">
+      <c r="G57" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A57)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="19">
+      <c r="A58" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="20">
         <v>0.05</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G58" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="19" t="b">
+      <c r="G58" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A58)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="19">
+      <c r="A59" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G59" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="19" t="b">
+      <c r="G59" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A59)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="19">
+      <c r="A60" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="20">
         <v>1500</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="20">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="G60" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="19" t="b">
+      <c r="G60" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A60)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="19">
+      <c r="A61" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="20">
         <v>1500</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="20">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="G61" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="19" t="b">
+      <c r="G61" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A61)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="19">
+      <c r="A62" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="20">
         <v>1500</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="20">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="G62" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="19" t="b">
+      <c r="G62" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A62)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="19">
+      <c r="A63" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="20">
         <v>0.01</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="20">
         <f t="shared" si="15"/>
         <v>1E-4</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="19" t="b">
+      <c r="G63" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A63)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="19">
+      <c r="A64" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="20">
         <v>800</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="20">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="G64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="19" t="b">
+      <c r="G64" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A64)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="19">
+      <c r="A65" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="20">
         <v>0.05</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G65" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="19" t="b">
+      <c r="G65" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A65)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="19">
+      <c r="A66" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="20">
         <v>800</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="20">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="G66" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="19" t="b">
+      <c r="G66" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A66)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="19">
+      <c r="A67" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="20">
         <v>0.1</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="20">
         <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
-      <c r="G67" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="19" t="b">
+      <c r="G67" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A67)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="19">
+      <c r="A68" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="20">
         <v>0.1</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="20">
         <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
-      <c r="G68" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="19" t="b">
+      <c r="G68" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A68)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="19">
+      <c r="A69" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="20">
         <v>8</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="20">
         <f t="shared" si="15"/>
         <v>0.08</v>
       </c>
-      <c r="G69" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="19" t="b">
+      <c r="G69" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A69)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="19">
+      <c r="A70" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="20">
         <v>10000</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="20">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="G70" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="19" t="b">
+      <c r="G70" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A70)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="19">
-        <v>1</v>
-      </c>
-      <c r="D71" s="19">
+      <c r="A71" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1</v>
+      </c>
+      <c r="D71" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G71" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="19" t="b">
+      <c r="G71" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A71)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="19">
-        <v>1</v>
-      </c>
-      <c r="D72" s="19">
+      <c r="A72" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1</v>
+      </c>
+      <c r="D72" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G72" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="19" t="b">
+      <c r="G72" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A72)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="19">
-        <v>1</v>
-      </c>
-      <c r="D73" s="19">
+      <c r="A73" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1</v>
+      </c>
+      <c r="D73" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G73" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="19" t="b">
+      <c r="G73" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A73)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="19">
-        <v>1</v>
-      </c>
-      <c r="D74" s="19">
+      <c r="A74" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1</v>
+      </c>
+      <c r="D74" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G74" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="19" t="b">
+      <c r="G74" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A74)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="19">
-        <v>1</v>
-      </c>
-      <c r="D75" s="19">
+      <c r="A75" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1</v>
+      </c>
+      <c r="D75" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G75" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="19" t="b">
+      <c r="G75" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A75)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="19">
+      <c r="A76" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="20">
         <v>300</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="20">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G76" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="19" t="b">
+      <c r="G76" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A76)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="19">
+      <c r="A77" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="20">
         <v>300</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="20">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G77" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="19" t="b">
+      <c r="G77" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A77)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="19">
+      <c r="A78" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="20">
         <v>300</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="20">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G78" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="19" t="b">
+      <c r="G78" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A78)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="19">
+      <c r="A79" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="20">
         <v>300</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="20">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G79" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="19" t="b">
+      <c r="G79" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A79)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="19">
+      <c r="A80" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="20">
         <v>300</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="20">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G80" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="19" t="b">
+      <c r="G80" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A80)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="19">
-        <v>1</v>
-      </c>
-      <c r="D81" s="19">
+      <c r="A81" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1</v>
+      </c>
+      <c r="D81" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G81" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="19" t="b">
+      <c r="G81" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A81)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="19">
-        <v>1</v>
-      </c>
-      <c r="D82" s="19">
+      <c r="A82" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1</v>
+      </c>
+      <c r="D82" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G82" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="19" t="b">
+      <c r="G82" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A82)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="19">
-        <v>1</v>
-      </c>
-      <c r="D83" s="19">
+      <c r="A83" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1</v>
+      </c>
+      <c r="D83" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G83" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="19" t="b">
+      <c r="G83" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A83)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="19">
-        <v>1</v>
-      </c>
-      <c r="D84" s="19">
+      <c r="A84" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1</v>
+      </c>
+      <c r="D84" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G84" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="19" t="b">
+      <c r="G84" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A84)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="19">
-        <v>1</v>
-      </c>
-      <c r="D85" s="19">
+      <c r="A85" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1</v>
+      </c>
+      <c r="D85" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G85" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="19" t="b">
+      <c r="G85" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A85)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="19">
+      <c r="A86" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="20">
         <v>8</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="20">
         <f t="shared" si="15"/>
         <v>0.08</v>
       </c>
-      <c r="G86" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="19" t="b">
+      <c r="G86" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A86)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="19">
+      <c r="A87" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="20">
         <v>0.5</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="20">
         <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G87" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="19" t="b">
+      <c r="G87" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A87)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="19">
-        <v>1</v>
-      </c>
-      <c r="D88" s="19">
+      <c r="A88" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1</v>
+      </c>
+      <c r="D88" s="20">
         <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
-      <c r="G88" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="19" t="b">
+      <c r="G88" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A88)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="19">
+      <c r="A89" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="20">
         <v>7</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="20">
         <f t="shared" si="15"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G89" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="19" t="b">
+      <c r="G89" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A89)&gt;0,FALSE,TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="19">
+      <c r="A90" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="20">
         <f>0.0005/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="20">
         <f t="shared" si="15"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G90" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="19" t="b">
+      <c r="G90" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A90)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="19">
+      <c r="A91" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="20">
         <f t="shared" ref="C91:C105" si="16">0.0005/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="20">
         <f t="shared" si="15"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G91" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="19" t="b">
+      <c r="G91" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A91)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="19">
+      <c r="A92" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="20">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="20">
         <f t="shared" si="15"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G92" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="19" t="b">
+      <c r="G92" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A92)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="19">
+      <c r="A93" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="20">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="20">
         <f t="shared" si="15"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G93" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="19" t="b">
+      <c r="G93" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="20" t="b">
         <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A93)&gt;0,FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C94" s="19">
+      <c r="A94" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" s="20">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A94)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="20">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D94" s="19">
-        <f t="shared" ref="D94:D106" si="17">C94*0.01</f>
+      <c r="D95" s="20">
+        <f t="shared" ref="D95:D106" si="17">C95*0.01</f>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G94" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A94)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C95" s="19">
+      <c r="G95" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A95)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="20">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D96" s="20">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G95" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A95)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="19">
+      <c r="G96" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A96)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="20">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D97" s="20">
         <f t="shared" si="17"/>
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G96" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="19" t="b">
-        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A96)&gt;0,FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C97" s="19">
+      <c r="G97" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="20" t="b">
+        <f>IF(COUNTIF(ParametrosSemSeedFixa!$A:$A,Parametros!A97)&gt;0,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="20">
         <f t="shared" si="16"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D98" s="20